--- a/CVAShortRateIntensity/CVAShortRateIntensityMoreTimeStepsPrototype.xlsx
+++ b/CVAShortRateIntensity/CVAShortRateIntensityMoreTimeStepsPrototype.xlsx
@@ -392,8 +392,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.7103529747047817E-2"/>
-          <c:y val="0.146449864498645"/>
+          <c:x val="2.7409048139994514E-2"/>
+          <c:y val="0.15006323396567298"/>
           <c:w val="0.79869272032764727"/>
           <c:h val="0.77333959271351249"/>
         </c:manualLayout>
@@ -741,304 +741,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4135761400334179E-2</c:v>
+                  <c:v>-2.1707241602296479E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3811416613120405E-2</c:v>
+                  <c:v>-9.1074807393306933E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8949259844468472E-2</c:v>
+                  <c:v>-2.7272810417214327E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4629572283819257E-2</c:v>
+                  <c:v>-2.3690799458546439E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4378380109834983E-2</c:v>
+                  <c:v>-1.7840924624383643E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7295934055486849E-2</c:v>
+                  <c:v>-2.793900319193262E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7951050001518624E-2</c:v>
+                  <c:v>-2.2898123891775014E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9820986351757756E-2</c:v>
+                  <c:v>-3.2759981093274174E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.218764295231802E-2</c:v>
+                  <c:v>-4.1765226529029961E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3296744603563121E-2</c:v>
+                  <c:v>-3.4611564509967774E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4970372611468701E-2</c:v>
+                  <c:v>-3.2609224473573235E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2356366651568073E-2</c:v>
+                  <c:v>-3.0603532499762526E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3505236614964482E-2</c:v>
+                  <c:v>-2.3600804759179032E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4333649279886083E-2</c:v>
+                  <c:v>-1.8692483022166469E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0183929672646403E-2</c:v>
+                  <c:v>-1.5246732391521682E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3413217348011631E-3</c:v>
+                  <c:v>-1.514334363067318E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3861290417663052E-2</c:v>
+                  <c:v>-2.6150597647034046E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2954075838381011E-2</c:v>
+                  <c:v>-3.1714130605589627E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8333715276815372E-2</c:v>
+                  <c:v>-2.2520913204857908E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8789502283441971E-2</c:v>
+                  <c:v>-2.0443842880405835E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1123731609248174E-2</c:v>
+                  <c:v>-3.8246788123348439E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.2159972157382406E-3</c:v>
+                  <c:v>-4.1396853640860411E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1944077800041305E-3</c:v>
+                  <c:v>-3.8934456599163968E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.8586624160843519E-2</c:v>
+                  <c:v>-3.0124398018192427E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.005306254546421E-2</c:v>
+                  <c:v>-4.2540119833921919E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.2213553229980281E-3</c:v>
+                  <c:v>-2.5554776276523583E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.0037370953940219E-2</c:v>
+                  <c:v>-1.371529245619146E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.9286571510317423E-2</c:v>
+                  <c:v>-1.2570281030314432E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.7313235930377348E-2</c:v>
+                  <c:v>-1.6188907577323636E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.4693511186839144E-2</c:v>
+                  <c:v>-5.4666898704655124E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.073730615449328E-2</c:v>
+                  <c:v>-8.9101357985459789E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-5.3635528412369661E-3</c:v>
+                  <c:v>-8.7364285490021728E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.6758167078712116E-3</c:v>
+                  <c:v>5.4814275146614338E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9104963945902784E-2</c:v>
+                  <c:v>-1.1628032091239212E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.7712350403290393E-2</c:v>
+                  <c:v>-1.8232926795236117E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.3862659373267943E-2</c:v>
+                  <c:v>-1.5641102334835597E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7461149099593786E-2</c:v>
+                  <c:v>-1.7990613149612613E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.9903411089823801E-2</c:v>
+                  <c:v>-5.239277033395E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.163527553133547E-2</c:v>
+                  <c:v>3.1405900764986125E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.1554791731112319E-2</c:v>
+                  <c:v>1.001579615552583E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.0174617378934243E-2</c:v>
+                  <c:v>1.2392081557389571E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.1382755443060969E-2</c:v>
+                  <c:v>1.3402715393715677E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.3185804263695231E-2</c:v>
+                  <c:v>2.9216695149454033E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.4169993574833979E-2</c:v>
+                  <c:v>3.6192046175950038E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.946946117644334E-2</c:v>
+                  <c:v>4.6379142368193141E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.5214605953217805E-2</c:v>
+                  <c:v>4.6806868754161922E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.6977619672446582E-2</c:v>
+                  <c:v>2.0753957926520045E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.9301815356830757E-2</c:v>
+                  <c:v>2.103277199713148E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.1645229007018575E-2</c:v>
+                  <c:v>3.1401845751891339E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.10025504395582896</c:v>
+                  <c:v>2.6868186814029697E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.7027100511205824E-2</c:v>
+                  <c:v>1.8368934661942934E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.0364935702671997E-2</c:v>
+                  <c:v>3.3292096198347942E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.608949171095317E-2</c:v>
+                  <c:v>3.9830063581622319E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.4111883483064221E-2</c:v>
+                  <c:v>3.8056929299018931E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.267562555539148E-2</c:v>
+                  <c:v>4.4522228333634596E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.4153874177290117E-2</c:v>
+                  <c:v>5.572313188020727E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.2317611035360524E-2</c:v>
+                  <c:v>5.5998002048922683E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.5435045768870534E-2</c:v>
+                  <c:v>5.4429639623866745E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.7175206294087053E-2</c:v>
+                  <c:v>5.4752700324378283E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.0437965930069439E-2</c:v>
+                  <c:v>4.6481449677754208E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.062363303433793E-2</c:v>
+                  <c:v>4.0128747996765059E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.8908591300429178E-2</c:v>
+                  <c:v>5.2733804414029396E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.8963566339700296E-2</c:v>
+                  <c:v>5.0634194207023912E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.5200787130262753E-2</c:v>
+                  <c:v>6.5100163876940884E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.7566586828402202E-2</c:v>
+                  <c:v>5.1851285572046456E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.009293913288945E-2</c:v>
+                  <c:v>5.678022372395241E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0874512824071838E-2</c:v>
+                  <c:v>5.0282177389757612E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.412388737949026E-2</c:v>
+                  <c:v>7.0265237812240422E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8340222754748264E-2</c:v>
+                  <c:v>9.2829348343094045E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3225069071438358E-2</c:v>
+                  <c:v>8.5936035744420852E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.0816506484007989E-2</c:v>
+                  <c:v>8.9407283829266104E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.8857635707132946E-2</c:v>
+                  <c:v>8.2531250140532045E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.8441848977545351E-2</c:v>
+                  <c:v>8.6833570130747634E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.273946148955739E-2</c:v>
+                  <c:v>9.3459925244106998E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1228471965233819E-2</c:v>
+                  <c:v>0.10523109343253695</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.4234696227322661E-3</c:v>
+                  <c:v>0.10412068669747902</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1105902841915963E-2</c:v>
+                  <c:v>0.11399264968252916</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.8561569786741186E-2</c:v>
+                  <c:v>0.11704462424998861</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.2828272309676125E-2</c:v>
+                  <c:v>0.1206345655603229</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.244694518809336E-2</c:v>
+                  <c:v>0.11487247022996357</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9564674432305798E-2</c:v>
+                  <c:v>0.12955024097242063</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.9050941379859185E-2</c:v>
+                  <c:v>0.13544735492143678</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.2116822391009341E-2</c:v>
+                  <c:v>0.12584390513829979</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.9578138067937252E-2</c:v>
+                  <c:v>0.12160009218162983</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.8596820840503189E-2</c:v>
+                  <c:v>0.12594190466905897</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.8822183048010771E-2</c:v>
+                  <c:v>0.13081278061272647</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.2689386576758666E-2</c:v>
+                  <c:v>0.13151923454418263</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.8985192280983553E-2</c:v>
+                  <c:v>0.15124084415663305</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.7812265081919896E-2</c:v>
+                  <c:v>0.16493856745030314</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.813283231008128E-2</c:v>
+                  <c:v>0.14083580182695887</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.7150437448118261E-2</c:v>
+                  <c:v>0.14525422214423359</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.3828331432360321E-2</c:v>
+                  <c:v>0.15099875991908332</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.199672785221054E-2</c:v>
+                  <c:v>0.13313174595306526</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.3816010368282688E-2</c:v>
+                  <c:v>0.11699550133364855</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.8487165205340479E-2</c:v>
+                  <c:v>0.11335197471488445</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.5033670138335501E-2</c:v>
+                  <c:v>0.12432112397699553</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.0118861136049613E-2</c:v>
+                  <c:v>0.11806296778814598</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9916432704978747E-2</c:v>
+                  <c:v>0.12289948821248899</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.4164752560078694E-2</c:v>
+                  <c:v>0.11947678826140555</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.6534015885268304E-3</c:v>
+                  <c:v>0.12440331807903411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,304 +1390,304 @@
                   <c:v>0.6885068241408504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61608064041762778</c:v>
+                  <c:v>0.69973968827366417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61771499708025068</c:v>
+                  <c:v>0.73773943967480682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54995599407670137</c:v>
+                  <c:v>0.84722325941098975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52724796797837026</c:v>
+                  <c:v>0.8224805635645922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57062838031604601</c:v>
+                  <c:v>0.78525866709533265</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55882448827345621</c:v>
+                  <c:v>0.84564104508346127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55678309110552782</c:v>
+                  <c:v>0.81269525127338471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5498759355381041</c:v>
+                  <c:v>0.87234518904332692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58229588774571073</c:v>
+                  <c:v>0.92940142009404447</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62170308614537095</c:v>
+                  <c:v>0.87978281495877952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6164528520742999</c:v>
+                  <c:v>0.8676345212277764</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58703137447684639</c:v>
+                  <c:v>0.85586629975939765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.62747764219841451</c:v>
+                  <c:v>0.81523814870685329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62613473219580429</c:v>
+                  <c:v>0.78872067383987332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64679887246634338</c:v>
+                  <c:v>0.77134261806889082</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66515344766771589</c:v>
+                  <c:v>0.77076416797175162</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.63292596928299028</c:v>
+                  <c:v>0.83061135049142087</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.63805307050545546</c:v>
+                  <c:v>0.86169748516306399</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.57705688010293521</c:v>
+                  <c:v>0.80969388126877717</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.61640558624627062</c:v>
+                  <c:v>0.79838753679709928</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.64835054769240874</c:v>
+                  <c:v>0.89483848649304465</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.70671735029070781</c:v>
+                  <c:v>0.91022749539860193</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.68652129665973882</c:v>
+                  <c:v>0.89291491441732918</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.78256730970906518</c:v>
+                  <c:v>0.84179006053694683</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.74054782208466308</c:v>
+                  <c:v>0.90738899102580128</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72283399842383433</c:v>
+                  <c:v>0.81465349405693666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83601490638923825</c:v>
+                  <c:v>0.75658850426990853</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78199178398757263</c:v>
+                  <c:v>0.75087137226753009</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.77205042322591377</c:v>
+                  <c:v>0.76687995715523838</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.75957906222713389</c:v>
+                  <c:v>0.71929287385902851</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7869267545356613</c:v>
+                  <c:v>0.70086850697640257</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.71998686594315486</c:v>
+                  <c:v>0.73412273433784492</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.66147707027777469</c:v>
+                  <c:v>0.67746302581196538</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.59422024708841192</c:v>
+                  <c:v>0.74712432675335871</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.56846427114478681</c:v>
+                  <c:v>0.77541947883412543</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.55229844345754853</c:v>
+                  <c:v>0.76508872496030556</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.54456646635073591</c:v>
+                  <c:v>0.71066641445055623</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.57018472856628122</c:v>
+                  <c:v>0.72532426142109696</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.53886936014891951</c:v>
+                  <c:v>0.69536407163526015</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.54240761909309443</c:v>
+                  <c:v>0.67272780608024718</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.55002919702162245</c:v>
+                  <c:v>0.66715089603629663</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.49773118731094235</c:v>
+                  <c:v>0.6664558630502333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.52282074308959403</c:v>
+                  <c:v>0.6187589354753974</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.55073632329309807</c:v>
+                  <c:v>0.60128335351231799</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.54085118243293662</c:v>
+                  <c:v>0.57598966249107264</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.53087646547024814</c:v>
+                  <c:v>0.57919679687185299</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.50716752645137186</c:v>
+                  <c:v>0.6589265387325941</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.50686840367283093</c:v>
+                  <c:v>0.6618662607876119</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.48443870406632455</c:v>
+                  <c:v>0.63535680777136039</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.4716514196099964</c:v>
+                  <c:v>0.65255961670695106</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.50601869183440007</c:v>
+                  <c:v>0.68194960764027002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.50482614488316191</c:v>
+                  <c:v>0.64404537342054879</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.49892499167914545</c:v>
+                  <c:v>0.63150322700855643</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5094485943040491</c:v>
+                  <c:v>0.64141530134133939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5189365762758511</c:v>
+                  <c:v>0.6300657903293313</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.54355428300792274</c:v>
+                  <c:v>0.60814924560372119</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.57594112590511226</c:v>
+                  <c:v>0.61348069982570297</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5978098370223961</c:v>
+                  <c:v>0.62326055093379362</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.62302967488579453</c:v>
+                  <c:v>0.6286499035048867</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.64491015978511868</c:v>
+                  <c:v>0.65422734565074869</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.65074322104615434</c:v>
+                  <c:v>0.67539771489322709</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.63853591788271769</c:v>
+                  <c:v>0.65232815259379673</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.6673083369073346</c:v>
+                  <c:v>0.66355316291089939</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.66011719357623244</c:v>
+                  <c:v>0.63893513593053974</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.68349842334840905</c:v>
+                  <c:v>0.67415953613535862</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.70652898899336658</c:v>
+                  <c:v>0.6706101966493484</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.73333661859073518</c:v>
+                  <c:v>0.69129335541235082</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.77712864675817028</c:v>
+                  <c:v>0.65825273811734042</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.77323607393201688</c:v>
+                  <c:v>0.62432698408273934</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.79023144420139479</c:v>
+                  <c:v>0.64533187297807504</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.73877433371580459</c:v>
+                  <c:v>0.6479535898446227</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.73038235752272695</c:v>
+                  <c:v>0.66886655190408517</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.75764548281531174</c:v>
+                  <c:v>0.67047974114157693</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.79471601174690099</c:v>
+                  <c:v>0.66885137782229209</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.82319422983878476</c:v>
+                  <c:v>0.66002663569227416</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.84585027244947331</c:v>
+                  <c:v>0.67205811883484612</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.81749548130896244</c:v>
+                  <c:v>0.66809639399942566</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.82860638288395982</c:v>
+                  <c:v>0.67490624322049475</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.82819962755947141</c:v>
+                  <c:v>0.68148650016355738</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.80460978672324013</c:v>
+                  <c:v>0.70100388117403323</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.80253374869566041</c:v>
+                  <c:v>0.69422545090281662</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.82624486581615231</c:v>
+                  <c:v>0.69991344413047818</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.83048189524474536</c:v>
+                  <c:v>0.72455056686057018</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.84248374857527586</c:v>
+                  <c:v>0.74265486575823447</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.82809792047384401</c:v>
+                  <c:v>0.75130296768022664</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.82669423346874904</c:v>
+                  <c:v>0.76022614392201571</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.85481434660429534</c:v>
+                  <c:v>0.7740721304171021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.868606420866332</c:v>
+                  <c:v>0.77107990063334131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.87030145824034211</c:v>
+                  <c:v>0.77602341284797505</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.88941959144219496</c:v>
+                  <c:v>0.81252408924335973</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.90045656368795401</c:v>
+                  <c:v>0.82597594953774867</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.90604686710434001</c:v>
+                  <c:v>0.83956919268484931</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.91195652662253657</c:v>
+                  <c:v>0.86840581483906798</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.92286398686982085</c:v>
+                  <c:v>0.89430603191433655</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.94223121234023544</c:v>
+                  <c:v>0.91252942885985722</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.95472239485261423</c:v>
+                  <c:v>0.92520994255347355</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.97007590619756379</c:v>
+                  <c:v>0.945002883507578</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.98190247235609729</c:v>
+                  <c:v>0.96198419155564852</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99146163737536697</c:v>
+                  <c:v>0.9811009272901835</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,304 +2036,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.5293847115780568</c:v>
+                  <c:v>0.75735750655493539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4082080643455968</c:v>
+                  <c:v>0.76971365710103057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4125767534044031</c:v>
+                  <c:v>0.81151338364228753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2990329785609078</c:v>
+                  <c:v>0.93194558535208871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2622919313125536</c:v>
+                  <c:v>0.90472861992105147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3382530013530229</c:v>
+                  <c:v>0.86378453380486597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3203651588432257</c:v>
+                  <c:v>0.93020514959180745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3190498683863199</c:v>
+                  <c:v>0.89396477640072325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3096536756810999</c:v>
+                  <c:v>0.95957970794765957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3657134906500499</c:v>
+                  <c:v>1.0223415621034488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4323045830777015</c:v>
+                  <c:v>0.96776109645465747</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3260866821212511</c:v>
+                  <c:v>0.9543979733505541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2806087768924987</c:v>
+                  <c:v>0.94145292973533745</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3487386412187217</c:v>
+                  <c:v>0.89676196357753857</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3490060899506111</c:v>
+                  <c:v>0.86759274122386065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3845037517719629</c:v>
+                  <c:v>0.84847687987577991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4153198205139716</c:v>
+                  <c:v>0.84784058476892676</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3660226196114733</c:v>
+                  <c:v>0.91367248554056291</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3759873828691767</c:v>
+                  <c:v>0.94786723367937042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2817242406092528</c:v>
+                  <c:v>0.89066326939565488</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3459620472190084</c:v>
+                  <c:v>0.87822629047680922</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2966977558742931</c:v>
+                  <c:v>0.98432233514234913</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3872787271524587</c:v>
+                  <c:v>1.0012502449384622</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3569722630921084</c:v>
+                  <c:v>0.98220640585906205</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5027427404185447</c:v>
+                  <c:v>0.92596906659064149</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4397615029615216</c:v>
+                  <c:v>0.99812789012838143</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4137239210249832</c:v>
+                  <c:v>0.89611884346263038</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5820435628852296</c:v>
+                  <c:v>0.83224735469689937</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5024817225260532</c:v>
+                  <c:v>0.82595850949428307</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4880816237237826</c:v>
+                  <c:v>0.84356795287076225</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4701091417606564</c:v>
+                  <c:v>0.79122216124493139</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4103712527071175</c:v>
+                  <c:v>0.77095535767404288</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3134662085641298</c:v>
+                  <c:v>0.80753500777162945</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2288787972597652</c:v>
+                  <c:v>0.7452093283931619</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1314608595689206</c:v>
+                  <c:v>0.82183675942869461</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0952214937040456</c:v>
+                  <c:v>0.85296142671753794</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0735196778070404</c:v>
+                  <c:v>0.84159759745633611</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0644173871069915</c:v>
+                  <c:v>0.78173305589561182</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1039771590389913</c:v>
+                  <c:v>0.79785668756320671</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0609493988515282</c:v>
+                  <c:v>0.7649004787987862</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0686197879353632</c:v>
+                  <c:v>0.74000058668827196</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.98143253846130807</c:v>
+                  <c:v>0.73386598563992633</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.90842985484617211</c:v>
+                  <c:v>0.73310144935525667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.94662587196446535</c:v>
+                  <c:v>0.68063482902293715</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.98843379367117545</c:v>
+                  <c:v>0.66141168886354973</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.97667749257259484</c:v>
+                  <c:v>0.63358862874017996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.96516545972397705</c:v>
+                  <c:v>0.63711647655903825</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.93464699117233674</c:v>
+                  <c:v>0.72481919260585348</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.9372141852416731</c:v>
+                  <c:v>0.72805288686637315</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.90919276111181246</c:v>
+                  <c:v>0.69889248854849639</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.89499083644852251</c:v>
+                  <c:v>0.7178155783776462</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.84465025335937338</c:v>
+                  <c:v>0.750144568404297</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.84531621091629872</c:v>
+                  <c:v>0.70844991076260366</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.83969954890756093</c:v>
+                  <c:v>0.69465354970941207</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.85655536644236208</c:v>
+                  <c:v>0.70555683147547332</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.87200074842590558</c:v>
+                  <c:v>0.69307236936226446</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.90767324225479129</c:v>
+                  <c:v>0.66896417016409326</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.95331048654703543</c:v>
+                  <c:v>0.67482876980827322</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.98466533454191407</c:v>
+                  <c:v>0.68558660602717303</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0201113756845688</c:v>
+                  <c:v>0.69151489385537535</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0509066999078378</c:v>
+                  <c:v>0.71965008021582355</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.95980102540694889</c:v>
+                  <c:v>0.74293748638254975</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.94565117554604661</c:v>
+                  <c:v>0.71756096785317636</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.98390065628919487</c:v>
+                  <c:v>0.72990847920198931</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.97635934678630032</c:v>
+                  <c:v>0.7028286495235937</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0075296789438373</c:v>
+                  <c:v>0.74157548974889442</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0380437247508496</c:v>
+                  <c:v>0.73767121631428323</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0730140025688863</c:v>
+                  <c:v>0.76042269095358594</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1285877889485163</c:v>
+                  <c:v>0.72407801192907451</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1252085927506772</c:v>
+                  <c:v>0.68675968249101327</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1473868335455963</c:v>
+                  <c:v>0.70986506027588259</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.98567999907336801</c:v>
+                  <c:v>0.71274894882908502</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.97648910239021025</c:v>
+                  <c:v>0.73575320709449366</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0104539677653614</c:v>
+                  <c:v>0.73752771525573468</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0559541612102095</c:v>
+                  <c:v>0.73573651560452125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0908502112408724</c:v>
+                  <c:v>0.72602929926150161</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1185821886994056</c:v>
+                  <c:v>0.73926393071833074</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0859870233502846</c:v>
+                  <c:v>0.73490603339936822</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1001238343113733</c:v>
+                  <c:v>0.74239686754254419</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.100792899735644</c:v>
+                  <c:v>0.74963515017991311</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0747794979648202</c:v>
+                  <c:v>0.77110426929143649</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.97288853531266928</c:v>
+                  <c:v>0.76364799599309829</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0007546474780211</c:v>
+                  <c:v>0.76990478854352595</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0061800891065678</c:v>
+                  <c:v>0.79700562354662718</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0205229888441576</c:v>
+                  <c:v>0.81692035233405791</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.0048060010555508</c:v>
+                  <c:v>0.82643326444824927</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.0040576556377538</c:v>
+                  <c:v>0.8362487583142173</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.036743327317255</c:v>
+                  <c:v>0.85147934345881238</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0531517690739998</c:v>
+                  <c:v>0.84818789069667544</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.0560779053311062</c:v>
+                  <c:v>0.85362575413277253</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.0783615505864144</c:v>
+                  <c:v>0.89377649816769567</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.99050222005674948</c:v>
+                  <c:v>0.9085735444915235</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.99665155381477399</c:v>
+                  <c:v>0.92352611195333423</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0031521792847902</c:v>
+                  <c:v>0.95524639632297481</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0151503855568029</c:v>
+                  <c:v>0.98373663510577025</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0364543335742589</c:v>
+                  <c:v>1.0037823717458429</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0501946343378756</c:v>
+                  <c:v>1.017730936808821</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0670834968173202</c:v>
+                  <c:v>1.0395031718583359</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0800927195917069</c:v>
+                  <c:v>1.0581826107112133</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0906078011129037</c:v>
+                  <c:v>1.0792110200192018</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>1.1000000000000001</c:v>
@@ -2685,307 +2685,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8724589224495262E-3</c:v>
+                  <c:v>2.0051916209730104E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8988423660920227E-3</c:v>
+                  <c:v>1.8504891233036079E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3396911059316122E-3</c:v>
+                  <c:v>1.5351635032580559E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2263384272562561E-3</c:v>
+                  <c:v>1.5773992745607365E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1577134288729385E-3</c:v>
+                  <c:v>1.5953288655724911E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4370052001483042E-3</c:v>
+                  <c:v>1.4129458193242654E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0272969205798526E-3</c:v>
+                  <c:v>1.4288706543940493E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1865916334536836E-3</c:v>
+                  <c:v>1.2661072399858732E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2669953674736237E-3</c:v>
+                  <c:v>1.1563938390259295E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0985581217440364E-3</c:v>
+                  <c:v>1.2642114141180839E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6569328086130628E-3</c:v>
+                  <c:v>1.3603821162112398E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0156528751990877E-2</c:v>
+                  <c:v>1.3389849102037102E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1076454551477542E-2</c:v>
+                  <c:v>1.4494599005757973E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1152433790716067E-2</c:v>
+                  <c:v>1.4738002441207492E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2467945118276211E-2</c:v>
+                  <c:v>1.5752185060769551E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2708841234818498E-2</c:v>
+                  <c:v>1.5888969402262365E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4029821932200526E-2</c:v>
+                  <c:v>1.3995269914379787E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4859809018309184E-2</c:v>
+                  <c:v>1.299208300219366E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4872024660059026E-2</c:v>
+                  <c:v>1.3696083941636763E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6271767720219103E-2</c:v>
+                  <c:v>1.3312415651031941E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7663502680018699E-2</c:v>
+                  <c:v>1.265080251414913E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8683378535864686E-2</c:v>
+                  <c:v>1.1926921263060077E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9029885223536682E-2</c:v>
+                  <c:v>1.1899341860042332E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7530298004803029E-2</c:v>
+                  <c:v>1.2690011917089079E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6517524896894398E-2</c:v>
+                  <c:v>1.1415120701307983E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4730658462509991E-2</c:v>
+                  <c:v>1.3274063051118225E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4973839747080851E-2</c:v>
+                  <c:v>1.4745640027951576E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2681355714514673E-2</c:v>
+                  <c:v>1.4246480768987461E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.313281259892154E-2</c:v>
+                  <c:v>1.3201675258819795E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2508276836836661E-2</c:v>
+                  <c:v>1.4972814055355815E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3263391352248247E-2</c:v>
+                  <c:v>1.5290069734228407E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.4033479371038798E-2</c:v>
+                  <c:v>1.4472389014599444E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3636123952730375E-2</c:v>
+                  <c:v>1.6293225333011911E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3062323197461614E-2</c:v>
+                  <c:v>1.4220797733034387E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3427863359295522E-2</c:v>
+                  <c:v>1.3545797225393459E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4569241907896968E-2</c:v>
+                  <c:v>1.3548237177535219E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4712131555175263E-2</c:v>
+                  <c:v>1.4280444098972021E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5555282652302294E-2</c:v>
+                  <c:v>1.4323759167829271E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.535090267843385E-2</c:v>
+                  <c:v>1.4799191334507444E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.507353036080656E-2</c:v>
+                  <c:v>1.5841989889766792E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4898544964026438E-2</c:v>
+                  <c:v>1.7572443396282538E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4288994526642411E-2</c:v>
+                  <c:v>1.8068217553540832E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2408722899059338E-2</c:v>
+                  <c:v>2.0619060079000592E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3647960645748044E-2</c:v>
+                  <c:v>2.2070969491683065E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.366604847961805E-2</c:v>
+                  <c:v>2.3428556616798393E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3907929530950802E-2</c:v>
+                  <c:v>2.2984385781599687E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4667753612765781E-2</c:v>
+                  <c:v>1.9460419397509119E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.6348653116895782E-2</c:v>
+                  <c:v>1.9914573309421466E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5179523029913137E-2</c:v>
+                  <c:v>2.1423515591152579E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4269136688709489E-2</c:v>
+                  <c:v>2.1244839854125425E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3819830851728348E-2</c:v>
+                  <c:v>2.0751308548856349E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.536535111113636E-2</c:v>
+                  <c:v>2.1826859773877296E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5518212594026786E-2</c:v>
+                  <c:v>2.2226573300347077E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3392343533405376E-2</c:v>
+                  <c:v>2.1814500038491145E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.3926893196661381E-2</c:v>
+                  <c:v>2.1712979591052516E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4940568036831142E-2</c:v>
+                  <c:v>2.3228658992771965E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3868918986831144E-2</c:v>
+                  <c:v>2.3612632876039801E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5235546896827289E-2</c:v>
+                  <c:v>2.4249774058156204E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.507080206661616E-2</c:v>
+                  <c:v>2.3818975806024774E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3362083767838347E-2</c:v>
+                  <c:v>2.3300705617634414E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3576023096732002E-2</c:v>
+                  <c:v>2.209495646593693E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.4643567367678825E-2</c:v>
+                  <c:v>2.31996918920176E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.5128301521572317E-2</c:v>
+                  <c:v>2.3780155075331055E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.355945969319172E-2</c:v>
+                  <c:v>2.5520765428260796E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4418479355440416E-2</c:v>
+                  <c:v>2.4508682396262877E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2898859193572516E-2</c:v>
+                  <c:v>2.4661097381208624E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2261475377187242E-2</c:v>
+                  <c:v>2.3896912733624334E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3191286109268393E-2</c:v>
+                  <c:v>2.5573693039535335E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.2225802645823836E-2</c:v>
+                  <c:v>2.8758307404512365E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.2437161374198523E-2</c:v>
+                  <c:v>2.811276315294671E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3425005544620568E-2</c:v>
+                  <c:v>3.0468577512442165E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.4929507352327292E-2</c:v>
+                  <c:v>2.9745376199311113E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.6162418848962083E-2</c:v>
+                  <c:v>3.1081254925321568E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3661467524599052E-2</c:v>
+                  <c:v>3.1855812569613305E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.5078730831268995E-2</c:v>
+                  <c:v>3.4639760277004425E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.6209498207477604E-2</c:v>
+                  <c:v>3.3978796290435237E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.5586208165937764E-2</c:v>
+                  <c:v>3.6447752683502553E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.806278637647498E-2</c:v>
+                  <c:v>3.8068060224076279E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.7144224461334706E-2</c:v>
+                  <c:v>3.8162997098508726E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8767478151807276E-2</c:v>
+                  <c:v>3.7095419335487996E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.997526360640255E-2</c:v>
+                  <c:v>3.8408841124222742E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9179841708398936E-2</c:v>
+                  <c:v>3.9681637433679674E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0648835014118752E-2</c:v>
+                  <c:v>3.8144737224543368E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.9459173112409339E-2</c:v>
+                  <c:v>3.8898983538008067E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9213763214327637E-2</c:v>
+                  <c:v>4.0477711750460013E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.9888484345881967E-2</c:v>
+                  <c:v>4.0300716983056255E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8935463766314602E-2</c:v>
+                  <c:v>4.1026023759707965E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8144964677545429E-2</c:v>
+                  <c:v>4.4213906732003261E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.818634658288262E-2</c:v>
+                  <c:v>4.663403645633668E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.7802711266822605E-2</c:v>
+                  <c:v>4.261381916275548E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.7649841637266527E-2</c:v>
+                  <c:v>4.2690490454037812E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.7179349512319777E-2</c:v>
+                  <c:v>4.3049953882137629E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.7558452108069972E-2</c:v>
+                  <c:v>4.1429565551341342E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.6024384741945442E-2</c:v>
+                  <c:v>3.7824736456463087E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4011144313433709E-2</c:v>
+                  <c:v>3.7353647706763277E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5455618021431642E-2</c:v>
+                  <c:v>3.9630961344959817E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.6518980013806729E-2</c:v>
+                  <c:v>3.840734909005418E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.8403362695727451E-2</c:v>
+                  <c:v>3.8959474543944654E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8860502121228438E-2</c:v>
+                  <c:v>3.6978626639232778E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.6973809058310939E-2</c:v>
+                  <c:v>3.8108563145153991E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,304 +3337,304 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0010005001667084</c:v>
+                  <c:v>1.0020020013340003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0018890278616024</c:v>
+                  <c:v>1.0040132231199177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0026807168417025</c:v>
+                  <c:v>1.005872858756049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0033165869836844</c:v>
+                  <c:v>1.00741822394835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0041422887416458</c:v>
+                  <c:v>1.0090085787064478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0050622746579312</c:v>
+                  <c:v>1.0106195639015874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0060112001294799</c:v>
+                  <c:v>1.0120485238731052</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0069197663435281</c:v>
+                  <c:v>1.0134956439371747</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0077444279493313</c:v>
+                  <c:v>1.0147796507833149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0085778742584486</c:v>
+                  <c:v>1.0159538144864404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0094959522953573</c:v>
+                  <c:v>1.017239007101348</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0103702445381748</c:v>
+                  <c:v>1.0186237825528406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0113969512826257</c:v>
+                  <c:v>1.0199886179699522</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0125178411787641</c:v>
+                  <c:v>1.0214681225529978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0136476749000149</c:v>
+                  <c:v>1.0229746724254665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0149122734414497</c:v>
+                  <c:v>1.0245873508877348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0162029292997965</c:v>
+                  <c:v>1.0262166086130944</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0176296445082944</c:v>
+                  <c:v>1.0276538319377402</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0191429468158693</c:v>
+                  <c:v>1.0289898360118122</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0206597463340106</c:v>
+                  <c:v>1.0304001146730162</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0223218921011359</c:v>
+                  <c:v>1.0317727395793059</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0241292664073618</c:v>
+                  <c:v>1.0330788408833858</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0260444744534856</c:v>
+                  <c:v>1.0343117209597914</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0279988843317753</c:v>
+                  <c:v>1.0355432163894915</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0298025775129054</c:v>
+                  <c:v>1.0368581561187367</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0315049620561054</c:v>
+                  <c:v>1.0380424180149881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0330255564788393</c:v>
+                  <c:v>1.0394212369896776</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0345735510744876</c:v>
+                  <c:v>1.0409550607121862</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0358863628315969</c:v>
+                  <c:v>1.0424391122121204</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0372476666710377</c:v>
+                  <c:v>1.0438162152791404</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0385458965290049</c:v>
+                  <c:v>1.0453802725137831</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0399242744915485</c:v>
+                  <c:v>1.0469798888409547</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0413846745619393</c:v>
+                  <c:v>1.0484962158441826</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0428056882481667</c:v>
+                  <c:v>1.0502059468281135</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0441687247687437</c:v>
+                  <c:v>1.051700485887916</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0455717620435938</c:v>
+                  <c:v>1.0531260633514661</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0470961910560248</c:v>
+                  <c:v>1.0545538304878743</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0486378265065082</c:v>
+                  <c:v>1.0560608559839981</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0502702816214986</c:v>
+                  <c:v>1.0575746159986459</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0518837794249576</c:v>
+                  <c:v>1.0591408996085878</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.05347053523363</c:v>
+                  <c:v>1.0608201193088143</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0550412228048123</c:v>
+                  <c:v>1.0626858782759179</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0565498482109381</c:v>
+                  <c:v>1.0646076979098249</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0578617053957726</c:v>
+                  <c:v>1.0668050835410117</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0593064565592545</c:v>
+                  <c:v>1.0691622260504152</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0607550995340636</c:v>
+                  <c:v>1.0716700554189718</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0622314166391977</c:v>
+                  <c:v>1.0741360561073439</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0637906147262246</c:v>
+                  <c:v>1.0762284051607083</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0655311915177688</c:v>
+                  <c:v>1.0783738036336554</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0671498452526189</c:v>
+                  <c:v>1.0806865358914017</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.0686736628730877</c:v>
+                  <c:v>1.0829848776608444</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0701515727867803</c:v>
+                  <c:v>1.0852345463670381</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.071797162181761</c:v>
+                  <c:v>1.0876058595681717</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0734616909953658</c:v>
+                  <c:v>1.0900259231939071</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0749002708517101</c:v>
+                  <c:v>1.0924063557015207</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0763983158921635</c:v>
+                  <c:v>1.0947808723508512</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.07800771808927</c:v>
+                  <c:v>1.0973268573525041</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0795038354969506</c:v>
+                  <c:v>1.0999209964927141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0811497721469219</c:v>
+                  <c:v>1.1025915167243332</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0827803799887308</c:v>
+                  <c:v>1.1052209070164596</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.0842281672600158</c:v>
+                  <c:v>1.1077991522963677</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0857011175382196</c:v>
+                  <c:v>1.1102495357595927</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0872921359087306</c:v>
+                  <c:v>1.112828270610964</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.0889382690821339</c:v>
+                  <c:v>1.1154777424897513</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.090415812046764</c:v>
+                  <c:v>1.1183281627686816</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0919891598257991</c:v>
+                  <c:v>1.1210723992516471</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.093398610086751</c:v>
+                  <c:v>1.1238404986280992</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0947401003646837</c:v>
+                  <c:v>1.1265293419334319</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.0961851562503402</c:v>
+                  <c:v>1.1294139804633494</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0975261501580109</c:v>
+                  <c:v>1.1326666587414056</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0988920103373132</c:v>
+                  <c:v>1.1358553777772902</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1003682641845673</c:v>
+                  <c:v>1.1393214451651166</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1020122867105642</c:v>
+                  <c:v>1.1427154449525061</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1037948452608728</c:v>
+                  <c:v>1.1462726732499502</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.105303821510919</c:v>
+                  <c:v>1.1499300403203259</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1069717365781444</c:v>
+                  <c:v>1.1539202774664907</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1087675372743295</c:v>
+                  <c:v>1.1578478285649467</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.110497032902511</c:v>
+                  <c:v>1.1620756236962759</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1125047126388614</c:v>
+                  <c:v>1.1665078511415539</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.1144136515859586</c:v>
+                  <c:v>1.1709681001255483</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1165070887841686</c:v>
+                  <c:v>1.1753199220384061</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.1187395701036786</c:v>
+                  <c:v>1.1798428701533981</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.1208873539397151</c:v>
+                  <c:v>1.1845339812464455</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.1232042469776911</c:v>
+                  <c:v>1.1890609835678947</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.1253920375053186</c:v>
+                  <c:v>1.1936953176310388</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1275564177471327</c:v>
+                  <c:v>1.1985369153588197</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1298011880775218</c:v>
+                  <c:v>1.2033768511542764</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.1319425457637409</c:v>
+                  <c:v>1.2083239689727825</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1339983160446525</c:v>
+                  <c:v>1.2136782693037129</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.136062521133175</c:v>
+                  <c:v>1.2193513586409488</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.1380868218050275</c:v>
+                  <c:v>1.2245585675432029</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.1400973007322781</c:v>
+                  <c:v>1.2297974426780178</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1420575970816995</c:v>
+                  <c:v>1.2351031272768698</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1440646349522774</c:v>
+                  <c:v>1.2402307202375193</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.1458993977949654</c:v>
+                  <c:v>1.2449307435047665</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.1475060592735364</c:v>
+                  <c:v>1.2495897099984477</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.1492809720718689</c:v>
+                  <c:v>1.2545517802339576</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.1511810359364403</c:v>
+                  <c:v>1.2593794460091878</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.1533015467777386</c:v>
+                  <c:v>1.2642954922667915</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.1554787839485912</c:v>
+                  <c:v>1.268979338135878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4371,7 +4371,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$37" max="30000" page="10" val="71"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$37" max="30000" page="10" val="94"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4860,7 +4860,7 @@
   <dimension ref="A3:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,9 +5060,9 @@
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="e">
+      <c r="F19" s="1" t="str">
         <f>[2]!obAddClasses(F6,F16)</f>
-        <v>#VALUE!</v>
+        <v>C:\Users\Anton\workspace\ObbaLib</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5112,9 +5112,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="8" t="e">
+      <c r="E25" s="8" t="str">
         <f>IF(OR(ISERROR(F10),ISERROR(F19)),NA(),"")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -5127,8 +5127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5192,7 +5192,7 @@
       <c r="A4" t="str">
         <f>[2]!obMake("td.initialTime", "double",B4)</f>
         <v>td.initialTime 
-[686]</v>
+[9649]</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -5200,19 +5200,19 @@
       <c r="D4" t="str">
         <f>A9</f>
         <v>timeDiscretization 
-[699]</v>
+[11497]</v>
       </c>
       <c r="G4" t="str">
         <f>D10</f>
         <v>brownianMotion 
-[13072]</v>
+[12108]</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>[2]!obMake("td.numberOfTimeSteps", "int",B5)</f>
         <v>td.numberOfTimeSteps 
-[692]</v>
+[9288]</v>
       </c>
       <c r="B5" s="11">
         <v>100</v>
@@ -5220,7 +5220,7 @@
       <c r="D5" t="str">
         <f>[2]!obMake("numberOfFactors", "int", E5)</f>
         <v>numberOfFactors 
-[681]</v>
+[12107]</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
@@ -5231,7 +5231,7 @@
       <c r="A6" t="str">
         <f>[2]!obMake("td.deltaT","double",B6)</f>
         <v>td.deltaT 
-[684]</v>
+[9297]</v>
       </c>
       <c r="B6" s="11">
         <v>0.1</v>
@@ -5239,7 +5239,7 @@
       <c r="D6" t="str">
         <f>[2]!obMake("numberOfPaths", "int",E6)</f>
         <v>numberOfPaths 
-[13069]</v>
+[9291]</v>
       </c>
       <c r="E6" s="11">
         <v>100</v>
@@ -5253,7 +5253,7 @@
       <c r="D7" t="str">
         <f>[2]!obMake("seed1","int",E7 )</f>
         <v>seed1 
-[4642]</v>
+[9292]</v>
       </c>
       <c r="E7" s="11">
         <v>3148</v>
@@ -5261,7 +5261,7 @@
       <c r="G7" t="str">
         <f>[2]!obMake("process", obLibs&amp;"net.finmath.montecarlo.process.ProcessEulerScheme", D10)</f>
         <v>process 
-[13073]</v>
+[39544]</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
@@ -5276,7 +5276,7 @@
       <c r="A9" t="str">
         <f>[2]!obMake("timeDiscretization", obLibs&amp;"net.finmath.time.TimeDiscretization",A4:A6)</f>
         <v>timeDiscretization 
-[699]</v>
+[11497]</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
@@ -5290,7 +5290,7 @@
       <c r="D10" t="str">
         <f>[2]!obMake("brownianMotion", obLibs&amp;"net.finmath.montecarlo.BrownianMotion",D4:D7)</f>
         <v>brownianMotion 
-[13072]</v>
+[12108]</v>
       </c>
       <c r="BD10" s="12"/>
       <c r="BE10" s="12"/>
@@ -5343,24 +5343,24 @@
       <c r="A17" t="str">
         <f>[2]!obMake("interCorrelations", "double[][]",B17:B18)</f>
         <v>interCorrelations 
-[694]</v>
+[86218]</v>
       </c>
       <c r="B17" s="11">
-        <f>0</f>
-        <v>0</v>
+        <f>0.9</f>
+        <v>0.9</v>
       </c>
       <c r="D17" s="12" t="str">
         <f>A4</f>
         <v>td.initialTime 
-[686]</v>
+[9649]</v>
       </c>
       <c r="F17" t="str">
         <f>[2]!obMake("initialValue", "double", G17)</f>
         <v>initialValue 
-[683]</v>
+[38325]</v>
       </c>
       <c r="G17" s="11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -5371,12 +5371,12 @@
       <c r="D18" s="12" t="str">
         <f>A5</f>
         <v>td.numberOfTimeSteps 
-[692]</v>
+[9288]</v>
       </c>
       <c r="F18" t="str">
         <f>[2]!obMake("kappa","double",G18)</f>
         <v>kappa 
-[682]</v>
+[9295]</v>
       </c>
       <c r="G18" s="11">
         <v>0.05</v>
@@ -5388,12 +5388,12 @@
       <c r="D19" s="12" t="str">
         <f>A6</f>
         <v>td.deltaT 
-[684]</v>
+[9297]</v>
       </c>
       <c r="F19" t="str">
         <f>[2]!obMake("mu","double",G19)</f>
         <v>mu 
-[704]</v>
+[9299]</v>
       </c>
       <c r="G19" s="11">
         <v>0.02</v>
@@ -5408,12 +5408,12 @@
       <c r="D20" t="str">
         <f>A102</f>
         <v>meanReversionArrayHW 
-[688]</v>
+[9290]</v>
       </c>
       <c r="F20" t="str">
         <f>[2]!obMake("nu","double", G20)</f>
         <v>nu 
-[702]</v>
+[9298]</v>
       </c>
       <c r="G20" s="11">
         <v>0.03</v>
@@ -5425,24 +5425,24 @@
       <c r="D21" t="str">
         <f>C102</f>
         <v>volatilitesArrayHW 
-[691]</v>
+[9296]</v>
       </c>
       <c r="F21" t="str">
         <f>G7</f>
         <v>process 
-[13073]</v>
+[39544]</v>
       </c>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>[2]!obMake("correlation",  obLibs&amp;"main.net.finmath.antonsporrer.masterthesis.montecarlo.intermodelbmcorrelation.Correlation", A17)</f>
         <v>correlation 
-[701]</v>
+[86219]</v>
       </c>
       <c r="D22" t="str">
         <f>E102</f>
         <v>forwardRateArrayHW 
-[2366]</v>
+[9285]</v>
       </c>
       <c r="AJ22" s="9"/>
     </row>
@@ -5450,7 +5450,7 @@
       <c r="D23" s="12" t="str">
         <f>D6</f>
         <v>numberOfPaths 
-[13069]</v>
+[9291]</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>17</v>
@@ -5460,12 +5460,12 @@
       <c r="D24" t="str">
         <f>[2]!obMake("hullWhiteCreationHelper",  obLibs&amp;"test.net.finmath.antonsporrer.masterthesis.montecarlo.HullWhiteCreationHelper",)</f>
         <v>hullWhiteCreationHelper 
-[698]</v>
+[13330]</v>
       </c>
       <c r="F24" t="str">
         <f>[2]!obMake("cirModel",obLibs&amp;"main.net.finmath.antonsporrer.masterthesis.montecarlo.intensitymodel.CIRModel",F17:F20,G7)</f>
         <v>cirModel 
-[13074]</v>
+[39545]</v>
       </c>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
@@ -5477,7 +5477,7 @@
       <c r="D27" t="str">
         <f>[2]!obCall("hullWhiteModel",D24,"createHullWhiteModel",D17,D18,D19,D20:D22, D23)</f>
         <v>hullWhiteModel 
-[13070]</v>
+[13331]</v>
       </c>
       <c r="AJ27" s="12"/>
       <c r="AK27" s="12"/>
@@ -5533,12 +5533,12 @@
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="J31" t="str">
-        <f>[2]!obMake("paymentDates0", "double[]", K31:T31)</f>
+        <f>[2]!obMake("paymentDates0", "double[]", K31)</f>
         <v>paymentDates0 
-[697]</v>
+[84287]</v>
       </c>
       <c r="K31" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L31" s="11">
         <v>2</v>
@@ -5582,9 +5582,9 @@
       </c>
       <c r="H32" s="10"/>
       <c r="J32" t="str">
-        <f>[2]!obMake("coupons0", "double[]", K32:T32)</f>
+        <f>[2]!obMake("coupons0", "double[]", K32)</f>
         <v>coupons0 
-[690]</v>
+[82538]</v>
       </c>
       <c r="K32" s="11">
         <v>0.1</v>
@@ -5622,26 +5622,26 @@
       <c r="A33" t="str">
         <f>D27</f>
         <v>hullWhiteModel 
-[13070]</v>
+[13331]</v>
       </c>
       <c r="B33" s="12"/>
       <c r="D33" s="12" t="str">
         <f>A33</f>
         <v>hullWhiteModel 
-[13070]</v>
+[13331]</v>
       </c>
       <c r="G33" s="12" t="str">
         <f>[2]!obMake("lossGivenDefault", "double", H33)</f>
         <v>lossGivenDefault 
-[695]</v>
+[9289]</v>
       </c>
       <c r="H33" s="11">
         <v>1</v>
       </c>
       <c r="J33" t="str">
-        <f>[2]!obMake("periodFactors0", "double[]", K33:T33)</f>
+        <f>[2]!obMake("periodFactors0", "double[]", K33)</f>
         <v>periodFactors0 
-[687]</v>
+[79038]</v>
       </c>
       <c r="K33" s="11">
         <v>1</v>
@@ -5679,12 +5679,12 @@
       <c r="A34" t="str">
         <f>J31</f>
         <v>paymentDates0 
-[697]</v>
+[84287]</v>
       </c>
       <c r="D34" s="12" t="str">
         <f>A39</f>
         <v>couponBondConditionalFairValueProcess 
-[13071]</v>
+[84288]</v>
       </c>
       <c r="BL34" s="12"/>
     </row>
@@ -5692,12 +5692,12 @@
       <c r="A35" t="str">
         <f>J32</f>
         <v>coupons0 
-[690]</v>
+[82538]</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>F24</f>
         <v>cirModel 
-[13074]</v>
+[39545]</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>17</v>
@@ -5709,17 +5709,17 @@
       <c r="A36" t="str">
         <f>J33</f>
         <v>periodFactors0 
-[687]</v>
+[79038]</v>
       </c>
       <c r="D36" s="12" t="str">
         <f>A22</f>
         <v>correlation 
-[701]</v>
+[86219]</v>
       </c>
       <c r="G36" t="str">
         <f>[2]!obMake("intensityBasedCVA", obLibs&amp;"main.net.finmath.antonsporrer.masterthesis.montecarlo.cva.IntensityBasedCVA", G33)</f>
         <v>intensityBasedCVA 
-[700]</v>
+[19021]</v>
       </c>
       <c r="BL36" s="12"/>
     </row>
@@ -5727,10 +5727,10 @@
       <c r="D37" s="12" t="str">
         <f>[2]!obMake("seed2", "int", E37)</f>
         <v>seed2 
-[16942]</v>
+[75888]</v>
       </c>
       <c r="E37" s="20">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="BL37" s="12"/>
     </row>
@@ -5786,7 +5786,7 @@
       <c r="A39" t="str">
         <f>[2]!obMake("couponBondConditionalFairValueProcess", obLibs&amp;"main.net.finmath.antonsporrer.masterthesis.montecarlo.product.CouponBondConditionalFairValueProcess", A33:A36 )</f>
         <v>couponBondConditionalFairValueProcess 
-[13071]</v>
+[84288]</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>17</v>
@@ -5839,7 +5839,7 @@
       <c r="D40" t="str">
         <f>[2]!obMake("npvAndCorrelatedDefaultIntensitySimulation", obLibs&amp;"main.net.finmath.antonsporrer.masterthesis.montecarlo.cva.NPVAndDefaultsimulation.NPVAndCorrelatedDefaultIntensitySimulation",  D33:D37)</f>
         <v>npvAndCorrelatedDefaultIntensitySimulation 
-[16943]</v>
+[86220]</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -6045,7 +6045,7 @@
       <c r="D46" s="12" t="str">
         <f xml:space="preserve"> [2]!obCall("integrationMethodEnum", obLibs&amp;"main.net.finmath.antonsporrer.masterthesis.integration.Integration$IntegrationMethod", "valueOf",[2]!obMake("","String", E46))</f>
         <v>integrationMethodEnum 
-[4639]</v>
+[80788]</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>31</v>
@@ -6119,7 +6119,7 @@
       <c r="A48" t="str">
         <f>[2]!obCall("productValueRandomVariable", K95, "getFairValue", [2]!obMake("", "int", 0))</f>
         <v>productValueRandomVariable 
-[22418]</v>
+[86387]</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>32</v>
@@ -6159,7 +6159,7 @@
       <c r="D49" t="str">
         <f>[2]!obCall("cvaRandomVariable", G36, "getCVA", D40, D46  )</f>
         <v>cvaRandomVariable 
-[17354]</v>
+[86221]</v>
       </c>
       <c r="AJ49" s="12"/>
       <c r="AK49" s="12"/>
@@ -6230,11 +6230,11 @@
       <c r="A51" t="str">
         <f>[2]!obCall("productValue", A48, "getAverage")</f>
         <v>productValue 
-[22419]</v>
+[88074]</v>
       </c>
       <c r="B51" s="16">
         <f>[2]!obGet(A51)</f>
-        <v>1.5293847115780568</v>
+        <v>0.75735750655493539</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>30</v>
@@ -6274,11 +6274,11 @@
       <c r="D52" t="str">
         <f>[2]!obCall("cvaValue", D49, "getAverage")</f>
         <v>cvaValue 
-[18778]</v>
+[86992]</v>
       </c>
       <c r="E52" s="16">
         <f>[2]!obGet(D52)</f>
-        <v>0.14484274304680866</v>
+        <v>0.14477483664725926</v>
       </c>
       <c r="AJ52" s="12"/>
       <c r="AK52" s="12"/>
@@ -7390,7 +7390,7 @@
       <c r="K95" t="str">
         <f>[2]!obCall("productProcessForPlottingAndPricing", D40, "getProductProcess")</f>
         <v>productProcessForPlottingAndPricing 
-[17002]</v>
+[86385]</v>
       </c>
     </row>
     <row r="96" spans="1:64" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
       <c r="K97" t="str">
         <f>[2]!obCall("valueOfUnderlyingModelFromNPVAndDefault", K95, "getUnderlying",  [2]!obMake("", "int", 0), [2]!obMake("","int", 0))</f>
         <v>valueOfUnderlyingModelFromNPVAndDefault 
-[22367]</v>
+[86775]</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
@@ -7414,12 +7414,12 @@
       <c r="H99" t="str">
         <f>[2]!obCall("timeDiscretizationFromNPVAndDefault", D40, "getTimeDiscretization")</f>
         <v>timeDiscretizationFromNPVAndDefault 
-[17177]</v>
+[86278]</v>
       </c>
       <c r="K99" t="str">
         <f>[2]!obCall("underlyingModelForPlotting", K95, "getUnderlyingModel")</f>
         <v>underlyingModelForPlotting 
-[22317]</v>
+[87424]</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
@@ -7437,19 +7437,19 @@
       <c r="A102" t="str">
         <f>[2]!obMake("meanReversionArrayHW", "double[]",A103:A203)</f>
         <v>meanReversionArrayHW 
-[688]</v>
+[9290]</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" t="str">
         <f>[2]!obMake("volatilitesArrayHW", "double[]",C103:C203)</f>
         <v>volatilitesArrayHW 
-[691]</v>
+[9296]</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" t="str">
         <f>[2]!obMake("forwardRateArrayHW", "double[]",E103:E107)</f>
         <v>forwardRateArrayHW 
-[2366]</v>
+[9285]</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -7499,7 +7499,7 @@
       <c r="L103" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H103, $K$95, "getUnderlying",  [2]!obMake("", "int", H103), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault0 
-[23024]</v>
+[87192]</v>
       </c>
       <c r="M103">
         <f>[2]!obGet([2]!obCall("",L103,"getRealizations"))</f>
@@ -7508,7 +7508,7 @@
       <c r="P103" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H103, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I103), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice0 
-[22937]</v>
+[87798]</v>
       </c>
       <c r="Q103">
         <f>[2]!obGet([2]!obCall("", P103, "getRealizations"))</f>
@@ -7517,25 +7517,25 @@
       <c r="T103" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H103,  $K$95,"getFairValue", [2]!obMake("","int",H103) )</f>
         <v>couponBondPrice0 
-[22314]</v>
+[86761]</v>
       </c>
       <c r="U103">
         <f>[2]!obGet([2]!obCall("",  T103,"getRealizations"))</f>
-        <v>1.5293847115780568</v>
+        <v>0.75735750655493539</v>
       </c>
       <c r="Y103" t="str">
         <f>[2]!obCall("intensity"&amp;H103, $D$40, "getIntensity", [2]!obMake("", "int", H103))</f>
         <v>intensity0 
-[17339]</v>
+[86471]</v>
       </c>
       <c r="Z103">
         <f>[2]!obGet([2]!obCall("", Y103, "getRealizations"))</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AC103" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H103, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H103))</f>
         <v>expOfIntegratedIntensity0 
-[17172]</v>
+[86616]</v>
       </c>
       <c r="AD103">
         <f>[2]!obGet([2]!obCall("", AC103, "getRealizations"))</f>
@@ -7565,47 +7565,47 @@
       <c r="L104" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H104, $K$95, "getUnderlying",  [2]!obMake("", "int", H104), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault1 
-[22410]</v>
+[87394]</v>
       </c>
       <c r="M104">
         <f>[2]!obGet([2]!obCall("",L104,"getRealizations"))</f>
-        <v>1.4135761400334179E-2</v>
+        <v>-2.1707241602296479E-3</v>
       </c>
       <c r="P104" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H104, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I104), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice1 
-[22524]</v>
+[87948]</v>
       </c>
       <c r="Q104">
         <f>[2]!obGet([2]!obCall("", P104, "getRealizations"))</f>
-        <v>0.61608064041762778</v>
+        <v>0.69973968827366417</v>
       </c>
       <c r="T104" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H104,  $K$95,"getFairValue", [2]!obMake("","int",H104) )</f>
         <v>couponBondPrice1 
-[22316]</v>
+[87602]</v>
       </c>
       <c r="U104">
         <f>[2]!obGet([2]!obCall("",  T104,"getRealizations"))</f>
-        <v>1.4082080643455968</v>
+        <v>0.76971365710103057</v>
       </c>
       <c r="Y104" t="str">
         <f>[2]!obCall("intensity"&amp;H104, $D$40, "getIntensity", [2]!obMake("", "int", H104))</f>
         <v>intensity1 
-[17247]</v>
+[87239]</v>
       </c>
       <c r="Z104">
         <f>[2]!obGet([2]!obCall("", Y104, "getRealizations"))</f>
-        <v>8.8724589224495262E-3</v>
+        <v>2.0051916209730104E-2</v>
       </c>
       <c r="AC104" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H104, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H104))</f>
         <v>expOfIntegratedIntensity1 
-[17243]</v>
+[86447]</v>
       </c>
       <c r="AD104">
         <f>[2]!obGet([2]!obCall("", AC104, "getRealizations"))</f>
-        <v>1.0010005001667084</v>
+        <v>1.0020020013340003</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.25">
@@ -7628,47 +7628,47 @@
       <c r="L105" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H105, $K$95, "getUnderlying",  [2]!obMake("", "int", H105), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault2 
-[22347]</v>
+[87591]</v>
       </c>
       <c r="M105">
         <f>[2]!obGet([2]!obCall("",L105,"getRealizations"))</f>
-        <v>1.3811416613120405E-2</v>
+        <v>-9.1074807393306933E-3</v>
       </c>
       <c r="P105" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H105, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I105), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice2 
-[22648]</v>
+[87842]</v>
       </c>
       <c r="Q105">
         <f>[2]!obGet([2]!obCall("", P105, "getRealizations"))</f>
-        <v>0.61771499708025068</v>
+        <v>0.73773943967480682</v>
       </c>
       <c r="T105" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H105,  $K$95,"getFairValue", [2]!obMake("","int",H105) )</f>
         <v>couponBondPrice2 
-[22298]</v>
+[87609]</v>
       </c>
       <c r="U105">
         <f>[2]!obGet([2]!obCall("",  T105,"getRealizations"))</f>
-        <v>1.4125767534044031</v>
+        <v>0.81151338364228753</v>
       </c>
       <c r="Y105" t="str">
         <f>[2]!obCall("intensity"&amp;H105, $D$40, "getIntensity", [2]!obMake("", "int", H105))</f>
         <v>intensity2 
-[17096]</v>
+[86259]</v>
       </c>
       <c r="Z105">
         <f>[2]!obGet([2]!obCall("", Y105, "getRealizations"))</f>
-        <v>7.8988423660920227E-3</v>
+        <v>1.8504891233036079E-2</v>
       </c>
       <c r="AC105" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H105, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H105))</f>
         <v>expOfIntegratedIntensity2 
-[17162]</v>
+[86427]</v>
       </c>
       <c r="AD105">
         <f>[2]!obGet([2]!obCall("", AC105, "getRealizations"))</f>
-        <v>1.0018890278616024</v>
+        <v>1.0040132231199177</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
@@ -7695,47 +7695,47 @@
       <c r="L106" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H106, $K$95, "getUnderlying",  [2]!obMake("", "int", H106), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault3 
-[23028]</v>
+[87198]</v>
       </c>
       <c r="M106">
         <f>[2]!obGet([2]!obCall("",L106,"getRealizations"))</f>
-        <v>2.8949259844468472E-2</v>
+        <v>-2.7272810417214327E-2</v>
       </c>
       <c r="P106" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H106, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I106), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice3 
-[22449]</v>
+[88108]</v>
       </c>
       <c r="Q106">
         <f>[2]!obGet([2]!obCall("", P106, "getRealizations"))</f>
-        <v>0.54995599407670137</v>
+        <v>0.84722325941098975</v>
       </c>
       <c r="T106" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H106,  $K$95,"getFairValue", [2]!obMake("","int",H106) )</f>
         <v>couponBondPrice3 
-[22407]</v>
+[87570]</v>
       </c>
       <c r="U106">
         <f>[2]!obGet([2]!obCall("",  T106,"getRealizations"))</f>
-        <v>1.2990329785609078</v>
+        <v>0.93194558535208871</v>
       </c>
       <c r="Y106" t="str">
         <f>[2]!obCall("intensity"&amp;H106, $D$40, "getIntensity", [2]!obMake("", "int", H106))</f>
         <v>intensity3 
-[17174]</v>
+[87266]</v>
       </c>
       <c r="Z106">
         <f>[2]!obGet([2]!obCall("", Y106, "getRealizations"))</f>
-        <v>6.3396911059316122E-3</v>
+        <v>1.5351635032580559E-2</v>
       </c>
       <c r="AC106" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H106, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H106))</f>
         <v>expOfIntegratedIntensity3 
-[17166]</v>
+[87269]</v>
       </c>
       <c r="AD106">
         <f>[2]!obGet([2]!obCall("", AC106, "getRealizations"))</f>
-        <v>1.0026807168417025</v>
+        <v>1.005872858756049</v>
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
@@ -7762,47 +7762,47 @@
       <c r="L107" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H107, $K$95, "getUnderlying",  [2]!obMake("", "int", H107), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault4 
-[21932]</v>
+[86667]</v>
       </c>
       <c r="M107">
         <f>[2]!obGet([2]!obCall("",L107,"getRealizations"))</f>
-        <v>3.4629572283819257E-2</v>
+        <v>-2.3690799458546439E-2</v>
       </c>
       <c r="P107" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H107, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I107), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice4 
-[22652]</v>
+[87830]</v>
       </c>
       <c r="Q107">
         <f>[2]!obGet([2]!obCall("", P107, "getRealizations"))</f>
-        <v>0.52724796797837026</v>
+        <v>0.8224805635645922</v>
       </c>
       <c r="T107" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H107,  $K$95,"getFairValue", [2]!obMake("","int",H107) )</f>
         <v>couponBondPrice4 
-[22414]</v>
+[86786]</v>
       </c>
       <c r="U107">
         <f>[2]!obGet([2]!obCall("",  T107,"getRealizations"))</f>
-        <v>1.2622919313125536</v>
+        <v>0.90472861992105147</v>
       </c>
       <c r="Y107" t="str">
         <f>[2]!obCall("intensity"&amp;H107, $D$40, "getIntensity", [2]!obMake("", "int", H107))</f>
         <v>intensity4 
-[17086]</v>
+[87299]</v>
       </c>
       <c r="Z107">
         <f>[2]!obGet([2]!obCall("", Y107, "getRealizations"))</f>
-        <v>8.2263384272562561E-3</v>
+        <v>1.5773992745607365E-2</v>
       </c>
       <c r="AC107" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H107, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H107))</f>
         <v>expOfIntegratedIntensity4 
-[17351]</v>
+[87200]</v>
       </c>
       <c r="AD107">
         <f>[2]!obGet([2]!obCall("", AC107, "getRealizations"))</f>
-        <v>1.0033165869836844</v>
+        <v>1.00741822394835</v>
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.25">
@@ -7827,47 +7827,47 @@
       <c r="L108" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H108, $K$95, "getUnderlying",  [2]!obMake("", "int", H108), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault5 
-[22350]</v>
+[87415]</v>
       </c>
       <c r="M108">
         <f>[2]!obGet([2]!obCall("",L108,"getRealizations"))</f>
-        <v>2.4378380109834983E-2</v>
+        <v>-1.7840924624383643E-2</v>
       </c>
       <c r="P108" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H108, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I108), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice5 
-[22438]</v>
+[88081]</v>
       </c>
       <c r="Q108">
         <f>[2]!obGet([2]!obCall("", P108, "getRealizations"))</f>
-        <v>0.57062838031604601</v>
+        <v>0.78525866709533265</v>
       </c>
       <c r="T108" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H108,  $K$95,"getFairValue", [2]!obMake("","int",H108) )</f>
         <v>couponBondPrice5 
-[22163]</v>
+[86723]</v>
       </c>
       <c r="U108">
         <f>[2]!obGet([2]!obCall("",  T108,"getRealizations"))</f>
-        <v>1.3382530013530229</v>
+        <v>0.86378453380486597</v>
       </c>
       <c r="Y108" t="str">
         <f>[2]!obCall("intensity"&amp;H108, $D$40, "getIntensity", [2]!obMake("", "int", H108))</f>
         <v>intensity5 
-[17090]</v>
+[86409]</v>
       </c>
       <c r="Z108">
         <f>[2]!obGet([2]!obCall("", Y108, "getRealizations"))</f>
-        <v>9.1577134288729385E-3</v>
+        <v>1.5953288655724911E-2</v>
       </c>
       <c r="AC108" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H108, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H108))</f>
         <v>expOfIntegratedIntensity5 
-[17168]</v>
+[86277]</v>
       </c>
       <c r="AD108">
         <f>[2]!obGet([2]!obCall("", AC108, "getRealizations"))</f>
-        <v>1.0041422887416458</v>
+        <v>1.0090085787064478</v>
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.25">
@@ -7892,47 +7892,47 @@
       <c r="L109" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H109, $K$95, "getUnderlying",  [2]!obMake("", "int", H109), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault6 
-[22161]</v>
+[86535]</v>
       </c>
       <c r="M109">
         <f>[2]!obGet([2]!obCall("",L109,"getRealizations"))</f>
-        <v>2.7295934055486849E-2</v>
+        <v>-2.793900319193262E-2</v>
       </c>
       <c r="P109" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H109, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I109), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice6 
-[22748]</v>
+[87812]</v>
       </c>
       <c r="Q109">
         <f>[2]!obGet([2]!obCall("", P109, "getRealizations"))</f>
-        <v>0.55882448827345621</v>
+        <v>0.84564104508346127</v>
       </c>
       <c r="T109" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H109,  $K$95,"getFairValue", [2]!obMake("","int",H109) )</f>
         <v>couponBondPrice6 
-[22399]</v>
+[87573]</v>
       </c>
       <c r="U109">
         <f>[2]!obGet([2]!obCall("",  T109,"getRealizations"))</f>
-        <v>1.3203651588432257</v>
+        <v>0.93020514959180745</v>
       </c>
       <c r="Y109" t="str">
         <f>[2]!obCall("intensity"&amp;H109, $D$40, "getIntensity", [2]!obMake("", "int", H109))</f>
         <v>intensity6 
-[17022]</v>
+[87323]</v>
       </c>
       <c r="Z109">
         <f>[2]!obGet([2]!obCall("", Y109, "getRealizations"))</f>
-        <v>9.4370052001483042E-3</v>
+        <v>1.4129458193242654E-2</v>
       </c>
       <c r="AC109" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H109, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H109))</f>
         <v>expOfIntegratedIntensity6 
-[16969]</v>
+[86378]</v>
       </c>
       <c r="AD109">
         <f>[2]!obGet([2]!obCall("", AC109, "getRealizations"))</f>
-        <v>1.0050622746579312</v>
+        <v>1.0106195639015874</v>
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
@@ -7957,47 +7957,47 @@
       <c r="L110" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H110, $K$95, "getUnderlying",  [2]!obMake("", "int", H110), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault7 
-[22356]</v>
+[86772]</v>
       </c>
       <c r="M110">
         <f>[2]!obGet([2]!obCall("",L110,"getRealizations"))</f>
-        <v>2.7951050001518624E-2</v>
+        <v>-2.2898123891775014E-2</v>
       </c>
       <c r="P110" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H110, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I110), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice7 
-[22590]</v>
+[87941]</v>
       </c>
       <c r="Q110">
         <f>[2]!obGet([2]!obCall("", P110, "getRealizations"))</f>
-        <v>0.55678309110552782</v>
+        <v>0.81269525127338471</v>
       </c>
       <c r="T110" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H110,  $K$95,"getFairValue", [2]!obMake("","int",H110) )</f>
         <v>couponBondPrice7 
-[22305]</v>
+[86759]</v>
       </c>
       <c r="U110">
         <f>[2]!obGet([2]!obCall("",  T110,"getRealizations"))</f>
-        <v>1.3190498683863199</v>
+        <v>0.89396477640072325</v>
       </c>
       <c r="Y110" t="str">
         <f>[2]!obCall("intensity"&amp;H110, $D$40, "getIntensity", [2]!obMake("", "int", H110))</f>
         <v>intensity7 
-[17098]</v>
+[86411]</v>
       </c>
       <c r="Z110">
         <f>[2]!obGet([2]!obCall("", Y110, "getRealizations"))</f>
-        <v>9.0272969205798526E-3</v>
+        <v>1.4288706543940493E-2</v>
       </c>
       <c r="AC110" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H110, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H110))</f>
         <v>expOfIntegratedIntensity7 
-[17343]</v>
+[87203]</v>
       </c>
       <c r="AD110">
         <f>[2]!obGet([2]!obCall("", AC110, "getRealizations"))</f>
-        <v>1.0060112001294799</v>
+        <v>1.0120485238731052</v>
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.25">
@@ -8022,47 +8022,47 @@
       <c r="L111" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H111, $K$95, "getUnderlying",  [2]!obMake("", "int", H111), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault8 
-[22364]</v>
+[87012]</v>
       </c>
       <c r="M111">
         <f>[2]!obGet([2]!obCall("",L111,"getRealizations"))</f>
-        <v>2.9820986351757756E-2</v>
+        <v>-3.2759981093274174E-2</v>
       </c>
       <c r="P111" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H111, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I111), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice8 
-[22579]</v>
+[88045]</v>
       </c>
       <c r="Q111">
         <f>[2]!obGet([2]!obCall("", P111, "getRealizations"))</f>
-        <v>0.5498759355381041</v>
+        <v>0.87234518904332692</v>
       </c>
       <c r="T111" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H111,  $K$95,"getFairValue", [2]!obMake("","int",H111) )</f>
         <v>couponBondPrice8 
-[22312]</v>
+[86922]</v>
       </c>
       <c r="U111">
         <f>[2]!obGet([2]!obCall("",  T111,"getRealizations"))</f>
-        <v>1.3096536756810999</v>
+        <v>0.95957970794765957</v>
       </c>
       <c r="Y111" t="str">
         <f>[2]!obCall("intensity"&amp;H111, $D$40, "getIntensity", [2]!obMake("", "int", H111))</f>
         <v>intensity8 
-[17337]</v>
+[86318]</v>
       </c>
       <c r="Z111">
         <f>[2]!obGet([2]!obCall("", Y111, "getRealizations"))</f>
-        <v>8.1865916334536836E-3</v>
+        <v>1.2661072399858732E-2</v>
       </c>
       <c r="AC111" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H111, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H111))</f>
         <v>expOfIntegratedIntensity8 
-[17251]</v>
+[86449]</v>
       </c>
       <c r="AD111">
         <f>[2]!obGet([2]!obCall("", AC111, "getRealizations"))</f>
-        <v>1.0069197663435281</v>
+        <v>1.0134956439371747</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
@@ -8087,47 +8087,47 @@
       <c r="L112" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H112, $K$95, "getUnderlying",  [2]!obMake("", "int", H112), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault9 
-[22301]</v>
+[87430]</v>
       </c>
       <c r="M112">
         <f>[2]!obGet([2]!obCall("",L112,"getRealizations"))</f>
-        <v>2.218764295231802E-2</v>
+        <v>-4.1765226529029961E-2</v>
       </c>
       <c r="P112" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H112, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I112), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice9 
-[22575]</v>
+[88010]</v>
       </c>
       <c r="Q112">
         <f>[2]!obGet([2]!obCall("", P112, "getRealizations"))</f>
-        <v>0.58229588774571073</v>
+        <v>0.92940142009404447</v>
       </c>
       <c r="T112" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H112,  $K$95,"getFairValue", [2]!obMake("","int",H112) )</f>
         <v>couponBondPrice9 
-[22358]</v>
+[87587]</v>
       </c>
       <c r="U112">
         <f>[2]!obGet([2]!obCall("",  T112,"getRealizations"))</f>
-        <v>1.3657134906500499</v>
+        <v>1.0223415621034488</v>
       </c>
       <c r="Y112" t="str">
         <f>[2]!obCall("intensity"&amp;H112, $D$40, "getIntensity", [2]!obMake("", "int", H112))</f>
         <v>intensity9 
-[16979]</v>
+[86568]</v>
       </c>
       <c r="Z112">
         <f>[2]!obGet([2]!obCall("", Y112, "getRealizations"))</f>
-        <v>8.2669953674736237E-3</v>
+        <v>1.1563938390259295E-2</v>
       </c>
       <c r="AC112" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H112, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H112))</f>
         <v>expOfIntegratedIntensity9 
-[16981]</v>
+[87338]</v>
       </c>
       <c r="AD112">
         <f>[2]!obGet([2]!obCall("", AC112, "getRealizations"))</f>
-        <v>1.0077444279493313</v>
+        <v>1.0147796507833149</v>
       </c>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.25">
@@ -8147,47 +8147,47 @@
       <c r="L113" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H113, $K$95, "getUnderlying",  [2]!obMake("", "int", H113), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault10 
-[22344]</v>
+[86769]</v>
       </c>
       <c r="M113">
         <f>[2]!obGet([2]!obCall("",L113,"getRealizations"))</f>
-        <v>1.3296744603563121E-2</v>
+        <v>-3.4611564509967774E-2</v>
       </c>
       <c r="P113" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H113, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I113), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice10 
-[22583]</v>
+[88048]</v>
       </c>
       <c r="Q113">
         <f>[2]!obGet([2]!obCall("", P113, "getRealizations"))</f>
-        <v>0.62170308614537095</v>
+        <v>0.87978281495877952</v>
       </c>
       <c r="T113" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H113,  $K$95,"getFairValue", [2]!obMake("","int",H113) )</f>
         <v>couponBondPrice10 
-[22296]</v>
+[86757]</v>
       </c>
       <c r="U113">
         <f>[2]!obGet([2]!obCall("",  T113,"getRealizations"))</f>
-        <v>1.4323045830777015</v>
+        <v>0.96776109645465747</v>
       </c>
       <c r="Y113" t="str">
         <f>[2]!obCall("intensity"&amp;H113, $D$40, "getIntensity", [2]!obMake("", "int", H113))</f>
         <v>intensity10 
-[17170]</v>
+[86429]</v>
       </c>
       <c r="Z113">
         <f>[2]!obGet([2]!obCall("", Y113, "getRealizations"))</f>
-        <v>9.0985581217440364E-3</v>
+        <v>1.2642114141180839E-2</v>
       </c>
       <c r="AC113" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H113, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H113))</f>
         <v>expOfIntegratedIntensity10 
-[17241]</v>
+[86294]</v>
       </c>
       <c r="AD113">
         <f>[2]!obGet([2]!obCall("", AC113, "getRealizations"))</f>
-        <v>1.0085778742584486</v>
+        <v>1.0159538144864404</v>
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.25">
@@ -8207,47 +8207,47 @@
       <c r="L114" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H114, $K$95, "getUnderlying",  [2]!obMake("", "int", H114), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault11 
-[21987]</v>
+[87540]</v>
       </c>
       <c r="M114">
         <f>[2]!obGet([2]!obCall("",L114,"getRealizations"))</f>
-        <v>1.4970372611468701E-2</v>
+        <v>-3.2609224473573235E-2</v>
       </c>
       <c r="P114" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H114, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I114), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice11 
-[22645]</v>
+[87905]</v>
       </c>
       <c r="Q114">
         <f>[2]!obGet([2]!obCall("", P114, "getRealizations"))</f>
-        <v>0.6164528520742999</v>
+        <v>0.8676345212277764</v>
       </c>
       <c r="T114" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H114,  $K$95,"getFairValue", [2]!obMake("","int",H114) )</f>
         <v>couponBondPrice11 
-[22405]</v>
+[86784]</v>
       </c>
       <c r="U114">
         <f>[2]!obGet([2]!obCall("",  T114,"getRealizations"))</f>
-        <v>1.3260866821212511</v>
+        <v>0.9543979733505541</v>
       </c>
       <c r="Y114" t="str">
         <f>[2]!obCall("intensity"&amp;H114, $D$40, "getIntensity", [2]!obMake("", "int", H114))</f>
         <v>intensity11 
-[17092]</v>
+[86596]</v>
       </c>
       <c r="Z114">
         <f>[2]!obGet([2]!obCall("", Y114, "getRealizations"))</f>
-        <v>8.6569328086130628E-3</v>
+        <v>1.3603821162112398E-2</v>
       </c>
       <c r="AC114" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H114, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H114))</f>
         <v>expOfIntegratedIntensity11 
-[17245]</v>
+[86634]</v>
       </c>
       <c r="AD114">
         <f>[2]!obGet([2]!obCall("", AC114, "getRealizations"))</f>
-        <v>1.0094959522953573</v>
+        <v>1.017239007101348</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
@@ -8267,47 +8267,47 @@
       <c r="L115" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H115, $K$95, "getUnderlying",  [2]!obMake("", "int", H115), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault12 
-[22264]</v>
+[86839]</v>
       </c>
       <c r="M115">
         <f>[2]!obGet([2]!obCall("",L115,"getRealizations"))</f>
-        <v>2.2356366651568073E-2</v>
+        <v>-3.0603532499762526E-2</v>
       </c>
       <c r="P115" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H115, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I115), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice12 
-[22787]</v>
+[87878]</v>
       </c>
       <c r="Q115">
         <f>[2]!obGet([2]!obCall("", P115, "getRealizations"))</f>
-        <v>0.58703137447684639</v>
+        <v>0.85586629975939765</v>
       </c>
       <c r="T115" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H115,  $K$95,"getFairValue", [2]!obMake("","int",H115) )</f>
         <v>couponBondPrice12 
-[22412]</v>
+[87104]</v>
       </c>
       <c r="U115">
         <f>[2]!obGet([2]!obCall("",  T115,"getRealizations"))</f>
-        <v>1.2806087768924987</v>
+        <v>0.94145292973533745</v>
       </c>
       <c r="Y115" t="str">
         <f>[2]!obCall("intensity"&amp;H115, $D$40, "getIntensity", [2]!obMake("", "int", H115))</f>
         <v>intensity12 
-[17160]</v>
+[86275]</v>
       </c>
       <c r="Z115">
         <f>[2]!obGet([2]!obCall("", Y115, "getRealizations"))</f>
-        <v>1.0156528751990877E-2</v>
+        <v>1.3389849102037102E-2</v>
       </c>
       <c r="AC115" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H115, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H115))</f>
         <v>expOfIntegratedIntensity12 
-[17349]</v>
+[86660]</v>
       </c>
       <c r="AD115">
         <f>[2]!obGet([2]!obCall("", AC115, "getRealizations"))</f>
-        <v>1.0103702445381748</v>
+        <v>1.0186237825528406</v>
       </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.25">
@@ -8327,47 +8327,47 @@
       <c r="L116" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H116, $K$95, "getUnderlying",  [2]!obMake("", "int", H116), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault13 
-[22024]</v>
+[86501]</v>
       </c>
       <c r="M116">
         <f>[2]!obGet([2]!obCall("",L116,"getRealizations"))</f>
-        <v>1.3505236614964482E-2</v>
+        <v>-2.3600804759179032E-2</v>
       </c>
       <c r="P116" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H116, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I116), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice13 
-[22656]</v>
+[87774]</v>
       </c>
       <c r="Q116">
         <f>[2]!obGet([2]!obCall("", P116, "getRealizations"))</f>
-        <v>0.62747764219841451</v>
+        <v>0.81523814870685329</v>
       </c>
       <c r="T116" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H116,  $K$95,"getFairValue", [2]!obMake("","int",H116) )</f>
         <v>couponBondPrice13 
-[22416]</v>
+[87567]</v>
       </c>
       <c r="U116">
         <f>[2]!obGet([2]!obCall("",  T116,"getRealizations"))</f>
-        <v>1.3487386412187217</v>
+        <v>0.89676196357753857</v>
       </c>
       <c r="Y116" t="str">
         <f>[2]!obCall("intensity"&amp;H116, $D$40, "getIntensity", [2]!obMake("", "int", H116))</f>
         <v>intensity13 
-[17164]</v>
+[86614]</v>
       </c>
       <c r="Z116">
         <f>[2]!obGet([2]!obCall("", Y116, "getRealizations"))</f>
-        <v>1.1076454551477542E-2</v>
+        <v>1.4494599005757973E-2</v>
       </c>
       <c r="AC116" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H116, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H116))</f>
         <v>expOfIntegratedIntensity13 
-[17001]</v>
+[86235]</v>
       </c>
       <c r="AD116">
         <f>[2]!obGet([2]!obCall("", AC116, "getRealizations"))</f>
-        <v>1.0113969512826257</v>
+        <v>1.0199886179699522</v>
       </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.25">
@@ -8387,47 +8387,47 @@
       <c r="L117" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H117, $K$95, "getUnderlying",  [2]!obMake("", "int", H117), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault14 
-[22007]</v>
+[86496]</v>
       </c>
       <c r="M117">
         <f>[2]!obGet([2]!obCall("",L117,"getRealizations"))</f>
-        <v>1.4333649279886083E-2</v>
+        <v>-1.8692483022166469E-2</v>
       </c>
       <c r="P117" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H117, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I117), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice14 
-[22528]</v>
+[87963]</v>
       </c>
       <c r="Q117">
         <f>[2]!obGet([2]!obCall("", P117, "getRealizations"))</f>
-        <v>0.62613473219580429</v>
+        <v>0.78872067383987332</v>
       </c>
       <c r="T117" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H117,  $K$95,"getFairValue", [2]!obMake("","int",H117) )</f>
         <v>couponBondPrice14 
-[22397]</v>
+[86782]</v>
       </c>
       <c r="U117">
         <f>[2]!obGet([2]!obCall("",  T117,"getRealizations"))</f>
-        <v>1.3490060899506111</v>
+        <v>0.86759274122386065</v>
       </c>
       <c r="Y117" t="str">
         <f>[2]!obCall("intensity"&amp;H117, $D$40, "getIntensity", [2]!obMake("", "int", H117))</f>
         <v>intensity14 
-[17094]</v>
+[87296]</v>
       </c>
       <c r="Z117">
         <f>[2]!obGet([2]!obCall("", Y117, "getRealizations"))</f>
-        <v>1.1152433790716067E-2</v>
+        <v>1.4738002441207492E-2</v>
       </c>
       <c r="AC117" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H117, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H117))</f>
         <v>expOfIntegratedIntensity14 
-[17084]</v>
+[86594]</v>
       </c>
       <c r="AD117">
         <f>[2]!obGet([2]!obCall("", AC117, "getRealizations"))</f>
-        <v>1.0125178411787641</v>
+        <v>1.0214681225529978</v>
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.25">
@@ -8447,47 +8447,47 @@
       <c r="L118" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H118, $K$95, "getUnderlying",  [2]!obMake("", "int", H118), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault15 
-[22353]</v>
+[86925]</v>
       </c>
       <c r="M118">
         <f>[2]!obGet([2]!obCall("",L118,"getRealizations"))</f>
-        <v>1.0183929672646403E-2</v>
+        <v>-1.5246732391521682E-2</v>
       </c>
       <c r="P118" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H118, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I118), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice15 
-[22768]</v>
+[87752]</v>
       </c>
       <c r="Q118">
         <f>[2]!obGet([2]!obCall("", P118, "getRealizations"))</f>
-        <v>0.64679887246634338</v>
+        <v>0.77134261806889082</v>
       </c>
       <c r="T118" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H118,  $K$95,"getFairValue", [2]!obMake("","int",H118) )</f>
         <v>couponBondPrice15 
-[22303]</v>
+[86841]</v>
       </c>
       <c r="U118">
         <f>[2]!obGet([2]!obCall("",  T118,"getRealizations"))</f>
-        <v>1.3845037517719629</v>
+        <v>0.84847687987577991</v>
       </c>
       <c r="Y118" t="str">
         <f>[2]!obCall("intensity"&amp;H118, $D$40, "getIntensity", [2]!obMake("", "int", H118))</f>
         <v>intensity15 
-[17353]</v>
+[86322]</v>
       </c>
       <c r="Z118">
         <f>[2]!obGet([2]!obCall("", Y118, "getRealizations"))</f>
-        <v>1.2467945118276211E-2</v>
+        <v>1.5752185060769551E-2</v>
       </c>
       <c r="AC118" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H118, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H118))</f>
         <v>expOfIntegratedIntensity15 
-[17341]</v>
+[86658]</v>
       </c>
       <c r="AD118">
         <f>[2]!obGet([2]!obCall("", AC118, "getRealizations"))</f>
-        <v>1.0136476749000149</v>
+        <v>1.0229746724254665</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
@@ -8507,47 +8507,47 @@
       <c r="L119" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H119, $K$95, "getUnderlying",  [2]!obMake("", "int", H119), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault16 
-[22361]</v>
+[87411]</v>
       </c>
       <c r="M119">
         <f>[2]!obGet([2]!obCall("",L119,"getRealizations"))</f>
-        <v>6.3413217348011631E-3</v>
+        <v>-1.514334363067318E-2</v>
       </c>
       <c r="P119" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H119, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I119), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice16 
-[22587]</v>
+[88041]</v>
       </c>
       <c r="Q119">
         <f>[2]!obGet([2]!obCall("", P119, "getRealizations"))</f>
-        <v>0.66515344766771589</v>
+        <v>0.77076416797175162</v>
       </c>
       <c r="T119" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H119,  $K$95,"getFairValue", [2]!obMake("","int",H119) )</f>
         <v>couponBondPrice16 
-[22310]</v>
+[87426]</v>
       </c>
       <c r="U119">
         <f>[2]!obGet([2]!obCall("",  T119,"getRealizations"))</f>
-        <v>1.4153198205139716</v>
+        <v>0.84784058476892676</v>
       </c>
       <c r="Y119" t="str">
         <f>[2]!obCall("intensity"&amp;H119, $D$40, "getIntensity", [2]!obMake("", "int", H119))</f>
         <v>intensity16 
-[17335]</v>
+[87206]</v>
       </c>
       <c r="Z119">
         <f>[2]!obGet([2]!obCall("", Y119, "getRealizations"))</f>
-        <v>1.2708841234818498E-2</v>
+        <v>1.5888969402262365E-2</v>
       </c>
       <c r="AC119" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H119, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H119))</f>
         <v>expOfIntegratedIntensity16 
-[16947]</v>
+[86560]</v>
       </c>
       <c r="AD119">
         <f>[2]!obGet([2]!obCall("", AC119, "getRealizations"))</f>
-        <v>1.0149122734414497</v>
+        <v>1.0245873508877348</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.25">
@@ -8567,47 +8567,47 @@
       <c r="L120" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H120, $K$95, "getUnderlying",  [2]!obMake("", "int", H120), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault17 
-[22308]</v>
+[87606]</v>
       </c>
       <c r="M120">
         <f>[2]!obGet([2]!obCall("",L120,"getRealizations"))</f>
-        <v>1.3861290417663052E-2</v>
+        <v>-2.6150597647034046E-2</v>
       </c>
       <c r="P120" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H120, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I120), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice17 
-[22728]</v>
+[87860]</v>
       </c>
       <c r="Q120">
         <f>[2]!obGet([2]!obCall("", P120, "getRealizations"))</f>
-        <v>0.63292596928299028</v>
+        <v>0.83061135049142087</v>
       </c>
       <c r="T120" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H120,  $K$95,"getFairValue", [2]!obMake("","int",H120) )</f>
         <v>couponBondPrice17 
-[22401]</v>
+[87397]</v>
       </c>
       <c r="U120">
         <f>[2]!obGet([2]!obCall("",  T120,"getRealizations"))</f>
-        <v>1.3660226196114733</v>
+        <v>0.91367248554056291</v>
       </c>
       <c r="Y120" t="str">
         <f>[2]!obCall("intensity"&amp;H120, $D$40, "getIntensity", [2]!obMake("", "int", H120))</f>
         <v>intensity17 
-[17088]</v>
+[86257]</v>
       </c>
       <c r="Z120">
         <f>[2]!obGet([2]!obCall("", Y120, "getRealizations"))</f>
-        <v>1.4029821932200526E-2</v>
+        <v>1.3995269914379787E-2</v>
       </c>
       <c r="AC120" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H120, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H120))</f>
         <v>expOfIntegratedIntensity17 
-[17253]</v>
+[86636]</v>
       </c>
       <c r="AD120">
         <f>[2]!obGet([2]!obCall("", AC120, "getRealizations"))</f>
-        <v>1.0162029292997965</v>
+        <v>1.0262166086130944</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.25">
@@ -8627,47 +8627,47 @@
       <c r="L121" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H121, $K$95, "getUnderlying",  [2]!obMake("", "int", H121), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault18 
-[22341]</v>
+[86844]</v>
       </c>
       <c r="M121">
         <f>[2]!obGet([2]!obCall("",L121,"getRealizations"))</f>
-        <v>1.2954075838381011E-2</v>
+        <v>-3.1714130605589627E-2</v>
       </c>
       <c r="P121" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H121, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I121), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice18 
-[22442]</v>
+[88099]</v>
       </c>
       <c r="Q121">
         <f>[2]!obGet([2]!obCall("", P121, "getRealizations"))</f>
-        <v>0.63805307050545546</v>
+        <v>0.86169748516306399</v>
       </c>
       <c r="T121" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H121,  $K$95,"getFairValue", [2]!obMake("","int",H121) )</f>
         <v>couponBondPrice18 
-[22294]</v>
+[87095]</v>
       </c>
       <c r="U121">
         <f>[2]!obGet([2]!obCall("",  T121,"getRealizations"))</f>
-        <v>1.3759873828691767</v>
+        <v>0.94786723367937042</v>
       </c>
       <c r="Y121" t="str">
         <f>[2]!obCall("intensity"&amp;H121, $D$40, "getIntensity", [2]!obMake("", "int", H121))</f>
         <v>intensity18 
-[17249]</v>
+[86296]</v>
       </c>
       <c r="Z121">
         <f>[2]!obGet([2]!obCall("", Y121, "getRealizations"))</f>
-        <v>1.4859809018309184E-2</v>
+        <v>1.299208300219366E-2</v>
       </c>
       <c r="AC121" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H121, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H121))</f>
         <v>expOfIntegratedIntensity18 
-[16999]</v>
+[87332]</v>
       </c>
       <c r="AD121">
         <f>[2]!obGet([2]!obCall("", AC121, "getRealizations"))</f>
-        <v>1.0176296445082944</v>
+        <v>1.0276538319377402</v>
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.25">
@@ -8687,47 +8687,47 @@
       <c r="L122" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H122, $K$95, "getUnderlying",  [2]!obMake("", "int", H122), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault19 
-[22261]</v>
+[87444]</v>
       </c>
       <c r="M122">
         <f>[2]!obGet([2]!obCall("",L122,"getRealizations"))</f>
-        <v>2.8333715276815372E-2</v>
+        <v>-2.2520913204857908E-2</v>
       </c>
       <c r="P122" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H122, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I122), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice19 
-[22532]</v>
+[88037]</v>
       </c>
       <c r="Q122">
         <f>[2]!obGet([2]!obCall("", P122, "getRealizations"))</f>
-        <v>0.57705688010293521</v>
+        <v>0.80969388126877717</v>
       </c>
       <c r="T122" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H122,  $K$95,"getFairValue", [2]!obMake("","int",H122) )</f>
         <v>couponBondPrice19 
-[22403]</v>
+[87015]</v>
       </c>
       <c r="U122">
         <f>[2]!obGet([2]!obCall("",  T122,"getRealizations"))</f>
-        <v>1.2817242406092528</v>
+        <v>0.89066326939565488</v>
       </c>
       <c r="Y122" t="str">
         <f>[2]!obCall("intensity"&amp;H122, $D$40, "getIntensity", [2]!obMake("", "int", H122))</f>
         <v>intensity19 
-[17345]</v>
+[86320]</v>
       </c>
       <c r="Z122">
         <f>[2]!obGet([2]!obCall("", Y122, "getRealizations"))</f>
-        <v>1.4872024660059026E-2</v>
+        <v>1.3696083941636763E-2</v>
       </c>
       <c r="AC122" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H122, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H122))</f>
         <v>expOfIntegratedIntensity19 
-[17020]</v>
+[86578]</v>
       </c>
       <c r="AD122">
         <f>[2]!obGet([2]!obCall("", AC122, "getRealizations"))</f>
-        <v>1.0191429468158693</v>
+        <v>1.0289898360118122</v>
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.25">
@@ -8747,47 +8747,47 @@
       <c r="L123" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H123, $K$95, "getUnderlying",  [2]!obMake("", "int", H123), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault20 
-[22062]</v>
+[87689]</v>
       </c>
       <c r="M123">
         <f>[2]!obGet([2]!obCall("",L123,"getRealizations"))</f>
-        <v>1.8789502283441971E-2</v>
+        <v>-2.0443842880405835E-2</v>
       </c>
       <c r="P123" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H123, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I123), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice20 
-[22446]</v>
+[87985]</v>
       </c>
       <c r="Q123">
         <f>[2]!obGet([2]!obCall("", P123, "getRealizations"))</f>
-        <v>0.61640558624627062</v>
+        <v>0.79838753679709928</v>
       </c>
       <c r="T123" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H123,  $K$95,"getFairValue", [2]!obMake("","int",H123) )</f>
         <v>couponBondPrice20 
-[22258]</v>
+[87623]</v>
       </c>
       <c r="U123">
         <f>[2]!obGet([2]!obCall("",  T123,"getRealizations"))</f>
-        <v>1.3459620472190084</v>
+        <v>0.87822629047680922</v>
       </c>
       <c r="Y123" t="str">
         <f>[2]!obCall("intensity"&amp;H123, $D$40, "getIntensity", [2]!obMake("", "int", H123))</f>
         <v>intensity20 
-[17347]</v>
+[86473]</v>
       </c>
       <c r="Z123">
         <f>[2]!obGet([2]!obCall("", Y123, "getRealizations"))</f>
-        <v>1.6271767720219103E-2</v>
+        <v>1.3312415651031941E-2</v>
       </c>
       <c r="AC123" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H123, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H123))</f>
         <v>expOfIntegratedIntensity20 
-[17239]</v>
+[87242]</v>
       </c>
       <c r="AD123">
         <f>[2]!obGet([2]!obCall("", AC123, "getRealizations"))</f>
-        <v>1.0206597463340106</v>
+        <v>1.0304001146730162</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.25">
@@ -8807,47 +8807,47 @@
       <c r="L124" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H124, $K$95, "getUnderlying",  [2]!obMake("", "int", H124), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault21 
-[22083]</v>
+[86704]</v>
       </c>
       <c r="M124">
         <f>[2]!obGet([2]!obCall("",L124,"getRealizations"))</f>
-        <v>1.1123731609248174E-2</v>
+        <v>-3.8246788123348439E-2</v>
       </c>
       <c r="P124" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H124, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I124), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice21 
-[22641]</v>
+[87777]</v>
       </c>
       <c r="Q124">
         <f>[2]!obGet([2]!obCall("", P124, "getRealizations"))</f>
-        <v>0.64835054769240874</v>
+        <v>0.89483848649304465</v>
       </c>
       <c r="T124" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H124,  $K$95,"getFairValue", [2]!obMake("","int",H124) )</f>
         <v>couponBondPrice21 
-[22032]</v>
+[86503]</v>
       </c>
       <c r="U124">
         <f>[2]!obGet([2]!obCall("",  T124,"getRealizations"))</f>
-        <v>1.2966977558742931</v>
+        <v>0.98432233514234913</v>
       </c>
       <c r="Y124" t="str">
         <f>[2]!obCall("intensity"&amp;H124, $D$40, "getIntensity", [2]!obMake("", "int", H124))</f>
         <v>intensity21 
-[17213]</v>
+[86626]</v>
       </c>
       <c r="Z124">
         <f>[2]!obGet([2]!obCall("", Y124, "getRealizations"))</f>
-        <v>1.7663502680018699E-2</v>
+        <v>1.265080251414913E-2</v>
       </c>
       <c r="AC124" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H124, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H124))</f>
         <v>expOfIntegratedIntensity21 
-[17006]</v>
+[87329]</v>
       </c>
       <c r="AD124">
         <f>[2]!obGet([2]!obCall("", AC124, "getRealizations"))</f>
-        <v>1.0223218921011359</v>
+        <v>1.0317727395793059</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.25">
@@ -8867,47 +8867,47 @@
       <c r="L125" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H125, $K$95, "getUnderlying",  [2]!obMake("", "int", H125), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault22 
-[22065]</v>
+[87511]</v>
       </c>
       <c r="M125">
         <f>[2]!obGet([2]!obCall("",L125,"getRealizations"))</f>
-        <v>-2.2159972157382406E-3</v>
+        <v>-4.1396853640860411E-2</v>
       </c>
       <c r="P125" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H125, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I125), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice22 
-[22504]</v>
+[88096]</v>
       </c>
       <c r="Q125">
         <f>[2]!obGet([2]!obCall("", P125, "getRealizations"))</f>
-        <v>0.70671735029070781</v>
+        <v>0.91022749539860193</v>
       </c>
       <c r="T125" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H125,  $K$95,"getFairValue", [2]!obMake("","int",H125) )</f>
         <v>couponBondPrice22 
-[22026]</v>
+[86689]</v>
       </c>
       <c r="U125">
         <f>[2]!obGet([2]!obCall("",  T125,"getRealizations"))</f>
-        <v>1.3872787271524587</v>
+        <v>1.0012502449384622</v>
       </c>
       <c r="Y125" t="str">
         <f>[2]!obCall("intensity"&amp;H125, $D$40, "getIntensity", [2]!obMake("", "int", H125))</f>
         <v>intensity22 
-[17277]</v>
+[86642]</v>
       </c>
       <c r="Z125">
         <f>[2]!obGet([2]!obCall("", Y125, "getRealizations"))</f>
-        <v>1.8683378535864686E-2</v>
+        <v>1.1926921263060077E-2</v>
       </c>
       <c r="AC125" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H125, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H125))</f>
         <v>expOfIntegratedIntensity22 
-[17179]</v>
+[86431]</v>
       </c>
       <c r="AD125">
         <f>[2]!obGet([2]!obCall("", AC125, "getRealizations"))</f>
-        <v>1.0241292664073618</v>
+        <v>1.0330788408833858</v>
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.25">
@@ -8927,47 +8927,47 @@
       <c r="L126" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H126, $K$95, "getUnderlying",  [2]!obMake("", "int", H126), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault23 
-[22134]</v>
+[87665]</v>
       </c>
       <c r="M126">
         <f>[2]!obGet([2]!obCall("",L126,"getRealizations"))</f>
-        <v>2.1944077800041305E-3</v>
+        <v>-3.8934456599163968E-2</v>
       </c>
       <c r="P126" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H126, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I126), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice23 
-[22704]</v>
+[87765]</v>
       </c>
       <c r="Q126">
         <f>[2]!obGet([2]!obCall("", P126, "getRealizations"))</f>
-        <v>0.68652129665973882</v>
+        <v>0.89291491441732918</v>
       </c>
       <c r="T126" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H126,  $K$95,"getFairValue", [2]!obMake("","int",H126) )</f>
         <v>couponBondPrice23 
-[22249]</v>
+[87626]</v>
       </c>
       <c r="U126">
         <f>[2]!obGet([2]!obCall("",  T126,"getRealizations"))</f>
-        <v>1.3569722630921084</v>
+        <v>0.98220640585906205</v>
       </c>
       <c r="Y126" t="str">
         <f>[2]!obCall("intensity"&amp;H126, $D$40, "getIntensity", [2]!obMake("", "int", H126))</f>
         <v>intensity23 
-[17032]</v>
+[86243]</v>
       </c>
       <c r="Z126">
         <f>[2]!obGet([2]!obCall("", Y126, "getRealizations"))</f>
-        <v>1.9029885223536682E-2</v>
+        <v>1.1899341860042332E-2</v>
       </c>
       <c r="AC126" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H126, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H126))</f>
         <v>expOfIntegratedIntensity23 
-[17323]</v>
+[86467]</v>
       </c>
       <c r="AD126">
         <f>[2]!obGet([2]!obCall("", AC126, "getRealizations"))</f>
-        <v>1.0260444744534856</v>
+        <v>1.0343117209597914</v>
       </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.25">
@@ -8987,47 +8987,47 @@
       <c r="L127" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H127, $K$95, "getUnderlying",  [2]!obMake("", "int", H127), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault24 
-[22101]</v>
+[87499]</v>
       </c>
       <c r="M127">
         <f>[2]!obGet([2]!obCall("",L127,"getRealizations"))</f>
-        <v>-1.8586624160843519E-2</v>
+        <v>-3.0124398018192427E-2</v>
       </c>
       <c r="P127" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H127, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I127), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice24 
-[22629]</v>
+[87909]</v>
       </c>
       <c r="Q127">
         <f>[2]!obGet([2]!obCall("", P127, "getRealizations"))</f>
-        <v>0.78256730970906518</v>
+        <v>0.84179006053694683</v>
       </c>
       <c r="T127" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H127,  $K$95,"getFairValue", [2]!obMake("","int",H127) )</f>
         <v>couponBondPrice24 
-[22038]</v>
+[87520]</v>
       </c>
       <c r="U127">
         <f>[2]!obGet([2]!obCall("",  T127,"getRealizations"))</f>
-        <v>1.5027427404185447</v>
+        <v>0.92596906659064149</v>
       </c>
       <c r="Y127" t="str">
         <f>[2]!obCall("intensity"&amp;H127, $D$40, "getIntensity", [2]!obMake("", "int", H127))</f>
         <v>intensity24 
-[17004]</v>
+[86574]</v>
       </c>
       <c r="Z127">
         <f>[2]!obGet([2]!obCall("", Y127, "getRealizations"))</f>
-        <v>1.7530298004803029E-2</v>
+        <v>1.2690011917089079E-2</v>
       </c>
       <c r="AC127" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H127, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H127))</f>
         <v>expOfIntegratedIntensity24 
-[17116]</v>
+[86602]</v>
       </c>
       <c r="AD127">
         <f>[2]!obGet([2]!obCall("", AC127, "getRealizations"))</f>
-        <v>1.0279988843317753</v>
+        <v>1.0355432163894915</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
@@ -9047,47 +9047,47 @@
       <c r="L128" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H128, $K$95, "getUnderlying",  [2]!obMake("", "int", H128), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault25 
-[22184]</v>
+[86541]</v>
       </c>
       <c r="M128">
         <f>[2]!obGet([2]!obCall("",L128,"getRealizations"))</f>
-        <v>-1.005306254546421E-2</v>
+        <v>-4.2540119833921919E-2</v>
       </c>
       <c r="P128" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H128, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I128), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice25 
-[22452]</v>
+[88001]</v>
       </c>
       <c r="Q128">
         <f>[2]!obGet([2]!obCall("", P128, "getRealizations"))</f>
-        <v>0.74054782208466308</v>
+        <v>0.90738899102580128</v>
       </c>
       <c r="T128" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H128,  $K$95,"getFairValue", [2]!obMake("","int",H128) )</f>
         <v>couponBondPrice25 
-[21917]</v>
+[87742]</v>
       </c>
       <c r="U128">
         <f>[2]!obGet([2]!obCall("",  T128,"getRealizations"))</f>
-        <v>1.4397615029615216</v>
+        <v>0.99812789012838143</v>
       </c>
       <c r="Y128" t="str">
         <f>[2]!obCall("intensity"&amp;H128, $D$40, "getIntensity", [2]!obMake("", "int", H128))</f>
         <v>intensity25 
-[17205]</v>
+[86624]</v>
       </c>
       <c r="Z128">
         <f>[2]!obGet([2]!obCall("", Y128, "getRealizations"))</f>
-        <v>1.6517524896894398E-2</v>
+        <v>1.1415120701307983E-2</v>
       </c>
       <c r="AC128" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H128, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H128))</f>
         <v>expOfIntegratedIntensity25 
-[17108]</v>
+[86600]</v>
       </c>
       <c r="AD128">
         <f>[2]!obGet([2]!obCall("", AC128, "getRealizations"))</f>
-        <v>1.0298025775129054</v>
+        <v>1.0368581561187367</v>
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
@@ -9107,47 +9107,47 @@
       <c r="L129" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H129, $K$95, "getUnderlying",  [2]!obMake("", "int", H129), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault26 
-[22166]</v>
+[87654]</v>
       </c>
       <c r="M129">
         <f>[2]!obGet([2]!obCall("",L129,"getRealizations"))</f>
-        <v>-6.2213553229980281E-3</v>
+        <v>-2.5554776276523583E-2</v>
       </c>
       <c r="P129" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H129, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I129), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice26 
-[22597]</v>
+[87915]</v>
       </c>
       <c r="Q129">
         <f>[2]!obGet([2]!obCall("", P129, "getRealizations"))</f>
-        <v>0.72283399842383433</v>
+        <v>0.81465349405693666</v>
       </c>
       <c r="T129" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H129,  $K$95,"getFairValue", [2]!obMake("","int",H129) )</f>
         <v>couponBondPrice26 
-[21989]</v>
+[86491]</v>
       </c>
       <c r="U129">
         <f>[2]!obGet([2]!obCall("",  T129,"getRealizations"))</f>
-        <v>1.4137239210249832</v>
+        <v>0.89611884346263038</v>
       </c>
       <c r="Y129" t="str">
         <f>[2]!obCall("intensity"&amp;H129, $D$40, "getIntensity", [2]!obMake("", "int", H129))</f>
         <v>intensity26 
-[17197]</v>
+[86622]</v>
       </c>
       <c r="Z129">
         <f>[2]!obGet([2]!obCall("", Y129, "getRealizations"))</f>
-        <v>1.4730658462509991E-2</v>
+        <v>1.3274063051118225E-2</v>
       </c>
       <c r="AC129" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H129, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H129))</f>
         <v>expOfIntegratedIntensity26 
-[17255]</v>
+[87236]</v>
       </c>
       <c r="AD129">
         <f>[2]!obGet([2]!obCall("", AC129, "getRealizations"))</f>
-        <v>1.0315049620561054</v>
+        <v>1.0380424180149881</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.25">
@@ -9167,47 +9167,47 @@
       <c r="L130" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H130, $K$95, "getUnderlying",  [2]!obMake("", "int", H130), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault27 
-[22217]</v>
+[87459]</v>
       </c>
       <c r="M130">
         <f>[2]!obGet([2]!obCall("",L130,"getRealizations"))</f>
-        <v>-3.0037370953940219E-2</v>
+        <v>-1.371529245619146E-2</v>
       </c>
       <c r="P130" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H130, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I130), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice27 
-[22617]</v>
+[87869]</v>
       </c>
       <c r="Q130">
         <f>[2]!obGet([2]!obCall("", P130, "getRealizations"))</f>
-        <v>0.83601490638923825</v>
+        <v>0.75658850426990853</v>
       </c>
       <c r="T130" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H130,  $K$95,"getFairValue", [2]!obMake("","int",H130) )</f>
         <v>couponBondPrice27 
-[21946]</v>
+[86481]</v>
       </c>
       <c r="U130">
         <f>[2]!obGet([2]!obCall("",  T130,"getRealizations"))</f>
-        <v>1.5820435628852296</v>
+        <v>0.83224735469689937</v>
       </c>
       <c r="Y130" t="str">
         <f>[2]!obCall("intensity"&amp;H130, $D$40, "getIntensity", [2]!obMake("", "int", H130))</f>
         <v>intensity27 
-[17267]</v>
+[86453]</v>
       </c>
       <c r="Z130">
         <f>[2]!obGet([2]!obCall("", Y130, "getRealizations"))</f>
-        <v>1.4973839747080851E-2</v>
+        <v>1.4745640027951576E-2</v>
       </c>
       <c r="AC130" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H130, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H130))</f>
         <v>expOfIntegratedIntensity27 
-[17066]</v>
+[86403]</v>
       </c>
       <c r="AD130">
         <f>[2]!obGet([2]!obCall("", AC130, "getRealizations"))</f>
-        <v>1.0330255564788393</v>
+        <v>1.0394212369896776</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
@@ -9227,47 +9227,47 @@
       <c r="L131" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H131, $K$95, "getUnderlying",  [2]!obMake("", "int", H131), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault28 
-[22202]</v>
+[87642]</v>
       </c>
       <c r="M131">
         <f>[2]!obGet([2]!obCall("",L131,"getRealizations"))</f>
-        <v>-1.9286571510317423E-2</v>
+        <v>-1.2570281030314432E-2</v>
       </c>
       <c r="P131" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H131, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I131), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice28 
-[22464]</v>
+[87966]</v>
       </c>
       <c r="Q131">
         <f>[2]!obGet([2]!obCall("", P131, "getRealizations"))</f>
-        <v>0.78199178398757263</v>
+        <v>0.75087137226753009</v>
       </c>
       <c r="T131" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H131,  $K$95,"getFairValue", [2]!obMake("","int",H131) )</f>
         <v>couponBondPrice28 
-[21995]</v>
+[87536]</v>
       </c>
       <c r="U131">
         <f>[2]!obGet([2]!obCall("",  T131,"getRealizations"))</f>
-        <v>1.5024817225260532</v>
+        <v>0.82595850949428307</v>
       </c>
       <c r="Y131" t="str">
         <f>[2]!obCall("intensity"&amp;H131, $D$40, "getIntensity", [2]!obMake("", "int", H131))</f>
         <v>intensity28 
-[17024]</v>
+[86241]</v>
       </c>
       <c r="Z131">
         <f>[2]!obGet([2]!obCall("", Y131, "getRealizations"))</f>
-        <v>1.2681355714514673E-2</v>
+        <v>1.4246480768987461E-2</v>
       </c>
       <c r="AC131" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H131, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H131))</f>
         <v>expOfIntegratedIntensity28 
-[16945]</v>
+[86372]</v>
       </c>
       <c r="AD131">
         <f>[2]!obGet([2]!obCall("", AC131, "getRealizations"))</f>
-        <v>1.0345735510744876</v>
+        <v>1.0409550607121862</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
@@ -9287,47 +9287,47 @@
       <c r="L132" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H132, $K$95, "getUnderlying",  [2]!obMake("", "int", H132), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault29 
-[22086]</v>
+[87681]</v>
       </c>
       <c r="M132">
         <f>[2]!obGet([2]!obCall("",L132,"getRealizations"))</f>
-        <v>-1.7313235930377348E-2</v>
+        <v>-1.6188907577323636E-2</v>
       </c>
       <c r="P132" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H132, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I132), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice29 
-[22803]</v>
+[87875]</v>
       </c>
       <c r="Q132">
         <f>[2]!obGet([2]!obCall("", P132, "getRealizations"))</f>
-        <v>0.77205042322591377</v>
+        <v>0.76687995715523838</v>
       </c>
       <c r="T132" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H132,  $K$95,"getFairValue", [2]!obMake("","int",H132) )</f>
         <v>couponBondPrice29 
-[22011]</v>
+[87707]</v>
       </c>
       <c r="U132">
         <f>[2]!obGet([2]!obCall("",  T132,"getRealizations"))</f>
-        <v>1.4880816237237826</v>
+        <v>0.84356795287076225</v>
       </c>
       <c r="Y132" t="str">
         <f>[2]!obCall("intensity"&amp;H132, $D$40, "getIntensity", [2]!obMake("", "int", H132))</f>
         <v>intensity29 
-[17311]</v>
+[87215]</v>
       </c>
       <c r="Z132">
         <f>[2]!obGet([2]!obCall("", Y132, "getRealizations"))</f>
-        <v>1.313281259892154E-2</v>
+        <v>1.3201675258819795E-2</v>
       </c>
       <c r="AC132" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H132, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H132))</f>
         <v>expOfIntegratedIntensity29 
-[17189]</v>
+[86620]</v>
       </c>
       <c r="AD132">
         <f>[2]!obGet([2]!obCall("", AC132, "getRealizations"))</f>
-        <v>1.0358863628315969</v>
+        <v>1.0424391122121204</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.25">
@@ -9347,47 +9347,47 @@
       <c r="L133" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H133, $K$95, "getUnderlying",  [2]!obMake("", "int", H133), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault30 
-[22068]</v>
+[86512]</v>
       </c>
       <c r="M133">
         <f>[2]!obGet([2]!obCall("",L133,"getRealizations"))</f>
-        <v>-1.4693511186839144E-2</v>
+        <v>-5.4666898704655124E-3</v>
       </c>
       <c r="P133" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H133, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I133), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice30 
-[22779]</v>
+[87806]</v>
       </c>
       <c r="Q133">
         <f>[2]!obGet([2]!obCall("", P133, "getRealizations"))</f>
-        <v>0.75957906222713389</v>
+        <v>0.71929287385902851</v>
       </c>
       <c r="T133" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H133,  $K$95,"getFairValue", [2]!obMake("","int",H133) )</f>
         <v>couponBondPrice30 
-[21934]</v>
+[87736]</v>
       </c>
       <c r="U133">
         <f>[2]!obGet([2]!obCall("",  T133,"getRealizations"))</f>
-        <v>1.4701091417606564</v>
+        <v>0.79122216124493139</v>
       </c>
       <c r="Y133" t="str">
         <f>[2]!obCall("intensity"&amp;H133, $D$40, "getIntensity", [2]!obMake("", "int", H133))</f>
         <v>intensity30 
-[17279]</v>
+[87227]</v>
       </c>
       <c r="Z133">
         <f>[2]!obGet([2]!obCall("", Y133, "getRealizations"))</f>
-        <v>1.2508276836836661E-2</v>
+        <v>1.4972814055355815E-2</v>
       </c>
       <c r="AC133" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H133, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H133))</f>
         <v>expOfIntegratedIntensity30 
-[17100]</v>
+[86598]</v>
       </c>
       <c r="AD133">
         <f>[2]!obGet([2]!obCall("", AC133, "getRealizations"))</f>
-        <v>1.0372476666710377</v>
+        <v>1.0438162152791404</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.25">
@@ -9407,47 +9407,47 @@
       <c r="L134" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H134, $K$95, "getUnderlying",  [2]!obMake("", "int", H134), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault31 
-[22282]</v>
+[87616]</v>
       </c>
       <c r="M134">
         <f>[2]!obGet([2]!obCall("",L134,"getRealizations"))</f>
-        <v>-2.073730615449328E-2</v>
+        <v>-8.9101357985459789E-4</v>
       </c>
       <c r="P134" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H134, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I134), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice31 
-[22476]</v>
+[88077]</v>
       </c>
       <c r="Q134">
         <f>[2]!obGet([2]!obCall("", P134, "getRealizations"))</f>
-        <v>0.7869267545356613</v>
+        <v>0.70086850697640257</v>
       </c>
       <c r="T134" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H134,  $K$95,"getFairValue", [2]!obMake("","int",H134) )</f>
         <v>couponBondPrice31 
-[21969]</v>
+[87546]</v>
       </c>
       <c r="U134">
         <f>[2]!obGet([2]!obCall("",  T134,"getRealizations"))</f>
-        <v>1.4103712527071175</v>
+        <v>0.77095535767404288</v>
       </c>
       <c r="Y134" t="str">
         <f>[2]!obCall("intensity"&amp;H134, $D$40, "getIntensity", [2]!obMake("", "int", H134))</f>
         <v>intensity31 
-[16955]</v>
+[86562]</v>
       </c>
       <c r="Z134">
         <f>[2]!obGet([2]!obCall("", Y134, "getRealizations"))</f>
-        <v>1.3263391352248247E-2</v>
+        <v>1.5290069734228407E-2</v>
       </c>
       <c r="AC134" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H134, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H134))</f>
         <v>expOfIntegratedIntensity31 
-[16971]</v>
+[86566]</v>
       </c>
       <c r="AD134">
         <f>[2]!obGet([2]!obCall("", AC134, "getRealizations"))</f>
-        <v>1.0385458965290049</v>
+        <v>1.0453802725137831</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
@@ -9467,47 +9467,47 @@
       <c r="L135" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H135, $K$95, "getUnderlying",  [2]!obMake("", "int", H135), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault32 
-[22104]</v>
+[86521]</v>
       </c>
       <c r="M135">
         <f>[2]!obGet([2]!obCall("",L135,"getRealizations"))</f>
-        <v>-5.3635528412369661E-3</v>
+        <v>-8.7364285490021728E-3</v>
       </c>
       <c r="P135" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H135, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I135), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice32 
-[22764]</v>
+[87809]</v>
       </c>
       <c r="Q135">
         <f>[2]!obGet([2]!obCall("", P135, "getRealizations"))</f>
-        <v>0.71998686594315486</v>
+        <v>0.73412273433784492</v>
       </c>
       <c r="T135" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H135,  $K$95,"getFairValue", [2]!obMake("","int",H135) )</f>
         <v>couponBondPrice32 
-[21940]</v>
+[86669]</v>
       </c>
       <c r="U135">
         <f>[2]!obGet([2]!obCall("",  T135,"getRealizations"))</f>
-        <v>1.3134662085641298</v>
+        <v>0.80753500777162945</v>
       </c>
       <c r="Y135" t="str">
         <f>[2]!obCall("intensity"&amp;H135, $D$40, "getIntensity", [2]!obMake("", "int", H135))</f>
         <v>intensity32 
-[17181]</v>
+[86618]</v>
       </c>
       <c r="Z135">
         <f>[2]!obGet([2]!obCall("", Y135, "getRealizations"))</f>
-        <v>1.4033479371038798E-2</v>
+        <v>1.4472389014599444E-2</v>
       </c>
       <c r="AC135" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H135, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H135))</f>
         <v>expOfIntegratedIntensity32 
-[17042]</v>
+[86397]</v>
       </c>
       <c r="AD135">
         <f>[2]!obGet([2]!obCall("", AC135, "getRealizations"))</f>
-        <v>1.0399242744915485</v>
+        <v>1.0469798888409547</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.25">
@@ -9527,47 +9527,47 @@
       <c r="L136" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H136, $K$95, "getUnderlying",  [2]!obMake("", "int", H136), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault33 
-[22187]</v>
+[86729]</v>
       </c>
       <c r="M136">
         <f>[2]!obGet([2]!obCall("",L136,"getRealizations"))</f>
-        <v>9.6758167078712116E-3</v>
+        <v>5.4814275146614338E-3</v>
       </c>
       <c r="P136" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H136, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I136), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice33 
-[22724]</v>
+[87890]</v>
       </c>
       <c r="Q136">
         <f>[2]!obGet([2]!obCall("", P136, "getRealizations"))</f>
-        <v>0.66147707027777469</v>
+        <v>0.67746302581196538</v>
       </c>
       <c r="T136" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H136,  $K$95,"getFairValue", [2]!obMake("","int",H136) )</f>
         <v>couponBondPrice33 
-[21959]</v>
+[87726]</v>
       </c>
       <c r="U136">
         <f>[2]!obGet([2]!obCall("",  T136,"getRealizations"))</f>
-        <v>1.2288787972597652</v>
+        <v>0.7452093283931619</v>
       </c>
       <c r="Y136" t="str">
         <f>[2]!obCall("intensity"&amp;H136, $D$40, "getIntensity", [2]!obMake("", "int", H136))</f>
         <v>intensity33 
-[17142]</v>
+[87278]</v>
       </c>
       <c r="Z136">
         <f>[2]!obGet([2]!obCall("", Y136, "getRealizations"))</f>
-        <v>1.3636123952730375E-2</v>
+        <v>1.6293225333011911E-2</v>
       </c>
       <c r="AC136" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H136, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H136))</f>
         <v>expOfIntegratedIntensity33 
-[17034]</v>
+[86395]</v>
       </c>
       <c r="AD136">
         <f>[2]!obGet([2]!obCall("", AC136, "getRealizations"))</f>
-        <v>1.0413846745619393</v>
+        <v>1.0484962158441826</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
@@ -9587,47 +9587,47 @@
       <c r="L137" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H137, $K$95, "getUnderlying",  [2]!obMake("", "int", H137), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault34 
-[22169]</v>
+[87475]</v>
       </c>
       <c r="M137">
         <f>[2]!obGet([2]!obCall("",L137,"getRealizations"))</f>
-        <v>2.9104963945902784E-2</v>
+        <v>-1.1628032091239212E-2</v>
       </c>
       <c r="P137" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H137, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I137), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice34 
-[22660]</v>
+[87902]</v>
       </c>
       <c r="Q137">
         <f>[2]!obGet([2]!obCall("", P137, "getRealizations"))</f>
-        <v>0.59422024708841192</v>
+        <v>0.74712432675335871</v>
       </c>
       <c r="T137" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H137,  $K$95,"getFairValue", [2]!obMake("","int",H137) )</f>
         <v>couponBondPrice34 
-[21953]</v>
+[87552]</v>
       </c>
       <c r="U137">
         <f>[2]!obGet([2]!obCall("",  T137,"getRealizations"))</f>
-        <v>1.1314608595689206</v>
+        <v>0.82183675942869461</v>
       </c>
       <c r="Y137" t="str">
         <f>[2]!obCall("intensity"&amp;H137, $D$40, "getIntensity", [2]!obMake("", "int", H137))</f>
         <v>intensity34 
-[17118]</v>
+[87287]</v>
       </c>
       <c r="Z137">
         <f>[2]!obGet([2]!obCall("", Y137, "getRealizations"))</f>
-        <v>1.3062323197461614E-2</v>
+        <v>1.4220797733034387E-2</v>
       </c>
       <c r="AC137" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H137, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H137))</f>
         <v>expOfIntegratedIntensity34 
-[17257]</v>
+[86298]</v>
       </c>
       <c r="AD137">
         <f>[2]!obGet([2]!obCall("", AC137, "getRealizations"))</f>
-        <v>1.0428056882481667</v>
+        <v>1.0502059468281135</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
@@ -9647,47 +9647,47 @@
       <c r="L138" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H138, $K$95, "getUnderlying",  [2]!obMake("", "int", H138), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault35 
-[22004]</v>
+[87533]</v>
       </c>
       <c r="M138">
         <f>[2]!obGet([2]!obCall("",L138,"getRealizations"))</f>
-        <v>3.7712350403290393E-2</v>
+        <v>-1.8232926795236117E-2</v>
       </c>
       <c r="P138" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H138, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I138), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice35 
-[22783]</v>
+[87749]</v>
       </c>
       <c r="Q138">
         <f>[2]!obGet([2]!obCall("", P138, "getRealizations"))</f>
-        <v>0.56846427114478681</v>
+        <v>0.77541947883412543</v>
       </c>
       <c r="T138" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H138,  $K$95,"getFairValue", [2]!obMake("","int",H138) )</f>
         <v>couponBondPrice35 
-[22326]</v>
+[87422]</v>
       </c>
       <c r="U138">
         <f>[2]!obGet([2]!obCall("",  T138,"getRealizations"))</f>
-        <v>1.0952214937040456</v>
+        <v>0.85296142671753794</v>
       </c>
       <c r="Y138" t="str">
         <f>[2]!obCall("intensity"&amp;H138, $D$40, "getIntensity", [2]!obMake("", "int", H138))</f>
         <v>intensity35 
-[17269]</v>
+[86640]</v>
       </c>
       <c r="Z138">
         <f>[2]!obGet([2]!obCall("", Y138, "getRealizations"))</f>
-        <v>1.3427863359295522E-2</v>
+        <v>1.3545797225393459E-2</v>
       </c>
       <c r="AC138" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H138, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H138))</f>
         <v>expOfIntegratedIntensity35 
-[17289]</v>
+[86306]</v>
       </c>
       <c r="AD138">
         <f>[2]!obGet([2]!obCall("", AC138, "getRealizations"))</f>
-        <v>1.0441687247687437</v>
+        <v>1.051700485887916</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.25">
@@ -9707,47 +9707,47 @@
       <c r="L139" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H139, $K$95, "getUnderlying",  [2]!obMake("", "int", H139), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault36 
-[22205]</v>
+[87463]</v>
       </c>
       <c r="M139">
         <f>[2]!obGet([2]!obCall("",L139,"getRealizations"))</f>
-        <v>4.3862659373267943E-2</v>
+        <v>-1.5641102334835597E-2</v>
       </c>
       <c r="P139" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H139, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I139), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice36 
-[22712]</v>
+[87845]</v>
       </c>
       <c r="Q139">
         <f>[2]!obGet([2]!obCall("", P139, "getRealizations"))</f>
-        <v>0.55229844345754853</v>
+        <v>0.76508872496030556</v>
       </c>
       <c r="T139" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H139,  $K$95,"getFairValue", [2]!obMake("","int",H139) )</f>
         <v>couponBondPrice36 
-[21965]</v>
+[86675]</v>
       </c>
       <c r="U139">
         <f>[2]!obGet([2]!obCall("",  T139,"getRealizations"))</f>
-        <v>1.0735196778070404</v>
+        <v>0.84159759745633611</v>
       </c>
       <c r="Y139" t="str">
         <f>[2]!obCall("intensity"&amp;H139, $D$40, "getIntensity", [2]!obMake("", "int", H139))</f>
         <v>intensity36 
-[16961]</v>
+[86376]</v>
       </c>
       <c r="Z139">
         <f>[2]!obGet([2]!obCall("", Y139, "getRealizations"))</f>
-        <v>1.4569241907896968E-2</v>
+        <v>1.3548237177535219E-2</v>
       </c>
       <c r="AC139" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H139, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H139))</f>
         <v>expOfIntegratedIntensity36 
-[17199]</v>
+[87257]</v>
       </c>
       <c r="AD139">
         <f>[2]!obGet([2]!obCall("", AC139, "getRealizations"))</f>
-        <v>1.0455717620435938</v>
+        <v>1.0531260633514661</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.25">
@@ -9767,47 +9767,47 @@
       <c r="L140" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H140, $K$95, "getUnderlying",  [2]!obMake("", "int", H140), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault37 
-[22089]</v>
+[87503]</v>
       </c>
       <c r="M140">
         <f>[2]!obGet([2]!obCall("",L140,"getRealizations"))</f>
-        <v>4.7461149099593786E-2</v>
+        <v>-1.7990613149612613E-3</v>
       </c>
       <c r="P140" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H140, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I140), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice37 
-[22637]</v>
+[87833]</v>
       </c>
       <c r="Q140">
         <f>[2]!obGet([2]!obCall("", P140, "getRealizations"))</f>
-        <v>0.54456646635073591</v>
+        <v>0.71066641445055623</v>
       </c>
       <c r="T140" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H140,  $K$95,"getFairValue", [2]!obMake("","int",H140) )</f>
         <v>couponBondPrice37 
-[22034]</v>
+[86691]</v>
       </c>
       <c r="U140">
         <f>[2]!obGet([2]!obCall("",  T140,"getRealizations"))</f>
-        <v>1.0644173871069915</v>
+        <v>0.78173305589561182</v>
       </c>
       <c r="Y140" t="str">
         <f>[2]!obCall("intensity"&amp;H140, $D$40, "getIntensity", [2]!obMake("", "int", H140))</f>
         <v>intensity37 
-[17058]</v>
+[86401]</v>
       </c>
       <c r="Z140">
         <f>[2]!obGet([2]!obCall("", Y140, "getRealizations"))</f>
-        <v>1.4712131555175263E-2</v>
+        <v>1.4280444098972021E-2</v>
       </c>
       <c r="AC140" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H140, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H140))</f>
         <v>expOfIntegratedIntensity37 
-[17110]</v>
+[87290]</v>
       </c>
       <c r="AD140">
         <f>[2]!obGet([2]!obCall("", AC140, "getRealizations"))</f>
-        <v>1.0470961910560248</v>
+        <v>1.0545538304878743</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.25">
@@ -9827,47 +9827,47 @@
       <c r="L141" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H141, $K$95, "getUnderlying",  [2]!obMake("", "int", H141), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault38 
-[22071]</v>
+[86701]</v>
       </c>
       <c r="M141">
         <f>[2]!obGet([2]!obCall("",L141,"getRealizations"))</f>
-        <v>3.9903411089823801E-2</v>
+        <v>-5.239277033395E-3</v>
       </c>
       <c r="P141" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H141, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I141), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice38 
-[22551]</v>
+[87954]</v>
       </c>
       <c r="Q141">
         <f>[2]!obGet([2]!obCall("", P141, "getRealizations"))</f>
-        <v>0.57018472856628122</v>
+        <v>0.72532426142109696</v>
       </c>
       <c r="T141" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H141,  $K$95,"getFairValue", [2]!obMake("","int",H141) )</f>
         <v>couponBondPrice38 
-[22028]</v>
+[87701]</v>
       </c>
       <c r="U141">
         <f>[2]!obGet([2]!obCall("",  T141,"getRealizations"))</f>
-        <v>1.1039771590389913</v>
+        <v>0.79785668756320671</v>
       </c>
       <c r="Y141" t="str">
         <f>[2]!obCall("intensity"&amp;H141, $D$40, "getIntensity", [2]!obMake("", "int", H141))</f>
         <v>intensity38 
-[17281]</v>
+[86304]</v>
       </c>
       <c r="Z141">
         <f>[2]!obGet([2]!obCall("", Y141, "getRealizations"))</f>
-        <v>1.5555282652302294E-2</v>
+        <v>1.4323759167829271E-2</v>
       </c>
       <c r="AC141" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H141, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H141))</f>
         <v>expOfIntegratedIntensity38 
-[17026]</v>
+[86393]</v>
       </c>
       <c r="AD141">
         <f>[2]!obGet([2]!obCall("", AC141, "getRealizations"))</f>
-        <v>1.0486378265065082</v>
+        <v>1.0560608559839981</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.25">
@@ -9887,47 +9887,47 @@
       <c r="L142" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H142, $K$95, "getUnderlying",  [2]!obMake("", "int", H142), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault39 
-[22235]</v>
+[86741]</v>
       </c>
       <c r="M142">
         <f>[2]!obGet([2]!obCall("",L142,"getRealizations"))</f>
-        <v>5.163527553133547E-2</v>
+        <v>3.1405900764986125E-3</v>
       </c>
       <c r="P142" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H142, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I142), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice39 
-[22700]</v>
+[87821]</v>
       </c>
       <c r="Q142">
         <f>[2]!obGet([2]!obCall("", P142, "getRealizations"))</f>
-        <v>0.53886936014891951</v>
+        <v>0.69536407163526015</v>
       </c>
       <c r="T142" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H142,  $K$95,"getFairValue", [2]!obMake("","int",H142) )</f>
         <v>couponBondPrice39 
-[22151]</v>
+[86532]</v>
       </c>
       <c r="U142">
         <f>[2]!obGet([2]!obCall("",  T142,"getRealizations"))</f>
-        <v>1.0609493988515282</v>
+        <v>0.7649004787987862</v>
       </c>
       <c r="Y142" t="str">
         <f>[2]!obCall("intensity"&amp;H142, $D$40, "getIntensity", [2]!obMake("", "int", H142))</f>
         <v>intensity39 
-[17191]</v>
+[87260]</v>
       </c>
       <c r="Z142">
         <f>[2]!obGet([2]!obCall("", Y142, "getRealizations"))</f>
-        <v>1.535090267843385E-2</v>
+        <v>1.4799191334507444E-2</v>
       </c>
       <c r="AC142" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H142, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H142))</f>
         <v>expOfIntegratedIntensity39 
-[17018]</v>
+[86391]</v>
       </c>
       <c r="AD142">
         <f>[2]!obGet([2]!obCall("", AC142, "getRealizations"))</f>
-        <v>1.0502702816214986</v>
+        <v>1.0575746159986459</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
@@ -9947,47 +9947,47 @@
       <c r="L143" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H143, $K$95, "getUnderlying",  [2]!obMake("", "int", H143), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault40 
-[22107]</v>
+[86710]</v>
       </c>
       <c r="M143">
         <f>[2]!obGet([2]!obCall("",L143,"getRealizations"))</f>
-        <v>5.1554791731112319E-2</v>
+        <v>1.001579615552583E-2</v>
       </c>
       <c r="P143" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H143, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I143), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice40 
-[22625]</v>
+[87780]</v>
       </c>
       <c r="Q143">
         <f>[2]!obGet([2]!obCall("", P143, "getRealizations"))</f>
-        <v>0.54240761909309443</v>
+        <v>0.67272780608024718</v>
       </c>
       <c r="T143" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H143,  $K$95,"getFairValue", [2]!obMake("","int",H143) )</f>
         <v>couponBondPrice40 
-[22040]</v>
+[86505]</v>
       </c>
       <c r="U143">
         <f>[2]!obGet([2]!obCall("",  T143,"getRealizations"))</f>
-        <v>1.0686197879353632</v>
+        <v>0.74000058668827196</v>
       </c>
       <c r="Y143" t="str">
         <f>[2]!obCall("intensity"&amp;H143, $D$40, "getIntensity", [2]!obMake("", "int", H143))</f>
         <v>intensity40 
-[17102]</v>
+[87293]</v>
       </c>
       <c r="Z143">
         <f>[2]!obGet([2]!obCall("", Y143, "getRealizations"))</f>
-        <v>1.507353036080656E-2</v>
+        <v>1.5841989889766792E-2</v>
       </c>
       <c r="AC143" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H143, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H143))</f>
         <v>expOfIntegratedIntensity40 
-[16989]</v>
+[86570]</v>
       </c>
       <c r="AD143">
         <f>[2]!obGet([2]!obCall("", AC143, "getRealizations"))</f>
-        <v>1.0518837794249576</v>
+        <v>1.0591408996085878</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.25">
@@ -10007,47 +10007,47 @@
       <c r="L144" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H144, $K$95, "getUnderlying",  [2]!obMake("", "int", H144), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault41 
-[22190]</v>
+[87646]</v>
       </c>
       <c r="M144">
         <f>[2]!obGet([2]!obCall("",L144,"getRealizations"))</f>
-        <v>5.0174617378934243E-2</v>
+        <v>1.2392081557389571E-2</v>
       </c>
       <c r="P144" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H144, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I144), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice41 
-[22456]</v>
+[88054]</v>
       </c>
       <c r="Q144">
         <f>[2]!obGet([2]!obCall("", P144, "getRealizations"))</f>
-        <v>0.55002919702162245</v>
+        <v>0.66715089603629663</v>
       </c>
       <c r="T144" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H144,  $K$95,"getFairValue", [2]!obMake("","int",H144) )</f>
         <v>couponBondPrice41 
-[21993]</v>
+[87713]</v>
       </c>
       <c r="U144">
         <f>[2]!obGet([2]!obCall("",  T144,"getRealizations"))</f>
-        <v>0.98143253846130807</v>
+        <v>0.73386598563992633</v>
       </c>
       <c r="Y144" t="str">
         <f>[2]!obCall("intensity"&amp;H144, $D$40, "getIntensity", [2]!obMake("", "int", H144))</f>
         <v>intensity41 
-[16957]</v>
+[87347]</v>
       </c>
       <c r="Z144">
         <f>[2]!obGet([2]!obCall("", Y144, "getRealizations"))</f>
-        <v>1.4898544964026438E-2</v>
+        <v>1.7572443396282538E-2</v>
       </c>
       <c r="AC144" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H144, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H144))</f>
         <v>expOfIntegratedIntensity41 
-[16987]</v>
+[86382]</v>
       </c>
       <c r="AD144">
         <f>[2]!obGet([2]!obCall("", AC144, "getRealizations"))</f>
-        <v>1.05347053523363</v>
+        <v>1.0608201193088143</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.25">
@@ -10067,47 +10067,47 @@
       <c r="L145" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H145, $K$95, "getUnderlying",  [2]!obMake("", "int", H145), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault42 
-[22172]</v>
+[86538]</v>
       </c>
       <c r="M145">
         <f>[2]!obGet([2]!obCall("",L145,"getRealizations"))</f>
-        <v>7.1382755443060969E-2</v>
+        <v>1.3402715393715677E-2</v>
       </c>
       <c r="P145" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H145, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I145), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice42 
-[22539]</v>
+[87992]</v>
       </c>
       <c r="Q145">
         <f>[2]!obGet([2]!obCall("", P145, "getRealizations"))</f>
-        <v>0.49773118731094235</v>
+        <v>0.6664558630502333</v>
       </c>
       <c r="T145" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H145,  $K$95,"getFairValue", [2]!obMake("","int",H145) )</f>
         <v>couponBondPrice42 
-[21915]</v>
+[86662]</v>
       </c>
       <c r="U145">
         <f>[2]!obGet([2]!obCall("",  T145,"getRealizations"))</f>
-        <v>0.90842985484617211</v>
+        <v>0.73310144935525667</v>
       </c>
       <c r="Y145" t="str">
         <f>[2]!obCall("intensity"&amp;H145, $D$40, "getIntensity", [2]!obMake("", "int", H145))</f>
         <v>intensity42 
-[17044]</v>
+[86584]</v>
       </c>
       <c r="Z145">
         <f>[2]!obGet([2]!obCall("", Y145, "getRealizations"))</f>
-        <v>1.4288994526642411E-2</v>
+        <v>1.8068217553540832E-2</v>
       </c>
       <c r="AC145" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H145, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H145))</f>
         <v>expOfIntegratedIntensity42 
-[17259]</v>
+[86451]</v>
       </c>
       <c r="AD145">
         <f>[2]!obGet([2]!obCall("", AC145, "getRealizations"))</f>
-        <v>1.0550412228048123</v>
+        <v>1.0626858782759179</v>
       </c>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.25">
@@ -10127,47 +10127,47 @@
       <c r="L146" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H146, $K$95, "getUnderlying",  [2]!obMake("", "int", H146), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault43 
-[22119]</v>
+[86713]</v>
       </c>
       <c r="M146">
         <f>[2]!obGet([2]!obCall("",L146,"getRealizations"))</f>
-        <v>6.3185804263695231E-2</v>
+        <v>2.9216695149454033E-2</v>
       </c>
       <c r="P146" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H146, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I146), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice43 
-[22613]</v>
+[87912]</v>
       </c>
       <c r="Q146">
         <f>[2]!obGet([2]!obCall("", P146, "getRealizations"))</f>
-        <v>0.52282074308959403</v>
+        <v>0.6187589354753974</v>
       </c>
       <c r="T146" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H146,  $K$95,"getFairValue", [2]!obMake("","int",H146) )</f>
         <v>couponBondPrice43 
-[21975]</v>
+[87720]</v>
       </c>
       <c r="U146">
         <f>[2]!obGet([2]!obCall("",  T146,"getRealizations"))</f>
-        <v>0.94662587196446535</v>
+        <v>0.68063482902293715</v>
       </c>
       <c r="Y146" t="str">
         <f>[2]!obCall("intensity"&amp;H146, $D$40, "getIntensity", [2]!obMake("", "int", H146))</f>
         <v>intensity43 
-[17271]</v>
+[87230]</v>
       </c>
       <c r="Z146">
         <f>[2]!obGet([2]!obCall("", Y146, "getRealizations"))</f>
-        <v>1.2408722899059338E-2</v>
+        <v>2.0619060079000592E-2</v>
       </c>
       <c r="AC146" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H146, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H146))</f>
         <v>expOfIntegratedIntensity43 
-[17223]</v>
+[87248]</v>
       </c>
       <c r="AD146">
         <f>[2]!obGet([2]!obCall("", AC146, "getRealizations"))</f>
-        <v>1.0565498482109381</v>
+        <v>1.0646076979098249</v>
       </c>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.25">
@@ -10187,47 +10187,47 @@
       <c r="L147" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H147, $K$95, "getUnderlying",  [2]!obMake("", "int", H147), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault44 
-[22208]</v>
+[86547]</v>
       </c>
       <c r="M147">
         <f>[2]!obGet([2]!obCall("",L147,"getRealizations"))</f>
-        <v>5.4169993574833979E-2</v>
+        <v>3.6192046175950038E-2</v>
       </c>
       <c r="P147" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H147, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I147), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice44 
-[22468]</v>
+[87998]</v>
       </c>
       <c r="Q147">
         <f>[2]!obGet([2]!obCall("", P147, "getRealizations"))</f>
-        <v>0.55073632329309807</v>
+        <v>0.60128335351231799</v>
       </c>
       <c r="T147" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H147,  $K$95,"getFairValue", [2]!obMake("","int",H147) )</f>
         <v>couponBondPrice44 
-[21921]</v>
+[86475]</v>
       </c>
       <c r="U147">
         <f>[2]!obGet([2]!obCall("",  T147,"getRealizations"))</f>
-        <v>0.98843379367117545</v>
+        <v>0.66141168886354973</v>
       </c>
       <c r="Y147" t="str">
         <f>[2]!obCall("intensity"&amp;H147, $D$40, "getIntensity", [2]!obMake("", "int", H147))</f>
         <v>intensity44 
-[17183]</v>
+[87263]</v>
       </c>
       <c r="Z147">
         <f>[2]!obGet([2]!obCall("", Y147, "getRealizations"))</f>
-        <v>1.3647960645748044E-2</v>
+        <v>2.2070969491683065E-2</v>
       </c>
       <c r="AC147" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H147, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H147))</f>
         <v>expOfIntegratedIntensity44 
-[17120]</v>
+[86265]</v>
       </c>
       <c r="AD147">
         <f>[2]!obGet([2]!obCall("", AC147, "getRealizations"))</f>
-        <v>1.0578617053957726</v>
+        <v>1.0668050835410117</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
@@ -10247,47 +10247,47 @@
       <c r="L148" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H148, $K$95, "getUnderlying",  [2]!obMake("", "int", H148), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault45 
-[22092]</v>
+[86518]</v>
       </c>
       <c r="M148">
         <f>[2]!obGet([2]!obCall("",L148,"getRealizations"))</f>
-        <v>5.946946117644334E-2</v>
+        <v>4.6379142368193141E-2</v>
       </c>
       <c r="P148" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H148, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I148), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice45 
-[22744]</v>
+[87857]</v>
       </c>
       <c r="Q148">
         <f>[2]!obGet([2]!obCall("", P148, "getRealizations"))</f>
-        <v>0.54085118243293662</v>
+        <v>0.57598966249107264</v>
       </c>
       <c r="T148" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H148,  $K$95,"getFairValue", [2]!obMake("","int",H148) )</f>
         <v>couponBondPrice45 
-[21938]</v>
+[86479]</v>
       </c>
       <c r="U148">
         <f>[2]!obGet([2]!obCall("",  T148,"getRealizations"))</f>
-        <v>0.97667749257259484</v>
+        <v>0.63358862874017996</v>
       </c>
       <c r="Y148" t="str">
         <f>[2]!obCall("intensity"&amp;H148, $D$40, "getIntensity", [2]!obMake("", "int", H148))</f>
         <v>intensity45 
-[17080]</v>
+[86255]</v>
       </c>
       <c r="Z148">
         <f>[2]!obGet([2]!obCall("", Y148, "getRealizations"))</f>
-        <v>1.366604847961805E-2</v>
+        <v>2.3428556616798393E-2</v>
       </c>
       <c r="AC148" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H148, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H148))</f>
         <v>expOfIntegratedIntensity45 
-[17036]</v>
+[86582]</v>
       </c>
       <c r="AD148">
         <f>[2]!obGet([2]!obCall("", AC148, "getRealizations"))</f>
-        <v>1.0593064565592545</v>
+        <v>1.0691622260504152</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
@@ -10307,47 +10307,47 @@
       <c r="L149" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H149, $K$95, "getUnderlying",  [2]!obMake("", "int", H149), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault46 
-[22074]</v>
+[87685]</v>
       </c>
       <c r="M149">
         <f>[2]!obGet([2]!obCall("",L149,"getRealizations"))</f>
-        <v>6.5214605953217805E-2</v>
+        <v>4.6806868754161922E-2</v>
       </c>
       <c r="P149" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H149, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I149), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice46 
-[22692]</v>
+[87896]</v>
       </c>
       <c r="Q149">
         <f>[2]!obGet([2]!obCall("", P149, "getRealizations"))</f>
-        <v>0.53087646547024814</v>
+        <v>0.57919679687185299</v>
       </c>
       <c r="T149" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H149,  $K$95,"getFairValue", [2]!obMake("","int",H149) )</f>
         <v>couponBondPrice46 
-[22009]</v>
+[86685]</v>
       </c>
       <c r="U149">
         <f>[2]!obGet([2]!obCall("",  T149,"getRealizations"))</f>
-        <v>0.96516545972397705</v>
+        <v>0.63711647655903825</v>
       </c>
       <c r="Y149" t="str">
         <f>[2]!obCall("intensity"&amp;H149, $D$40, "getIntensity", [2]!obMake("", "int", H149))</f>
         <v>intensity46 
-[17283]</v>
+[86457]</v>
       </c>
       <c r="Z149">
         <f>[2]!obGet([2]!obCall("", Y149, "getRealizations"))</f>
-        <v>1.3907929530950802E-2</v>
+        <v>2.2984385781599687E-2</v>
       </c>
       <c r="AC149" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H149, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H149))</f>
         <v>expOfIntegratedIntensity46 
-[16985]</v>
+[86231]</v>
       </c>
       <c r="AD149">
         <f>[2]!obGet([2]!obCall("", AC149, "getRealizations"))</f>
-        <v>1.0607550995340636</v>
+        <v>1.0716700554189718</v>
       </c>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.25">
@@ -10367,47 +10367,47 @@
       <c r="L150" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H150, $K$95, "getUnderlying",  [2]!obMake("", "int", H150), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault47 
-[22395]</v>
+[86928]</v>
       </c>
       <c r="M150">
         <f>[2]!obGet([2]!obCall("",L150,"getRealizations"))</f>
-        <v>7.6977619672446582E-2</v>
+        <v>2.0753957926520045E-2</v>
       </c>
       <c r="P150" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H150, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I150), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice47 
-[22480]</v>
+[88105]</v>
       </c>
       <c r="Q150">
         <f>[2]!obGet([2]!obCall("", P150, "getRealizations"))</f>
-        <v>0.50716752645137186</v>
+        <v>0.6589265387325941</v>
       </c>
       <c r="T150" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H150,  $K$95,"getFairValue", [2]!obMake("","int",H150) )</f>
         <v>couponBondPrice47 
-[22044]</v>
+[87695]</v>
       </c>
       <c r="U150">
         <f>[2]!obGet([2]!obCall("",  T150,"getRealizations"))</f>
-        <v>0.93464699117233674</v>
+        <v>0.72481919260585348</v>
       </c>
       <c r="Y150" t="str">
         <f>[2]!obCall("intensity"&amp;H150, $D$40, "getIntensity", [2]!obMake("", "int", H150))</f>
         <v>intensity47 
-[17112]</v>
+[86263]</v>
       </c>
       <c r="Z150">
         <f>[2]!obGet([2]!obCall("", Y150, "getRealizations"))</f>
-        <v>1.4667753612765781E-2</v>
+        <v>1.9460419397509119E-2</v>
       </c>
       <c r="AC150" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H150, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H150))</f>
         <v>expOfIntegratedIntensity47 
-[17301]</v>
+[86648]</v>
       </c>
       <c r="AD150">
         <f>[2]!obGet([2]!obCall("", AC150, "getRealizations"))</f>
-        <v>1.0622314166391977</v>
+        <v>1.0741360561073439</v>
       </c>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.25">
@@ -10427,47 +10427,47 @@
       <c r="L151" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H151, $K$95, "getUnderlying",  [2]!obMake("", "int", H151), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault48 
-[22110]</v>
+[87673]</v>
       </c>
       <c r="M151">
         <f>[2]!obGet([2]!obCall("",L151,"getRealizations"))</f>
-        <v>7.9301815356830757E-2</v>
+        <v>2.103277199713148E-2</v>
       </c>
       <c r="P151" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H151, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I151), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice48 
-[22775]</v>
+[87848]</v>
       </c>
       <c r="Q151">
         <f>[2]!obGet([2]!obCall("", P151, "getRealizations"))</f>
-        <v>0.50686840367283093</v>
+        <v>0.6618662607876119</v>
       </c>
       <c r="T151" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H151,  $K$95,"getFairValue", [2]!obMake("","int",H151) )</f>
         <v>couponBondPrice48 
-[22015]</v>
+[86498]</v>
       </c>
       <c r="U151">
         <f>[2]!obGet([2]!obCall("",  T151,"getRealizations"))</f>
-        <v>0.9372141852416731</v>
+        <v>0.72805288686637315</v>
       </c>
       <c r="Y151" t="str">
         <f>[2]!obCall("intensity"&amp;H151, $D$40, "getIntensity", [2]!obMake("", "int", H151))</f>
         <v>intensity48 
-[17028]</v>
+[86580]</v>
       </c>
       <c r="Z151">
         <f>[2]!obGet([2]!obCall("", Y151, "getRealizations"))</f>
-        <v>1.6348653116895782E-2</v>
+        <v>1.9914573309421466E-2</v>
       </c>
       <c r="AC151" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H151, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H151))</f>
         <v>expOfIntegratedIntensity48 
-[17201]</v>
+[86284]</v>
       </c>
       <c r="AD151">
         <f>[2]!obGet([2]!obCall("", AC151, "getRealizations"))</f>
-        <v>1.0637906147262246</v>
+        <v>1.0762284051607083</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.25">
@@ -10487,47 +10487,47 @@
       <c r="L152" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H152, $K$95, "getUnderlying",  [2]!obMake("", "int", H152), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault49 
-[22193]</v>
+[87467]</v>
       </c>
       <c r="M152">
         <f>[2]!obGet([2]!obCall("",L152,"getRealizations"))</f>
-        <v>9.1645229007018575E-2</v>
+        <v>3.1401845751891339E-2</v>
       </c>
       <c r="P152" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H152, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I152), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice49 
-[22720]</v>
+[87762]</v>
       </c>
       <c r="Q152">
         <f>[2]!obGet([2]!obCall("", P152, "getRealizations"))</f>
-        <v>0.48443870406632455</v>
+        <v>0.63535680777136039</v>
       </c>
       <c r="T152" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H152,  $K$95,"getFairValue", [2]!obMake("","int",H152) )</f>
         <v>couponBondPrice49 
-[21961]</v>
+[87549]</v>
       </c>
       <c r="U152">
         <f>[2]!obGet([2]!obCall("",  T152,"getRealizations"))</f>
-        <v>0.90919276111181246</v>
+        <v>0.69889248854849639</v>
       </c>
       <c r="Y152" t="str">
         <f>[2]!obCall("intensity"&amp;H152, $D$40, "getIntensity", [2]!obMake("", "int", H152))</f>
         <v>intensity49 
-[17313]</v>
+[86312]</v>
       </c>
       <c r="Z152">
         <f>[2]!obGet([2]!obCall("", Y152, "getRealizations"))</f>
-        <v>1.5179523029913137E-2</v>
+        <v>2.1423515591152579E-2</v>
       </c>
       <c r="AC152" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H152, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H152))</f>
         <v>expOfIntegratedIntensity49 
-[17193]</v>
+[86282]</v>
       </c>
       <c r="AD152">
         <f>[2]!obGet([2]!obCall("", AC152, "getRealizations"))</f>
-        <v>1.0655311915177688</v>
+        <v>1.0783738036336554</v>
       </c>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.25">
@@ -10547,47 +10547,47 @@
       <c r="L153" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H153, $K$95, "getUnderlying",  [2]!obMake("", "int", H153), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault50 
-[22175]</v>
+[86726]</v>
       </c>
       <c r="M153">
         <f>[2]!obGet([2]!obCall("",L153,"getRealizations"))</f>
-        <v>0.10025504395582896</v>
+        <v>2.6868186814029697E-2</v>
       </c>
       <c r="P153" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H153, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I153), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice50 
-[22516]</v>
+[87951]</v>
       </c>
       <c r="Q153">
         <f>[2]!obGet([2]!obCall("", P153, "getRealizations"))</f>
-        <v>0.4716514196099964</v>
+        <v>0.65255961670695106</v>
       </c>
       <c r="T153" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H153,  $K$95,"getFairValue", [2]!obMake("","int",H153) )</f>
         <v>couponBondPrice50 
-[21955]</v>
+[86483]</v>
       </c>
       <c r="U153">
         <f>[2]!obGet([2]!obCall("",  T153,"getRealizations"))</f>
-        <v>0.89499083644852251</v>
+        <v>0.7178155783776462</v>
       </c>
       <c r="Y153" t="str">
         <f>[2]!obCall("intensity"&amp;H153, $D$40, "getIntensity", [2]!obMake("", "int", H153))</f>
         <v>intensity50 
-[16951]</v>
+[86223]</v>
       </c>
       <c r="Z153">
         <f>[2]!obGet([2]!obCall("", Y153, "getRealizations"))</f>
-        <v>1.4269136688709489E-2</v>
+        <v>2.1244839854125425E-2</v>
       </c>
       <c r="AC153" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H153, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H153))</f>
         <v>expOfIntegratedIntensity50 
-[17261]</v>
+[86638]</v>
       </c>
       <c r="AD153">
         <f>[2]!obGet([2]!obCall("", AC153, "getRealizations"))</f>
-        <v>1.0671498452526189</v>
+        <v>1.0806865358914017</v>
       </c>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.25">
@@ -10607,47 +10607,47 @@
       <c r="L154" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H154, $K$95, "getUnderlying",  [2]!obMake("", "int", H154), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault51 
-[22267]</v>
+[86750]</v>
       </c>
       <c r="M154">
         <f>[2]!obGet([2]!obCall("",L154,"getRealizations"))</f>
-        <v>8.7027100511205824E-2</v>
+        <v>1.8368934661942934E-2</v>
       </c>
       <c r="P154" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H154, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I154), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice51 
-[22760]</v>
+[87795]</v>
       </c>
       <c r="Q154">
         <f>[2]!obGet([2]!obCall("", P154, "getRealizations"))</f>
-        <v>0.50601869183440007</v>
+        <v>0.68194960764027002</v>
       </c>
       <c r="T154" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H154,  $K$95,"getFairValue", [2]!obMake("","int",H154) )</f>
         <v>couponBondPrice51 
-[22290]</v>
+[87612]</v>
       </c>
       <c r="U154">
         <f>[2]!obGet([2]!obCall("",  T154,"getRealizations"))</f>
-        <v>0.84465025335937338</v>
+        <v>0.750144568404297</v>
       </c>
       <c r="Y154" t="str">
         <f>[2]!obCall("intensity"&amp;H154, $D$40, "getIntensity", [2]!obMake("", "int", H154))</f>
         <v>intensity51 
-[17273]</v>
+[86302]</v>
       </c>
       <c r="Z154">
         <f>[2]!obGet([2]!obCall("", Y154, "getRealizations"))</f>
-        <v>1.3819830851728348E-2</v>
+        <v>2.0751308548856349E-2</v>
       </c>
       <c r="AC154" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H154, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H154))</f>
         <v>expOfIntegratedIntensity51 
-[17050]</v>
+[86399]</v>
       </c>
       <c r="AD154">
         <f>[2]!obGet([2]!obCall("", AC154, "getRealizations"))</f>
-        <v>1.0686736628730877</v>
+        <v>1.0829848776608444</v>
       </c>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
@@ -10667,47 +10667,47 @@
       <c r="L155" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H155, $K$95, "getUnderlying",  [2]!obMake("", "int", H155), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault52 
-[22211]</v>
+[86735]</v>
       </c>
       <c r="M155">
         <f>[2]!obGet([2]!obCall("",L155,"getRealizations"))</f>
-        <v>9.0364935702671997E-2</v>
+        <v>3.3292096198347942E-2</v>
       </c>
       <c r="P155" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H155, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I155), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice52 
-[22708]</v>
+[87893]</v>
       </c>
       <c r="Q155">
         <f>[2]!obGet([2]!obCall("", P155, "getRealizations"))</f>
-        <v>0.50482614488316191</v>
+        <v>0.64404537342054879</v>
       </c>
       <c r="T155" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H155,  $K$95,"getFairValue", [2]!obMake("","int",H155) )</f>
         <v>couponBondPrice52 
-[21967]</v>
+[87723]</v>
       </c>
       <c r="U155">
         <f>[2]!obGet([2]!obCall("",  T155,"getRealizations"))</f>
-        <v>0.84531621091629872</v>
+        <v>0.70844991076260366</v>
       </c>
       <c r="Y155" t="str">
         <f>[2]!obCall("intensity"&amp;H155, $D$40, "getIntensity", [2]!obMake("", "int", H155))</f>
         <v>intensity52 
-[17104]</v>
+[86261]</v>
       </c>
       <c r="Z155">
         <f>[2]!obGet([2]!obCall("", Y155, "getRealizations"))</f>
-        <v>1.536535111113636E-2</v>
+        <v>2.1826859773877296E-2</v>
       </c>
       <c r="AC155" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H155, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H155))</f>
         <v>expOfIntegratedIntensity52 
-[17046]</v>
+[87314]</v>
       </c>
       <c r="AD155">
         <f>[2]!obGet([2]!obCall("", AC155, "getRealizations"))</f>
-        <v>1.0701515727867803</v>
+        <v>1.0852345463670381</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
@@ -10727,47 +10727,47 @@
       <c r="L156" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H156, $K$95, "getUnderlying",  [2]!obMake("", "int", H156), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault53 
-[22095]</v>
+[86707]</v>
       </c>
       <c r="M156">
         <f>[2]!obGet([2]!obCall("",L156,"getRealizations"))</f>
-        <v>9.608949171095317E-2</v>
+        <v>3.9830063581622319E-2</v>
       </c>
       <c r="P156" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H156, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I156), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice53 
-[22633]</v>
+[87789]</v>
       </c>
       <c r="Q156">
         <f>[2]!obGet([2]!obCall("", P156, "getRealizations"))</f>
-        <v>0.49892499167914545</v>
+        <v>0.63150322700855643</v>
       </c>
       <c r="T156" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H156,  $K$95,"getFairValue", [2]!obMake("","int",H156) )</f>
         <v>couponBondPrice53 
-[22036]</v>
+[87698]</v>
       </c>
       <c r="U156">
         <f>[2]!obGet([2]!obCall("",  T156,"getRealizations"))</f>
-        <v>0.83969954890756093</v>
+        <v>0.69465354970941207</v>
       </c>
       <c r="Y156" t="str">
         <f>[2]!obCall("intensity"&amp;H156, $D$40, "getIntensity", [2]!obMake("", "int", H156))</f>
         <v>intensity53 
-[17134]</v>
+[87281]</v>
       </c>
       <c r="Z156">
         <f>[2]!obGet([2]!obCall("", Y156, "getRealizations"))</f>
-        <v>1.5518212594026786E-2</v>
+        <v>2.2226573300347077E-2</v>
       </c>
       <c r="AC156" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H156, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H156))</f>
         <v>expOfIntegratedIntensity53 
-[16965]</v>
+[87344]</v>
       </c>
       <c r="AD156">
         <f>[2]!obGet([2]!obCall("", AC156, "getRealizations"))</f>
-        <v>1.071797162181761</v>
+        <v>1.0876058595681717</v>
       </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.25">
@@ -10787,47 +10787,47 @@
       <c r="L157" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H157, $K$95, "getUnderlying",  [2]!obMake("", "int", H157), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault54 
-[22077]</v>
+[87507]</v>
       </c>
       <c r="M157">
         <f>[2]!obGet([2]!obCall("",L157,"getRealizations"))</f>
-        <v>9.4111883483064221E-2</v>
+        <v>3.8056929299018931E-2</v>
       </c>
       <c r="P157" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H157, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I157), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice54 
-[22732]</v>
+[87815]</v>
       </c>
       <c r="Q157">
         <f>[2]!obGet([2]!obCall("", P157, "getRealizations"))</f>
-        <v>0.5094485943040491</v>
+        <v>0.64141530134133939</v>
       </c>
       <c r="T157" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H157,  $K$95,"getFairValue", [2]!obMake("","int",H157) )</f>
         <v>couponBondPrice54 
-[22030]</v>
+[87523]</v>
       </c>
       <c r="U157">
         <f>[2]!obGet([2]!obCall("",  T157,"getRealizations"))</f>
-        <v>0.85655536644236208</v>
+        <v>0.70555683147547332</v>
       </c>
       <c r="Y157" t="str">
         <f>[2]!obCall("intensity"&amp;H157, $D$40, "getIntensity", [2]!obMake("", "int", H157))</f>
         <v>intensity54 
-[17285]</v>
+[86644]</v>
       </c>
       <c r="Z157">
         <f>[2]!obGet([2]!obCall("", Y157, "getRealizations"))</f>
-        <v>1.3392343533405376E-2</v>
+        <v>2.1814500038491145E-2</v>
       </c>
       <c r="AC157" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H157, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H157))</f>
         <v>expOfIntegratedIntensity54 
-[17185]</v>
+[86280]</v>
       </c>
       <c r="AD157">
         <f>[2]!obGet([2]!obCall("", AC157, "getRealizations"))</f>
-        <v>1.0734616909953658</v>
+        <v>1.0900259231939071</v>
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
@@ -10847,47 +10847,47 @@
       <c r="L158" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H158, $K$95, "getUnderlying",  [2]!obMake("", "int", H158), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault55 
-[22137]</v>
+[87487]</v>
       </c>
       <c r="M158">
         <f>[2]!obGet([2]!obCall("",L158,"getRealizations"))</f>
-        <v>9.267562555539148E-2</v>
+        <v>4.4522228333634596E-2</v>
       </c>
       <c r="P158" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H158, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I158), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice55 
-[22696]</v>
+[87792]</v>
       </c>
       <c r="Q158">
         <f>[2]!obGet([2]!obCall("", P158, "getRealizations"))</f>
-        <v>0.5189365762758511</v>
+        <v>0.6300657903293313</v>
       </c>
       <c r="T158" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H158,  $K$95,"getFairValue", [2]!obMake("","int",H158) )</f>
         <v>couponBondPrice55 
-[22021]</v>
+[87526]</v>
       </c>
       <c r="U158">
         <f>[2]!obGet([2]!obCall("",  T158,"getRealizations"))</f>
-        <v>0.87200074842590558</v>
+        <v>0.69307236936226446</v>
       </c>
       <c r="Y158" t="str">
         <f>[2]!obCall("intensity"&amp;H158, $D$40, "getIntensity", [2]!obMake("", "int", H158))</f>
         <v>intensity55 
-[17038]</v>
+[87317]</v>
       </c>
       <c r="Z158">
         <f>[2]!obGet([2]!obCall("", Y158, "getRealizations"))</f>
-        <v>1.3926893196661381E-2</v>
+        <v>2.1712979591052516E-2</v>
       </c>
       <c r="AC158" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H158, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H158))</f>
         <v>expOfIntegratedIntensity55 
-[17152]</v>
+[86273]</v>
       </c>
       <c r="AD158">
         <f>[2]!obGet([2]!obCall("", AC158, "getRealizations"))</f>
-        <v>1.0749002708517101</v>
+        <v>1.0924063557015207</v>
       </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
@@ -10907,47 +10907,47 @@
       <c r="L159" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H159, $K$95, "getUnderlying",  [2]!obMake("", "int", H159), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault56 
-[22113]</v>
+[87495]</v>
       </c>
       <c r="M159">
         <f>[2]!obGet([2]!obCall("",L159,"getRealizations"))</f>
-        <v>8.4153874177290117E-2</v>
+        <v>5.572313188020727E-2</v>
       </c>
       <c r="P159" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H159, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I159), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice56 
-[22621]</v>
+[87836]</v>
       </c>
       <c r="Q159">
         <f>[2]!obGet([2]!obCall("", P159, "getRealizations"))</f>
-        <v>0.54355428300792274</v>
+        <v>0.60814924560372119</v>
       </c>
       <c r="T159" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H159,  $K$95,"getFairValue", [2]!obMake("","int",H159) )</f>
         <v>couponBondPrice56 
-[22042]</v>
+[86693]</v>
       </c>
       <c r="U159">
         <f>[2]!obGet([2]!obCall("",  T159,"getRealizations"))</f>
-        <v>0.90767324225479129</v>
+        <v>0.66896417016409326</v>
       </c>
       <c r="Y159" t="str">
         <f>[2]!obCall("intensity"&amp;H159, $D$40, "getIntensity", [2]!obMake("", "int", H159))</f>
         <v>intensity56 
-[16949]</v>
+[87350]</v>
       </c>
       <c r="Z159">
         <f>[2]!obGet([2]!obCall("", Y159, "getRealizations"))</f>
-        <v>1.4940568036831142E-2</v>
+        <v>2.3228658992771965E-2</v>
       </c>
       <c r="AC159" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H159, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H159))</f>
         <v>expOfIntegratedIntensity56 
-[17122]</v>
+[86417]</v>
       </c>
       <c r="AD159">
         <f>[2]!obGet([2]!obCall("", AC159, "getRealizations"))</f>
-        <v>1.0763983158921635</v>
+        <v>1.0947808723508512</v>
       </c>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
@@ -10967,47 +10967,47 @@
       <c r="L160" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H160, $K$95, "getUnderlying",  [2]!obMake("", "int", H160), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault57 
-[22196]</v>
+[86544]</v>
       </c>
       <c r="M160">
         <f>[2]!obGet([2]!obCall("",L160,"getRealizations"))</f>
-        <v>7.2317611035360524E-2</v>
+        <v>5.5998002048922683E-2</v>
       </c>
       <c r="P160" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H160, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I160), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice57 
-[22460]</v>
+[88030]</v>
       </c>
       <c r="Q160">
         <f>[2]!obGet([2]!obCall("", P160, "getRealizations"))</f>
-        <v>0.57594112590511226</v>
+        <v>0.61348069982570297</v>
       </c>
       <c r="T160" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H160,  $K$95,"getFairValue", [2]!obMake("","int",H160) )</f>
         <v>couponBondPrice57 
-[21919]</v>
+[87564]</v>
       </c>
       <c r="U160">
         <f>[2]!obGet([2]!obCall("",  T160,"getRealizations"))</f>
-        <v>0.95331048654703543</v>
+        <v>0.67482876980827322</v>
       </c>
       <c r="Y160" t="str">
         <f>[2]!obCall("intensity"&amp;H160, $D$40, "getIntensity", [2]!obMake("", "int", H160))</f>
         <v>intensity57 
-[17126]</v>
+[87284]</v>
       </c>
       <c r="Z160">
         <f>[2]!obGet([2]!obCall("", Y160, "getRealizations"))</f>
-        <v>1.3868918986831144E-2</v>
+        <v>2.3612632876039801E-2</v>
       </c>
       <c r="AC160" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H160, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H160))</f>
         <v>expOfIntegratedIntensity57 
-[17114]</v>
+[86415]</v>
       </c>
       <c r="AD160">
         <f>[2]!obGet([2]!obCall("", AC160, "getRealizations"))</f>
-        <v>1.07800771808927</v>
+        <v>1.0973268573525041</v>
       </c>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.25">
@@ -11027,47 +11027,47 @@
       <c r="L161" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H161, $K$95, "getUnderlying",  [2]!obMake("", "int", H161), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault58 
-[22178]</v>
+[87650]</v>
       </c>
       <c r="M161">
         <f>[2]!obGet([2]!obCall("",L161,"getRealizations"))</f>
-        <v>6.5435045768870534E-2</v>
+        <v>5.4429639623866745E-2</v>
       </c>
       <c r="P161" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H161, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I161), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice58 
-[22496]</v>
+[87969]</v>
       </c>
       <c r="Q161">
         <f>[2]!obGet([2]!obCall("", P161, "getRealizations"))</f>
-        <v>0.5978098370223961</v>
+        <v>0.62326055093379362</v>
       </c>
       <c r="T161" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H161,  $K$95,"getFairValue", [2]!obMake("","int",H161) )</f>
         <v>couponBondPrice58 
-[21991]</v>
+[86681]</v>
       </c>
       <c r="U161">
         <f>[2]!obGet([2]!obCall("",  T161,"getRealizations"))</f>
-        <v>0.98466533454191407</v>
+        <v>0.68558660602717303</v>
       </c>
       <c r="Y161" t="str">
         <f>[2]!obCall("intensity"&amp;H161, $D$40, "getIntensity", [2]!obMake("", "int", H161))</f>
         <v>intensity58 
-[17203]</v>
+[86437]</v>
       </c>
       <c r="Z161">
         <f>[2]!obGet([2]!obCall("", Y161, "getRealizations"))</f>
-        <v>1.5235546896827289E-2</v>
+        <v>2.4249774058156204E-2</v>
       </c>
       <c r="AC161" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H161, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H161))</f>
         <v>expOfIntegratedIntensity58 
-[17263]</v>
+[87233]</v>
       </c>
       <c r="AD161">
         <f>[2]!obGet([2]!obCall("", AC161, "getRealizations"))</f>
-        <v>1.0795038354969506</v>
+        <v>1.0999209964927141</v>
       </c>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.25">
@@ -11087,47 +11087,47 @@
       <c r="L162" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H162, $K$95, "getUnderlying",  [2]!obMake("", "int", H162), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault59 
-[22220]</v>
+[86550]</v>
       </c>
       <c r="M162">
         <f>[2]!obGet([2]!obCall("",L162,"getRealizations"))</f>
-        <v>5.7175206294087053E-2</v>
+        <v>5.4752700324378283E-2</v>
       </c>
       <c r="P162" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H162, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I162), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice59 
-[22609]</v>
+[87783]</v>
       </c>
       <c r="Q162">
         <f>[2]!obGet([2]!obCall("", P162, "getRealizations"))</f>
-        <v>0.62302967488579453</v>
+        <v>0.6286499035048867</v>
       </c>
       <c r="T162" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H162,  $K$95,"getFairValue", [2]!obMake("","int",H162) )</f>
         <v>couponBondPrice59 
-[22050]</v>
+[86695]</v>
       </c>
       <c r="U162">
         <f>[2]!obGet([2]!obCall("",  T162,"getRealizations"))</f>
-        <v>1.0201113756845688</v>
+        <v>0.69151489385537535</v>
       </c>
       <c r="Y162" t="str">
         <f>[2]!obCall("intensity"&amp;H162, $D$40, "getIntensity", [2]!obMake("", "int", H162))</f>
         <v>intensity59 
-[17275]</v>
+[86455]</v>
       </c>
       <c r="Z162">
         <f>[2]!obGet([2]!obCall("", Y162, "getRealizations"))</f>
-        <v>1.507080206661616E-2</v>
+        <v>2.3818975806024774E-2</v>
       </c>
       <c r="AC162" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H162, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H162))</f>
         <v>expOfIntegratedIntensity59 
-[16995]</v>
+[86384]</v>
       </c>
       <c r="AD162">
         <f>[2]!obGet([2]!obCall("", AC162, "getRealizations"))</f>
-        <v>1.0811497721469219</v>
+        <v>1.1025915167243332</v>
       </c>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.25">
@@ -11147,47 +11147,47 @@
       <c r="L163" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H163, $K$95, "getUnderlying",  [2]!obMake("", "int", H163), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault60 
-[22214]</v>
+[87638]</v>
       </c>
       <c r="M163">
         <f>[2]!obGet([2]!obCall("",L163,"getRealizations"))</f>
-        <v>5.0437965930069439E-2</v>
+        <v>4.6481449677754208E-2</v>
       </c>
       <c r="P163" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H163, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I163), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice60 
-[22472]</v>
+[88007]</v>
       </c>
       <c r="Q163">
         <f>[2]!obGet([2]!obCall("", P163, "getRealizations"))</f>
-        <v>0.64491015978511868</v>
+        <v>0.65422734565074869</v>
       </c>
       <c r="T163" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H163,  $K$95,"getFairValue", [2]!obMake("","int",H163) )</f>
         <v>couponBondPrice60 
-[21997]</v>
+[86493]</v>
       </c>
       <c r="U163">
         <f>[2]!obGet([2]!obCall("",  T163,"getRealizations"))</f>
-        <v>1.0509066999078378</v>
+        <v>0.71965008021582355</v>
       </c>
       <c r="Y163" t="str">
         <f>[2]!obCall("intensity"&amp;H163, $D$40, "getIntensity", [2]!obMake("", "int", H163))</f>
         <v>intensity60 
-[17030]</v>
+[87320]</v>
       </c>
       <c r="Z163">
         <f>[2]!obGet([2]!obCall("", Y163, "getRealizations"))</f>
-        <v>1.3362083767838347E-2</v>
+        <v>2.3300705617634414E-2</v>
       </c>
       <c r="AC163" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H163, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H163))</f>
         <v>expOfIntegratedIntensity60 
-[17010]</v>
+[86389]</v>
       </c>
       <c r="AD163">
         <f>[2]!obGet([2]!obCall("", AC163, "getRealizations"))</f>
-        <v>1.0827803799887308</v>
+        <v>1.1052209070164596</v>
       </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.25">
@@ -11207,47 +11207,47 @@
       <c r="L164" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H164, $K$95, "getUnderlying",  [2]!obMake("", "int", H164), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault61 
-[22098]</v>
+[87677]</v>
       </c>
       <c r="M164">
         <f>[2]!obGet([2]!obCall("",L164,"getRealizations"))</f>
-        <v>5.062363303433793E-2</v>
+        <v>4.0128747996765059E-2</v>
       </c>
       <c r="P164" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H164, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I164), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice61 
-[22795]</v>
+[87803]</v>
       </c>
       <c r="Q164">
         <f>[2]!obGet([2]!obCall("", P164, "getRealizations"))</f>
-        <v>0.65074322104615434</v>
+        <v>0.67539771489322709</v>
       </c>
       <c r="T164" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H164,  $K$95,"getFairValue", [2]!obMake("","int",H164) )</f>
         <v>couponBondPrice61 
-[22013]</v>
+[87529]</v>
       </c>
       <c r="U164">
         <f>[2]!obGet([2]!obCall("",  T164,"getRealizations"))</f>
-        <v>0.95980102540694889</v>
+        <v>0.74293748638254975</v>
       </c>
       <c r="Y164" t="str">
         <f>[2]!obCall("intensity"&amp;H164, $D$40, "getIntensity", [2]!obMake("", "int", H164))</f>
         <v>intensity61 
-[17233]</v>
+[86292]</v>
       </c>
       <c r="Z164">
         <f>[2]!obGet([2]!obCall("", Y164, "getRealizations"))</f>
-        <v>1.3576023096732002E-2</v>
+        <v>2.209495646593693E-2</v>
       </c>
       <c r="AC164" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H164, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H164))</f>
         <v>expOfIntegratedIntensity61 
-[17195]</v>
+[86435]</v>
       </c>
       <c r="AD164">
         <f>[2]!obGet([2]!obCall("", AC164, "getRealizations"))</f>
-        <v>1.0842281672600158</v>
+        <v>1.1077991522963677</v>
       </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.25">
@@ -11267,47 +11267,47 @@
       <c r="L165" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H165, $K$95, "getUnderlying",  [2]!obMake("", "int", H165), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault62 
-[22080]</v>
+[86515]</v>
       </c>
       <c r="M165">
         <f>[2]!obGet([2]!obCall("",L165,"getRealizations"))</f>
-        <v>5.8908591300429178E-2</v>
+        <v>5.2733804414029396E-2</v>
       </c>
       <c r="P165" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H165, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I165), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice62 
-[22605]</v>
+[87839]</v>
       </c>
       <c r="Q165">
         <f>[2]!obGet([2]!obCall("", P165, "getRealizations"))</f>
-        <v>0.63853591788271769</v>
+        <v>0.65232815259379673</v>
       </c>
       <c r="T165" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H165,  $K$95,"getFairValue", [2]!obMake("","int",H165) )</f>
         <v>couponBondPrice62 
-[21936]</v>
+[87558]</v>
       </c>
       <c r="U165">
         <f>[2]!obGet([2]!obCall("",  T165,"getRealizations"))</f>
-        <v>0.94565117554604661</v>
+        <v>0.71756096785317636</v>
       </c>
       <c r="Y165" t="str">
         <f>[2]!obCall("intensity"&amp;H165, $D$40, "getIntensity", [2]!obMake("", "int", H165))</f>
         <v>intensity62 
-[17287]</v>
+[87224]</v>
       </c>
       <c r="Z165">
         <f>[2]!obGet([2]!obCall("", Y165, "getRealizations"))</f>
-        <v>1.4643567367678825E-2</v>
+        <v>2.31996918920176E-2</v>
       </c>
       <c r="AC165" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H165, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H165))</f>
         <v>expOfIntegratedIntensity62 
-[17106]</v>
+[86413]</v>
       </c>
       <c r="AD165">
         <f>[2]!obGet([2]!obCall("", AC165, "getRealizations"))</f>
-        <v>1.0857011175382196</v>
+        <v>1.1102495357595927</v>
       </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.25">
@@ -11327,47 +11327,47 @@
       <c r="L166" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H166, $K$95, "getUnderlying",  [2]!obMake("", "int", H166), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault63 
-[22335]</v>
+[87595]</v>
       </c>
       <c r="M166">
         <f>[2]!obGet([2]!obCall("",L166,"getRealizations"))</f>
-        <v>4.8963566339700296E-2</v>
+        <v>5.0634194207023912E-2</v>
       </c>
       <c r="P166" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H166, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I166), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice63 
-[22484]</v>
+[88084]</v>
       </c>
       <c r="Q166">
         <f>[2]!obGet([2]!obCall("", P166, "getRealizations"))</f>
-        <v>0.6673083369073346</v>
+        <v>0.66355316291089939</v>
       </c>
       <c r="T166" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H166,  $K$95,"getFairValue", [2]!obMake("","int",H166) )</f>
         <v>couponBondPrice63 
-[21923]</v>
+[86664]</v>
       </c>
       <c r="U166">
         <f>[2]!obGet([2]!obCall("",  T166,"getRealizations"))</f>
-        <v>0.98390065628919487</v>
+        <v>0.72990847920198931</v>
       </c>
       <c r="Y166" t="str">
         <f>[2]!obCall("intensity"&amp;H166, $D$40, "getIntensity", [2]!obMake("", "int", H166))</f>
         <v>intensity63 
-[17008]</v>
+[86237]</v>
       </c>
       <c r="Z166">
         <f>[2]!obGet([2]!obCall("", Y166, "getRealizations"))</f>
-        <v>1.5128301521572317E-2</v>
+        <v>2.3780155075331055E-2</v>
       </c>
       <c r="AC166" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H166, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H166))</f>
         <v>expOfIntegratedIntensity63 
-[17215]</v>
+[87251]</v>
       </c>
       <c r="AD166">
         <f>[2]!obGet([2]!obCall("", AC166, "getRealizations"))</f>
-        <v>1.0872921359087306</v>
+        <v>1.112828270610964</v>
       </c>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.25">
@@ -11387,47 +11387,47 @@
       <c r="L167" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H167, $K$95, "getUnderlying",  [2]!obMake("", "int", H167), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault64 
-[22116]</v>
+[86524]</v>
       </c>
       <c r="M167">
         <f>[2]!obGet([2]!obCall("",L167,"getRealizations"))</f>
-        <v>5.5200787130262753E-2</v>
+        <v>6.5100163876940884E-2</v>
       </c>
       <c r="P167" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H167, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I167), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice64 
-[22740]</v>
+[87887]</v>
       </c>
       <c r="Q167">
         <f>[2]!obGet([2]!obCall("", P167, "getRealizations"))</f>
-        <v>0.66011719357623244</v>
+        <v>0.63893513593053974</v>
       </c>
       <c r="T167" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H167,  $K$95,"getFairValue", [2]!obMake("","int",H167) )</f>
         <v>couponBondPrice64 
-[21942]</v>
+[87733]</v>
       </c>
       <c r="U167">
         <f>[2]!obGet([2]!obCall("",  T167,"getRealizations"))</f>
-        <v>0.97635934678630032</v>
+        <v>0.7028286495235937</v>
       </c>
       <c r="Y167" t="str">
         <f>[2]!obCall("intensity"&amp;H167, $D$40, "getIntensity", [2]!obMake("", "int", H167))</f>
         <v>intensity64 
-[17187]</v>
+[86433]</v>
       </c>
       <c r="Z167">
         <f>[2]!obGet([2]!obCall("", Y167, "getRealizations"))</f>
-        <v>1.355945969319172E-2</v>
+        <v>2.5520765428260796E-2</v>
       </c>
       <c r="AC167" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H167, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H167))</f>
         <v>expOfIntegratedIntensity64 
-[17048]</v>
+[86247]</v>
       </c>
       <c r="AD167">
         <f>[2]!obGet([2]!obCall("", AC167, "getRealizations"))</f>
-        <v>1.0889382690821339</v>
+        <v>1.1154777424897513</v>
       </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.25">
@@ -11447,47 +11447,47 @@
       <c r="L168" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H168, $K$95, "getUnderlying",  [2]!obMake("", "int", H168), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault65 
-[22199]</v>
+[86732]</v>
       </c>
       <c r="M168">
         <f>[2]!obGet([2]!obCall("",L168,"getRealizations"))</f>
-        <v>4.7566586828402202E-2</v>
+        <v>5.1851285572046456E-2</v>
       </c>
       <c r="P168" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H168, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I168), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice65 
-[22716]</v>
+[87818]</v>
       </c>
       <c r="Q168">
         <f>[2]!obGet([2]!obCall("", P168, "getRealizations"))</f>
-        <v>0.68349842334840905</v>
+        <v>0.67415953613535862</v>
       </c>
       <c r="T168" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H168,  $K$95,"getFairValue", [2]!obMake("","int",H168) )</f>
         <v>couponBondPrice65 
-[21963]</v>
+[86485]</v>
       </c>
       <c r="U168">
         <f>[2]!obGet([2]!obCall("",  T168,"getRealizations"))</f>
-        <v>1.0075296789438373</v>
+        <v>0.74157548974889442</v>
       </c>
       <c r="Y168" t="str">
         <f>[2]!obCall("intensity"&amp;H168, $D$40, "getIntensity", [2]!obMake("", "int", H168))</f>
         <v>intensity65 
-[17068]</v>
+[86590]</v>
       </c>
       <c r="Z168">
         <f>[2]!obGet([2]!obCall("", Y168, "getRealizations"))</f>
-        <v>1.4418479355440416E-2</v>
+        <v>2.4508682396262877E-2</v>
       </c>
       <c r="AC168" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H168, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H168))</f>
         <v>expOfIntegratedIntensity65 
-[17040]</v>
+[86245]</v>
       </c>
       <c r="AD168">
         <f>[2]!obGet([2]!obCall("", AC168, "getRealizations"))</f>
-        <v>1.090415812046764</v>
+        <v>1.1183281627686816</v>
       </c>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.25">
@@ -11507,47 +11507,47 @@
       <c r="L169" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H169, $K$95, "getUnderlying",  [2]!obMake("", "int", H169), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault66 
-[22181]</v>
+[87471]</v>
       </c>
       <c r="M169">
         <f>[2]!obGet([2]!obCall("",L169,"getRealizations"))</f>
-        <v>4.009293913288945E-2</v>
+        <v>5.678022372395241E-2</v>
       </c>
       <c r="P169" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H169, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I169), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice66 
-[22752]</v>
+[87756]</v>
       </c>
       <c r="Q169">
         <f>[2]!obGet([2]!obCall("", P169, "getRealizations"))</f>
-        <v>0.70652898899336658</v>
+        <v>0.6706101966493484</v>
       </c>
       <c r="T169" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H169,  $K$95,"getFairValue", [2]!obMake("","int",H169) )</f>
         <v>couponBondPrice66 
-[21957]</v>
+[86673]</v>
       </c>
       <c r="U169">
         <f>[2]!obGet([2]!obCall("",  T169,"getRealizations"))</f>
-        <v>1.0380437247508496</v>
+        <v>0.73767121631428323</v>
       </c>
       <c r="Y169" t="str">
         <f>[2]!obCall("intensity"&amp;H169, $D$40, "getIntensity", [2]!obMake("", "int", H169))</f>
         <v>intensity66 
-[17124]</v>
+[86604]</v>
       </c>
       <c r="Z169">
         <f>[2]!obGet([2]!obCall("", Y169, "getRealizations"))</f>
-        <v>1.2898859193572516E-2</v>
+        <v>2.4661097381208624E-2</v>
       </c>
       <c r="AC169" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H169, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H169))</f>
         <v>expOfIntegratedIntensity66 
-[17265]</v>
+[86300]</v>
       </c>
       <c r="AD169">
         <f>[2]!obGet([2]!obCall("", AC169, "getRealizations"))</f>
-        <v>1.0919891598257991</v>
+        <v>1.1210723992516471</v>
       </c>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.25">
@@ -11567,47 +11567,47 @@
       <c r="L170" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H170, $K$95, "getUnderlying",  [2]!obMake("", "int", H170), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault67 
-[22329]</v>
+[87099]</v>
       </c>
       <c r="M170">
         <f>[2]!obGet([2]!obCall("",L170,"getRealizations"))</f>
-        <v>3.0874512824071838E-2</v>
+        <v>5.0282177389757612E-2</v>
       </c>
       <c r="P170" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H170, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I170), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice67 
-[22672]</v>
+[87771]</v>
       </c>
       <c r="Q170">
         <f>[2]!obGet([2]!obCall("", P170, "getRealizations"))</f>
-        <v>0.73333661859073518</v>
+        <v>0.69129335541235082</v>
       </c>
       <c r="T170" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H170,  $K$95,"getFairValue", [2]!obMake("","int",H170) )</f>
         <v>couponBondPrice67 
-[22392]</v>
+[87400]</v>
       </c>
       <c r="U170">
         <f>[2]!obGet([2]!obCall("",  T170,"getRealizations"))</f>
-        <v>1.0730140025688863</v>
+        <v>0.76042269095358594</v>
       </c>
       <c r="Y170" t="str">
         <f>[2]!obCall("intensity"&amp;H170, $D$40, "getIntensity", [2]!obMake("", "int", H170))</f>
         <v>intensity67 
-[16993]</v>
+[86233]</v>
       </c>
       <c r="Z170">
         <f>[2]!obGet([2]!obCall("", Y170, "getRealizations"))</f>
-        <v>1.2261475377187242E-2</v>
+        <v>2.3896912733624334E-2</v>
       </c>
       <c r="AC170" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H170, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H170))</f>
         <v>expOfIntegratedIntensity67 
-[17082]</v>
+[86407]</v>
       </c>
       <c r="AD170">
         <f>[2]!obGet([2]!obCall("", AC170, "getRealizations"))</f>
-        <v>1.093398610086751</v>
+        <v>1.1238404986280992</v>
       </c>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.25">
@@ -11627,47 +11627,47 @@
       <c r="L171" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H171, $K$95, "getUnderlying",  [2]!obMake("", "int", H171), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault68 
-[22370]</v>
+[87584]</v>
       </c>
       <c r="M171">
         <f>[2]!obGet([2]!obCall("",L171,"getRealizations"))</f>
-        <v>1.412388737949026E-2</v>
+        <v>7.0265237812240422E-2</v>
       </c>
       <c r="P171" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H171, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I171), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice68 
-[22756]</v>
+[87884]</v>
       </c>
       <c r="Q171">
         <f>[2]!obGet([2]!obCall("", P171, "getRealizations"))</f>
-        <v>0.77712864675817028</v>
+        <v>0.65825273811734042</v>
       </c>
       <c r="T171" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H171,  $K$95,"getFairValue", [2]!obMake("","int",H171) )</f>
         <v>couponBondPrice68 
-[22251]</v>
+[87447]</v>
       </c>
       <c r="U171">
         <f>[2]!obGet([2]!obCall("",  T171,"getRealizations"))</f>
-        <v>1.1285877889485163</v>
+        <v>0.72407801192907451</v>
       </c>
       <c r="Y171" t="str">
         <f>[2]!obCall("intensity"&amp;H171, $D$40, "getIntensity", [2]!obMake("", "int", H171))</f>
         <v>intensity68 
-[17291]</v>
+[86459]</v>
       </c>
       <c r="Z171">
         <f>[2]!obGet([2]!obCall("", Y171, "getRealizations"))</f>
-        <v>1.3191286109268393E-2</v>
+        <v>2.5573693039535335E-2</v>
       </c>
       <c r="AC171" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H171, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H171))</f>
         <v>expOfIntegratedIntensity68 
-[17144]</v>
+[86271]</v>
       </c>
       <c r="AD171">
         <f>[2]!obGet([2]!obCall("", AC171, "getRealizations"))</f>
-        <v>1.0947401003646837</v>
+        <v>1.1265293419334319</v>
       </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.25">
@@ -11687,47 +11687,47 @@
       <c r="L172" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H172, $K$95, "getUnderlying",  [2]!obMake("", "int", H172), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault69 
-[22238]</v>
+[87630]</v>
       </c>
       <c r="M172">
         <f>[2]!obGet([2]!obCall("",L172,"getRealizations"))</f>
-        <v>1.8340222754748264E-2</v>
+        <v>9.2829348343094045E-2</v>
       </c>
       <c r="P172" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H172, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I172), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice69 
-[22488]</v>
+[87957]</v>
       </c>
       <c r="Q172">
         <f>[2]!obGet([2]!obCall("", P172, "getRealizations"))</f>
-        <v>0.77323607393201688</v>
+        <v>0.62432698408273934</v>
       </c>
       <c r="T172" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H172,  $K$95,"getFairValue", [2]!obMake("","int",H172) )</f>
         <v>couponBondPrice69 
-[22001]</v>
+[87710]</v>
       </c>
       <c r="U172">
         <f>[2]!obGet([2]!obCall("",  T172,"getRealizations"))</f>
-        <v>1.1252085927506772</v>
+        <v>0.68675968249101327</v>
       </c>
       <c r="Y172" t="str">
         <f>[2]!obCall("intensity"&amp;H172, $D$40, "getIntensity", [2]!obMake("", "int", H172))</f>
         <v>intensity69 
-[17231]</v>
+[87245]</v>
       </c>
       <c r="Z172">
         <f>[2]!obGet([2]!obCall("", Y172, "getRealizations"))</f>
-        <v>1.2225802645823836E-2</v>
+        <v>2.8758307404512365E-2</v>
       </c>
       <c r="AC172" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H172, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H172))</f>
         <v>expOfIntegratedIntensity69 
-[17303]</v>
+[87218]</v>
       </c>
       <c r="AD172">
         <f>[2]!obGet([2]!obCall("", AC172, "getRealizations"))</f>
-        <v>1.0961851562503402</v>
+        <v>1.1294139804633494</v>
       </c>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.25">
@@ -11747,47 +11747,47 @@
       <c r="L173" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H173, $K$95, "getUnderlying",  [2]!obMake("", "int", H173), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault70 
-[22122]</v>
+[87669]</v>
       </c>
       <c r="M173">
         <f>[2]!obGet([2]!obCall("",L173,"getRealizations"))</f>
-        <v>1.3225069071438358E-2</v>
+        <v>8.5936035744420852E-2</v>
       </c>
       <c r="P173" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H173, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I173), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice70 
-[22567]</v>
+[88093]</v>
       </c>
       <c r="Q173">
         <f>[2]!obGet([2]!obCall("", P173, "getRealizations"))</f>
-        <v>0.79023144420139479</v>
+        <v>0.64533187297807504</v>
       </c>
       <c r="T173" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H173,  $K$95,"getFairValue", [2]!obMake("","int",H173) )</f>
         <v>couponBondPrice70 
-[21944]</v>
+[87555]</v>
       </c>
       <c r="U173">
         <f>[2]!obGet([2]!obCall("",  T173,"getRealizations"))</f>
-        <v>1.1473868335455963</v>
+        <v>0.70986506027588259</v>
       </c>
       <c r="Y173" t="str">
         <f>[2]!obCall("intensity"&amp;H173, $D$40, "getIntensity", [2]!obMake("", "int", H173))</f>
         <v>intensity70 
-[17315]</v>
+[86465]</v>
       </c>
       <c r="Z173">
         <f>[2]!obGet([2]!obCall("", Y173, "getRealizations"))</f>
-        <v>1.2437161374198523E-2</v>
+        <v>2.811276315294671E-2</v>
       </c>
       <c r="AC173" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H173, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H173))</f>
         <v>expOfIntegratedIntensity70 
-[17207]</v>
+[87254]</v>
       </c>
       <c r="AD173">
         <f>[2]!obGet([2]!obCall("", AC173, "getRealizations"))</f>
-        <v>1.0975261501580109</v>
+        <v>1.1326666587414056</v>
       </c>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.25">
@@ -11807,47 +11807,47 @@
       <c r="L174" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H174, $K$95, "getUnderlying",  [2]!obMake("", "int", H174), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault71 
-[22324]</v>
+[87599]</v>
       </c>
       <c r="M174">
         <f>[2]!obGet([2]!obCall("",L174,"getRealizations"))</f>
-        <v>4.0816506484007989E-2</v>
+        <v>8.9407283829266104E-2</v>
       </c>
       <c r="P174" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H174, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I174), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice71 
-[22422]</v>
+[87945]</v>
       </c>
       <c r="Q174">
         <f>[2]!obGet([2]!obCall("", P174, "getRealizations"))</f>
-        <v>0.73877433371580459</v>
+        <v>0.6479535898446227</v>
       </c>
       <c r="T174" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H174,  $K$95,"getFairValue", [2]!obMake("","int",H174) )</f>
         <v>couponBondPrice71 
-[22388]</v>
+[86780]</v>
       </c>
       <c r="U174">
         <f>[2]!obGet([2]!obCall("",  T174,"getRealizations"))</f>
-        <v>0.98567999907336801</v>
+        <v>0.71274894882908502</v>
       </c>
       <c r="Y174" t="str">
         <f>[2]!obCall("intensity"&amp;H174, $D$40, "getIntensity", [2]!obMake("", "int", H174))</f>
         <v>intensity71 
-[17060]</v>
+[86588]</v>
       </c>
       <c r="Z174">
         <f>[2]!obGet([2]!obCall("", Y174, "getRealizations"))</f>
-        <v>1.3425005544620568E-2</v>
+        <v>3.0468577512442165E-2</v>
       </c>
       <c r="AC174" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H174, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H174))</f>
         <v>expOfIntegratedIntensity71 
-[17156]</v>
+[86612]</v>
       </c>
       <c r="AD174">
         <f>[2]!obGet([2]!obCall("", AC174, "getRealizations"))</f>
-        <v>1.0988920103373132</v>
+        <v>1.1358553777772902</v>
       </c>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.25">
@@ -11867,47 +11867,47 @@
       <c r="L175" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H175, $K$95, "getUnderlying",  [2]!obMake("", "int", H175), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault72 
-[22270]</v>
+[87620]</v>
       </c>
       <c r="M175">
         <f>[2]!obGet([2]!obCall("",L175,"getRealizations"))</f>
-        <v>4.8857635707132946E-2</v>
+        <v>8.2531250140532045E-2</v>
       </c>
       <c r="P175" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H175, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I175), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice72 
-[22680]</v>
+[87863]</v>
       </c>
       <c r="Q175">
         <f>[2]!obGet([2]!obCall("", P175, "getRealizations"))</f>
-        <v>0.73038235752272695</v>
+        <v>0.66886655190408517</v>
       </c>
       <c r="T175" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H175,  $K$95,"getFairValue", [2]!obMake("","int",H175) )</f>
         <v>couponBondPrice72 
-[21981]</v>
+[86679]</v>
       </c>
       <c r="U175">
         <f>[2]!obGet([2]!obCall("",  T175,"getRealizations"))</f>
-        <v>0.97648910239021025</v>
+        <v>0.73575320709449366</v>
       </c>
       <c r="Y175" t="str">
         <f>[2]!obCall("intensity"&amp;H175, $D$40, "getIntensity", [2]!obMake("", "int", H175))</f>
         <v>intensity72 
-[16991]</v>
+[87335]</v>
       </c>
       <c r="Z175">
         <f>[2]!obGet([2]!obCall("", Y175, "getRealizations"))</f>
-        <v>1.4929507352327292E-2</v>
+        <v>2.9745376199311113E-2</v>
       </c>
       <c r="AC175" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H175, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H175))</f>
         <v>expOfIntegratedIntensity72 
-[17225]</v>
+[86290]</v>
       </c>
       <c r="AD175">
         <f>[2]!obGet([2]!obCall("", AC175, "getRealizations"))</f>
-        <v>1.1003682641845673</v>
+        <v>1.1393214451651166</v>
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.25">
@@ -11927,47 +11927,47 @@
       <c r="L176" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H176, $K$95, "getUnderlying",  [2]!obMake("", "int", H176), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault73 
-[22140]</v>
+[86530]</v>
       </c>
       <c r="M176">
         <f>[2]!obGet([2]!obCall("",L176,"getRealizations"))</f>
-        <v>3.8441848977545351E-2</v>
+        <v>8.6833570130747634E-2</v>
       </c>
       <c r="P176" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H176, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I176), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice73 
-[22736]</v>
+[87759]</v>
       </c>
       <c r="Q176">
         <f>[2]!obGet([2]!obCall("", P176, "getRealizations"))</f>
-        <v>0.75764548281531174</v>
+        <v>0.67047974114157693</v>
       </c>
       <c r="T176" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H176,  $K$95,"getFairValue", [2]!obMake("","int",H176) )</f>
         <v>couponBondPrice73 
-[22019]</v>
+[87704]</v>
       </c>
       <c r="U176">
         <f>[2]!obGet([2]!obCall("",  T176,"getRealizations"))</f>
-        <v>1.0104539677653614</v>
+        <v>0.73752771525573468</v>
       </c>
       <c r="Y176" t="str">
         <f>[2]!obCall("intensity"&amp;H176, $D$40, "getIntensity", [2]!obMake("", "int", H176))</f>
         <v>intensity73 
-[17333]</v>
+[86656]</v>
       </c>
       <c r="Z176">
         <f>[2]!obGet([2]!obCall("", Y176, "getRealizations"))</f>
-        <v>1.6162418848962083E-2</v>
+        <v>3.1081254925321568E-2</v>
       </c>
       <c r="AC176" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H176, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H176))</f>
         <v>expOfIntegratedIntensity73 
-[17136]</v>
+[86269]</v>
       </c>
       <c r="AD176">
         <f>[2]!obGet([2]!obCall("", AC176, "getRealizations"))</f>
-        <v>1.1020122867105642</v>
+        <v>1.1427154449525061</v>
       </c>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.25">
@@ -11987,47 +11987,47 @@
       <c r="L177" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H177, $K$95, "getUnderlying",  [2]!obMake("", "int", H177), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault74 
-[22223]</v>
+[86738]</v>
       </c>
       <c r="M177">
         <f>[2]!obGet([2]!obCall("",L177,"getRealizations"))</f>
-        <v>2.273946148955739E-2</v>
+        <v>9.3459925244106998E-2</v>
       </c>
       <c r="P177" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H177, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I177), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice74 
-[22563]</v>
+[87995]</v>
       </c>
       <c r="Q177">
         <f>[2]!obGet([2]!obCall("", P177, "getRealizations"))</f>
-        <v>0.79471601174690099</v>
+        <v>0.66885137782229209</v>
       </c>
       <c r="T177" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H177,  $K$95,"getFairValue", [2]!obMake("","int",H177) )</f>
         <v>couponBondPrice74 
-[21971]</v>
+[86487]</v>
       </c>
       <c r="U177">
         <f>[2]!obGet([2]!obCall("",  T177,"getRealizations"))</f>
-        <v>1.0559541612102095</v>
+        <v>0.73573651560452125</v>
       </c>
       <c r="Y177" t="str">
         <f>[2]!obCall("intensity"&amp;H177, $D$40, "getIntensity", [2]!obMake("", "int", H177))</f>
         <v>intensity74 
-[16953]</v>
+[86374]</v>
       </c>
       <c r="Z177">
         <f>[2]!obGet([2]!obCall("", Y177, "getRealizations"))</f>
-        <v>1.3661467524599052E-2</v>
+        <v>3.1855812569613305E-2</v>
       </c>
       <c r="AC177" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H177, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H177))</f>
         <v>expOfIntegratedIntensity74 
-[17052]</v>
+[86586]</v>
       </c>
       <c r="AD177">
         <f>[2]!obGet([2]!obCall("", AC177, "getRealizations"))</f>
-        <v>1.1037948452608728</v>
+        <v>1.1462726732499502</v>
       </c>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.25">
@@ -12047,47 +12047,47 @@
       <c r="L178" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H178, $K$95, "getUnderlying",  [2]!obMake("", "int", H178), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault75 
-[22158]</v>
+[87479]</v>
       </c>
       <c r="M178">
         <f>[2]!obGet([2]!obCall("",L178,"getRealizations"))</f>
-        <v>1.1228471965233819E-2</v>
+        <v>0.10523109343253695</v>
       </c>
       <c r="P178" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H178, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I178), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice75 
-[22555]</v>
+[88087]</v>
       </c>
       <c r="Q178">
         <f>[2]!obGet([2]!obCall("", P178, "getRealizations"))</f>
-        <v>0.82319422983878476</v>
+        <v>0.66002663569227416</v>
       </c>
       <c r="T178" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H178,  $K$95,"getFairValue", [2]!obMake("","int",H178) )</f>
         <v>couponBondPrice75 
-[22384]</v>
+[87403]</v>
       </c>
       <c r="U178">
         <f>[2]!obGet([2]!obCall("",  T178,"getRealizations"))</f>
-        <v>1.0908502112408724</v>
+        <v>0.72602929926150161</v>
       </c>
       <c r="Y178" t="str">
         <f>[2]!obCall("intensity"&amp;H178, $D$40, "getIntensity", [2]!obMake("", "int", H178))</f>
         <v>intensity75 
-[17217]</v>
+[86288]</v>
       </c>
       <c r="Z178">
         <f>[2]!obGet([2]!obCall("", Y178, "getRealizations"))</f>
-        <v>1.5078730831268995E-2</v>
+        <v>3.4639760277004425E-2</v>
       </c>
       <c r="AC178" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H178, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H178))</f>
         <v>expOfIntegratedIntensity75 
-[16959]</v>
+[86225]</v>
       </c>
       <c r="AD178">
         <f>[2]!obGet([2]!obCall("", AC178, "getRealizations"))</f>
-        <v>1.105303821510919</v>
+        <v>1.1499300403203259</v>
       </c>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.25">
@@ -12107,47 +12107,47 @@
       <c r="L179" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H179, $K$95, "getUnderlying",  [2]!obMake("", "int", H179), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault76 
-[22373]</v>
+[87407]</v>
       </c>
       <c r="M179">
         <f>[2]!obGet([2]!obCall("",L179,"getRealizations"))</f>
-        <v>2.4234696227322661E-3</v>
+        <v>0.10412068669747902</v>
       </c>
       <c r="P179" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H179, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I179), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice76 
-[22543]</v>
+[88102]</v>
       </c>
       <c r="Q179">
         <f>[2]!obGet([2]!obCall("", P179, "getRealizations"))</f>
-        <v>0.84585027244947331</v>
+        <v>0.67205811883484612</v>
       </c>
       <c r="T179" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H179,  $K$95,"getFairValue", [2]!obMake("","int",H179) )</f>
         <v>couponBondPrice76 
-[22153]</v>
+[86721]</v>
       </c>
       <c r="U179">
         <f>[2]!obGet([2]!obCall("",  T179,"getRealizations"))</f>
-        <v>1.1185821886994056</v>
+        <v>0.73926393071833074</v>
       </c>
       <c r="Y179" t="str">
         <f>[2]!obCall("intensity"&amp;H179, $D$40, "getIntensity", [2]!obMake("", "int", H179))</f>
         <v>intensity76 
-[17293]</v>
+[86646]</v>
       </c>
       <c r="Z179">
         <f>[2]!obGet([2]!obCall("", Y179, "getRealizations"))</f>
-        <v>1.6209498207477604E-2</v>
+        <v>3.3978796290435237E-2</v>
       </c>
       <c r="AC179" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H179, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H179))</f>
         <v>expOfIntegratedIntensity76 
-[17070]</v>
+[87305]</v>
       </c>
       <c r="AD179">
         <f>[2]!obGet([2]!obCall("", AC179, "getRealizations"))</f>
-        <v>1.1069717365781444</v>
+        <v>1.1539202774664907</v>
       </c>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.25">
@@ -12167,47 +12167,47 @@
       <c r="L180" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H180, $K$95, "getUnderlying",  [2]!obMake("", "int", H180), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault77 
-[22241]</v>
+[87451]</v>
       </c>
       <c r="M180">
         <f>[2]!obGet([2]!obCall("",L180,"getRealizations"))</f>
-        <v>2.1105902841915963E-2</v>
+        <v>0.11399264968252916</v>
       </c>
       <c r="P180" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H180, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I180), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice77 
-[22688]</v>
+[87768]</v>
       </c>
       <c r="Q180">
         <f>[2]!obGet([2]!obCall("", P180, "getRealizations"))</f>
-        <v>0.81749548130896244</v>
+        <v>0.66809639399942566</v>
       </c>
       <c r="T180" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H180,  $K$95,"getFairValue", [2]!obMake("","int",H180) )</f>
         <v>couponBondPrice77 
-[21977]</v>
+[87543]</v>
       </c>
       <c r="U180">
         <f>[2]!obGet([2]!obCall("",  T180,"getRealizations"))</f>
-        <v>1.0859870233502846</v>
+        <v>0.73490603339936822</v>
       </c>
       <c r="Y180" t="str">
         <f>[2]!obCall("intensity"&amp;H180, $D$40, "getIntensity", [2]!obMake("", "int", H180))</f>
         <v>intensity77 
-[17331]</v>
+[86469]</v>
       </c>
       <c r="Z180">
         <f>[2]!obGet([2]!obCall("", Y180, "getRealizations"))</f>
-        <v>1.5586208165937764E-2</v>
+        <v>3.6447752683502553E-2</v>
       </c>
       <c r="AC180" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H180, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H180))</f>
         <v>expOfIntegratedIntensity77 
-[17305]</v>
+[86310]</v>
       </c>
       <c r="AD180">
         <f>[2]!obGet([2]!obCall("", AC180, "getRealizations"))</f>
-        <v>1.1087675372743295</v>
+        <v>1.1578478285649467</v>
       </c>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.25">
@@ -12227,47 +12227,47 @@
       <c r="L181" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H181, $K$95, "getUnderlying",  [2]!obMake("", "int", H181), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault78 
-[22125]</v>
+[87491]</v>
       </c>
       <c r="M181">
         <f>[2]!obGet([2]!obCall("",L181,"getRealizations"))</f>
-        <v>1.8561569786741186E-2</v>
+        <v>0.11704462424998861</v>
       </c>
       <c r="P181" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H181, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I181), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice78 
-[22571]</v>
+[87938]</v>
       </c>
       <c r="Q181">
         <f>[2]!obGet([2]!obCall("", P181, "getRealizations"))</f>
-        <v>0.82860638288395982</v>
+        <v>0.67490624322049475</v>
       </c>
       <c r="T181" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H181,  $K$95,"getFairValue", [2]!obMake("","int",H181) )</f>
         <v>couponBondPrice78 
-[22046]</v>
+[87517]</v>
       </c>
       <c r="U181">
         <f>[2]!obGet([2]!obCall("",  T181,"getRealizations"))</f>
-        <v>1.1001238343113733</v>
+        <v>0.74239686754254419</v>
       </c>
       <c r="Y181" t="str">
         <f>[2]!obCall("intensity"&amp;H181, $D$40, "getIntensity", [2]!obMake("", "int", H181))</f>
         <v>intensity78 
-[17317]</v>
+[86652]</v>
       </c>
       <c r="Z181">
         <f>[2]!obGet([2]!obCall("", Y181, "getRealizations"))</f>
-        <v>1.806278637647498E-2</v>
+        <v>3.8068060224076279E-2</v>
       </c>
       <c r="AC181" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H181, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H181))</f>
         <v>expOfIntegratedIntensity78 
-[17128]</v>
+[86267]</v>
       </c>
       <c r="AD181">
         <f>[2]!obGet([2]!obCall("", AC181, "getRealizations"))</f>
-        <v>1.110497032902511</v>
+        <v>1.1620756236962759</v>
       </c>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.25">
@@ -12287,47 +12287,47 @@
       <c r="L182" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H182, $K$95, "getUnderlying",  [2]!obMake("", "int", H182), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault79 
-[22059]</v>
+[86698]</v>
       </c>
       <c r="M182">
         <f>[2]!obGet([2]!obCall("",L182,"getRealizations"))</f>
-        <v>2.2828272309676125E-2</v>
+        <v>0.1206345655603229</v>
       </c>
       <c r="P182" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H182, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I182), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice79 
-[22508]</v>
+[87989]</v>
       </c>
       <c r="Q182">
         <f>[2]!obGet([2]!obCall("", P182, "getRealizations"))</f>
-        <v>0.82819962755947141</v>
+        <v>0.68148650016355738</v>
       </c>
       <c r="T182" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H182,  $K$95,"getFairValue", [2]!obMake("","int",H182) )</f>
         <v>couponBondPrice79 
-[22386]</v>
+[86846]</v>
       </c>
       <c r="U182">
         <f>[2]!obGet([2]!obCall("",  T182,"getRealizations"))</f>
-        <v>1.100792899735644</v>
+        <v>0.74963515017991311</v>
       </c>
       <c r="Y182" t="str">
         <f>[2]!obCall("intensity"&amp;H182, $D$40, "getIntensity", [2]!obMake("", "int", H182))</f>
         <v>intensity79 
-[16963]</v>
+[86564]</v>
       </c>
       <c r="Z182">
         <f>[2]!obGet([2]!obCall("", Y182, "getRealizations"))</f>
-        <v>1.7144224461334706E-2</v>
+        <v>3.8162997098508726E-2</v>
       </c>
       <c r="AC182" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H182, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H182))</f>
         <v>expOfIntegratedIntensity79 
-[16997]</v>
+[86572]</v>
       </c>
       <c r="AD182">
         <f>[2]!obGet([2]!obCall("", AC182, "getRealizations"))</f>
-        <v>1.1125047126388614</v>
+        <v>1.1665078511415539</v>
       </c>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.25">
@@ -12347,47 +12347,47 @@
       <c r="L183" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H183, $K$95, "getUnderlying",  [2]!obMake("", "int", H183), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault80 
-[22273]</v>
+[87440]</v>
       </c>
       <c r="M183">
         <f>[2]!obGet([2]!obCall("",L183,"getRealizations"))</f>
-        <v>4.244694518809336E-2</v>
+        <v>0.11487247022996357</v>
       </c>
       <c r="P183" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H183, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I183), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice80 
-[22593]</v>
+[87786]</v>
       </c>
       <c r="Q183">
         <f>[2]!obGet([2]!obCall("", P183, "getRealizations"))</f>
-        <v>0.80460978672324013</v>
+        <v>0.70100388117403323</v>
       </c>
       <c r="T183" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H183,  $K$95,"getFairValue", [2]!obMake("","int",H183) )</f>
         <v>couponBondPrice80 
-[22056]</v>
+[86509]</v>
       </c>
       <c r="U183">
         <f>[2]!obGet([2]!obCall("",  T183,"getRealizations"))</f>
-        <v>1.0747794979648202</v>
+        <v>0.77110426929143649</v>
       </c>
       <c r="Y183" t="str">
         <f>[2]!obCall("intensity"&amp;H183, $D$40, "getIntensity", [2]!obMake("", "int", H183))</f>
         <v>intensity80 
-[17209]</v>
+[86286]</v>
       </c>
       <c r="Z183">
         <f>[2]!obGet([2]!obCall("", Y183, "getRealizations"))</f>
-        <v>1.8767478151807276E-2</v>
+        <v>3.7095419335487996E-2</v>
       </c>
       <c r="AC183" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H183, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H183))</f>
         <v>expOfIntegratedIntensity80 
-[17146]</v>
+[86423]</v>
       </c>
       <c r="AD183">
         <f>[2]!obGet([2]!obCall("", AC183, "getRealizations"))</f>
-        <v>1.1144136515859586</v>
+        <v>1.1709681001255483</v>
       </c>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.25">
@@ -12407,47 +12407,47 @@
       <c r="L184" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H184, $K$95, "getUnderlying",  [2]!obMake("", "int", H184), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault81 
-[22143]</v>
+[86719]</v>
       </c>
       <c r="M184">
         <f>[2]!obGet([2]!obCall("",L184,"getRealizations"))</f>
-        <v>4.9564674432305798E-2</v>
+        <v>0.12955024097242063</v>
       </c>
       <c r="P184" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H184, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I184), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice81 
-[22601]</v>
+[87872]</v>
       </c>
       <c r="Q184">
         <f>[2]!obGet([2]!obCall("", P184, "getRealizations"))</f>
-        <v>0.80253374869566041</v>
+        <v>0.69422545090281662</v>
       </c>
       <c r="T184" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H184,  $K$95,"getFairValue", [2]!obMake("","int",H184) )</f>
         <v>couponBondPrice81 
-[22052]</v>
+[87692]</v>
       </c>
       <c r="U184">
         <f>[2]!obGet([2]!obCall("",  T184,"getRealizations"))</f>
-        <v>0.97288853531266928</v>
+        <v>0.76364799599309829</v>
       </c>
       <c r="Y184" t="str">
         <f>[2]!obCall("intensity"&amp;H184, $D$40, "getIntensity", [2]!obMake("", "int", H184))</f>
         <v>intensity81 
-[17327]</v>
+[87209]</v>
       </c>
       <c r="Z184">
         <f>[2]!obGet([2]!obCall("", Y184, "getRealizations"))</f>
-        <v>1.997526360640255E-2</v>
+        <v>3.8408841124222742E-2</v>
       </c>
       <c r="AC184" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H184, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H184))</f>
         <v>expOfIntegratedIntensity81 
-[17062]</v>
+[87308]</v>
       </c>
       <c r="AD184">
         <f>[2]!obGet([2]!obCall("", AC184, "getRealizations"))</f>
-        <v>1.1165070887841686</v>
+        <v>1.1753199220384061</v>
       </c>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.25">
@@ -12467,47 +12467,47 @@
       <c r="L185" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H185, $K$95, "getUnderlying",  [2]!obMake("", "int", H185), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault82 
-[22226]</v>
+[87634]</v>
       </c>
       <c r="M185">
         <f>[2]!obGet([2]!obCall("",L185,"getRealizations"))</f>
-        <v>3.9050941379859185E-2</v>
+        <v>0.13544735492143678</v>
       </c>
       <c r="P185" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H185, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I185), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice82 
-[22434]</v>
+[88060]</v>
       </c>
       <c r="Q185">
         <f>[2]!obGet([2]!obCall("", P185, "getRealizations"))</f>
-        <v>0.82624486581615231</v>
+        <v>0.69991344413047818</v>
       </c>
       <c r="T185" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H185,  $K$95,"getFairValue", [2]!obMake("","int",H185) )</f>
         <v>couponBondPrice82 
-[21999]</v>
+[86683]</v>
       </c>
       <c r="U185">
         <f>[2]!obGet([2]!obCall("",  T185,"getRealizations"))</f>
-        <v>1.0007546474780211</v>
+        <v>0.76990478854352595</v>
       </c>
       <c r="Y185" t="str">
         <f>[2]!obCall("intensity"&amp;H185, $D$40, "getIntensity", [2]!obMake("", "int", H185))</f>
         <v>intensity82 
-[17227]</v>
+[86443]</v>
       </c>
       <c r="Z185">
         <f>[2]!obGet([2]!obCall("", Y185, "getRealizations"))</f>
-        <v>1.9179841708398936E-2</v>
+        <v>3.9681637433679674E-2</v>
       </c>
       <c r="AC185" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H185, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H185))</f>
         <v>expOfIntegratedIntensity82 
-[16967]</v>
+[86227]</v>
       </c>
       <c r="AD185">
         <f>[2]!obGet([2]!obCall("", AC185, "getRealizations"))</f>
-        <v>1.1187395701036786</v>
+        <v>1.1798428701533981</v>
       </c>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
@@ -12527,47 +12527,47 @@
       <c r="L186" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H186, $K$95, "getUnderlying",  [2]!obMake("", "int", H186), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault83 
-[21984]</v>
+[87717]</v>
       </c>
       <c r="M186">
         <f>[2]!obGet([2]!obCall("",L186,"getRealizations"))</f>
-        <v>4.2116822391009341E-2</v>
+        <v>0.12584390513829979</v>
       </c>
       <c r="P186" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H186, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I186), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice83 
-[22807]</v>
+[87851]</v>
       </c>
       <c r="Q186">
         <f>[2]!obGet([2]!obCall("", P186, "getRealizations"))</f>
-        <v>0.83048189524474536</v>
+        <v>0.72455056686057018</v>
       </c>
       <c r="T186" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H186,  $K$95,"getFairValue", [2]!obMake("","int",H186) )</f>
         <v>couponBondPrice83 
-[22292]</v>
+[87433]</v>
       </c>
       <c r="U186">
         <f>[2]!obGet([2]!obCall("",  T186,"getRealizations"))</f>
-        <v>1.0061800891065678</v>
+        <v>0.79700562354662718</v>
       </c>
       <c r="Y186" t="str">
         <f>[2]!obCall("intensity"&amp;H186, $D$40, "getIntensity", [2]!obMake("", "int", H186))</f>
         <v>intensity83 
-[17138]</v>
+[86421]</v>
       </c>
       <c r="Z186">
         <f>[2]!obGet([2]!obCall("", Y186, "getRealizations"))</f>
-        <v>2.0648835014118752E-2</v>
+        <v>3.8144737224543368E-2</v>
       </c>
       <c r="AC186" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H186, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H186))</f>
         <v>expOfIntegratedIntensity83 
-[17235]</v>
+[86445]</v>
       </c>
       <c r="AD186">
         <f>[2]!obGet([2]!obCall("", AC186, "getRealizations"))</f>
-        <v>1.1208873539397151</v>
+        <v>1.1845339812464455</v>
       </c>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.25">
@@ -12587,47 +12587,47 @@
       <c r="L187" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H187, $K$95, "getUnderlying",  [2]!obMake("", "int", H187), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault84 
-[22376]</v>
+[87102]</v>
       </c>
       <c r="M187">
         <f>[2]!obGet([2]!obCall("",L187,"getRealizations"))</f>
-        <v>3.9578138067937252E-2</v>
+        <v>0.12160009218162983</v>
       </c>
       <c r="P187" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H187, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I187), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice84 
-[22500]</v>
+[88034]</v>
       </c>
       <c r="Q187">
         <f>[2]!obGet([2]!obCall("", P187, "getRealizations"))</f>
-        <v>0.84248374857527586</v>
+        <v>0.74265486575823447</v>
       </c>
       <c r="T187" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H187,  $K$95,"getFairValue", [2]!obMake("","int",H187) )</f>
         <v>couponBondPrice84 
-[22253]</v>
+[86558]</v>
       </c>
       <c r="U187">
         <f>[2]!obGet([2]!obCall("",  T187,"getRealizations"))</f>
-        <v>1.0205229888441576</v>
+        <v>0.81692035233405791</v>
       </c>
       <c r="Y187" t="str">
         <f>[2]!obCall("intensity"&amp;H187, $D$40, "getIntensity", [2]!obMake("", "int", H187))</f>
         <v>intensity84 
-[17295]</v>
+[87221]</v>
       </c>
       <c r="Z187">
         <f>[2]!obGet([2]!obCall("", Y187, "getRealizations"))</f>
-        <v>1.9459173112409339E-2</v>
+        <v>3.8898983538008067E-2</v>
       </c>
       <c r="AC187" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H187, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H187))</f>
         <v>expOfIntegratedIntensity84 
-[17016]</v>
+[86239]</v>
       </c>
       <c r="AD187">
         <f>[2]!obGet([2]!obCall("", AC187, "getRealizations"))</f>
-        <v>1.1232042469776911</v>
+        <v>1.1890609835678947</v>
       </c>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.25">
@@ -12647,47 +12647,47 @@
       <c r="L188" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H188, $K$95, "getUnderlying",  [2]!obMake("", "int", H188), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault85 
-[22244]</v>
+[86556]</v>
       </c>
       <c r="M188">
         <f>[2]!obGet([2]!obCall("",L188,"getRealizations"))</f>
-        <v>5.8596820840503189E-2</v>
+        <v>0.12594190466905897</v>
       </c>
       <c r="P188" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H188, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I188), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice85 
-[22492]</v>
+[87935]</v>
       </c>
       <c r="Q188">
         <f>[2]!obGet([2]!obCall("", P188, "getRealizations"))</f>
-        <v>0.82809792047384401</v>
+        <v>0.75130296768022664</v>
       </c>
       <c r="T188" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H188,  $K$95,"getFairValue", [2]!obMake("","int",H188) )</f>
         <v>couponBondPrice85 
-[21927]</v>
+[87561]</v>
       </c>
       <c r="U188">
         <f>[2]!obGet([2]!obCall("",  T188,"getRealizations"))</f>
-        <v>1.0048060010555508</v>
+        <v>0.82643326444824927</v>
       </c>
       <c r="Y188" t="str">
         <f>[2]!obCall("intensity"&amp;H188, $D$40, "getIntensity", [2]!obMake("", "int", H188))</f>
         <v>intensity85 
-[17076]</v>
+[86592]</v>
       </c>
       <c r="Z188">
         <f>[2]!obGet([2]!obCall("", Y188, "getRealizations"))</f>
-        <v>1.9213763214327637E-2</v>
+        <v>4.0477711750460013E-2</v>
       </c>
       <c r="AC188" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H188, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H188))</f>
         <v>expOfIntegratedIntensity85 
-[17307]</v>
+[86463]</v>
       </c>
       <c r="AD188">
         <f>[2]!obGet([2]!obCall("", AC188, "getRealizations"))</f>
-        <v>1.1253920375053186</v>
+        <v>1.1936953176310388</v>
       </c>
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.25">
@@ -12707,47 +12707,47 @@
       <c r="L189" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H189, $K$95, "getUnderlying",  [2]!obMake("", "int", H189), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault86 
-[22128]</v>
+[86527]</v>
       </c>
       <c r="M189">
         <f>[2]!obGet([2]!obCall("",L189,"getRealizations"))</f>
-        <v>6.8822183048010771E-2</v>
+        <v>0.13081278061272647</v>
       </c>
       <c r="P189" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H189, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I189), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice86 
-[22799]</v>
+[87746]</v>
       </c>
       <c r="Q189">
         <f>[2]!obGet([2]!obCall("", P189, "getRealizations"))</f>
-        <v>0.82669423346874904</v>
+        <v>0.76022614392201571</v>
       </c>
       <c r="T189" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H189,  $K$95,"getFairValue", [2]!obMake("","int",H189) )</f>
         <v>couponBondPrice86 
-[22017]</v>
+[86687]</v>
       </c>
       <c r="U189">
         <f>[2]!obGet([2]!obCall("",  T189,"getRealizations"))</f>
-        <v>1.0040576556377538</v>
+        <v>0.8362487583142173</v>
       </c>
       <c r="Y189" t="str">
         <f>[2]!obCall("intensity"&amp;H189, $D$40, "getIntensity", [2]!obMake("", "int", H189))</f>
         <v>intensity86 
-[17319]</v>
+[87212]</v>
       </c>
       <c r="Z189">
         <f>[2]!obGet([2]!obCall("", Y189, "getRealizations"))</f>
-        <v>1.9888484345881967E-2</v>
+        <v>4.0300716983056255E-2</v>
       </c>
       <c r="AC189" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H189, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H189))</f>
         <v>expOfIntegratedIntensity86 
-[17054]</v>
+[87311]</v>
       </c>
       <c r="AD189">
         <f>[2]!obGet([2]!obCall("", AC189, "getRealizations"))</f>
-        <v>1.1275564177471327</v>
+        <v>1.1985369153588197</v>
       </c>
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.25">
@@ -12767,47 +12767,47 @@
       <c r="L190" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H190, $K$95, "getUnderlying",  [2]!obMake("", "int", H190), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault87 
-[21951]</v>
+[87730]</v>
       </c>
       <c r="M190">
         <f>[2]!obGet([2]!obCall("",L190,"getRealizations"))</f>
-        <v>5.2689386576758666E-2</v>
+        <v>0.13151923454418263</v>
       </c>
       <c r="P190" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H190, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I190), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice87 
-[22668]</v>
+[87827]</v>
       </c>
       <c r="Q190">
         <f>[2]!obGet([2]!obCall("", P190, "getRealizations"))</f>
-        <v>0.85481434660429534</v>
+        <v>0.7740721304171021</v>
       </c>
       <c r="T190" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H190,  $K$95,"getFairValue", [2]!obMake("","int",H190) )</f>
         <v>couponBondPrice87 
-[22288]</v>
+[86755]</v>
       </c>
       <c r="U190">
         <f>[2]!obGet([2]!obCall("",  T190,"getRealizations"))</f>
-        <v>1.036743327317255</v>
+        <v>0.85147934345881238</v>
       </c>
       <c r="Y190" t="str">
         <f>[2]!obCall("intensity"&amp;H190, $D$40, "getIntensity", [2]!obMake("", "int", H190))</f>
         <v>intensity87 
-[17219]</v>
+[86441]</v>
       </c>
       <c r="Z190">
         <f>[2]!obGet([2]!obCall("", Y190, "getRealizations"))</f>
-        <v>1.8935463766314602E-2</v>
+        <v>4.1026023759707965E-2</v>
       </c>
       <c r="AC190" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H190, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H190))</f>
         <v>expOfIntegratedIntensity87 
-[17237]</v>
+[86632]</v>
       </c>
       <c r="AD190">
         <f>[2]!obGet([2]!obCall("", AC190, "getRealizations"))</f>
-        <v>1.1298011880775218</v>
+        <v>1.2033768511542764</v>
       </c>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
@@ -12827,47 +12827,47 @@
       <c r="L191" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H191, $K$95, "getUnderlying",  [2]!obMake("", "int", H191), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault88 
-[22276]</v>
+[86920]</v>
       </c>
       <c r="M191">
         <f>[2]!obGet([2]!obCall("",L191,"getRealizations"))</f>
-        <v>4.8985192280983553E-2</v>
+        <v>0.15124084415663305</v>
       </c>
       <c r="P191" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H191, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I191), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice88 
-[22771]</v>
+[87881]</v>
       </c>
       <c r="Q191">
         <f>[2]!obGet([2]!obCall("", P191, "getRealizations"))</f>
-        <v>0.868606420866332</v>
+        <v>0.77107990063334131</v>
       </c>
       <c r="T191" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H191,  $K$95,"getFairValue", [2]!obMake("","int",H191) )</f>
         <v>couponBondPrice88 
-[22319]</v>
+[87008]</v>
       </c>
       <c r="U191">
         <f>[2]!obGet([2]!obCall("",  T191,"getRealizations"))</f>
-        <v>1.0531517690739998</v>
+        <v>0.84818789069667544</v>
       </c>
       <c r="Y191" t="str">
         <f>[2]!obCall("intensity"&amp;H191, $D$40, "getIntensity", [2]!obMake("", "int", H191))</f>
         <v>intensity88 
-[17130]</v>
+[86419]</v>
       </c>
       <c r="Z191">
         <f>[2]!obGet([2]!obCall("", Y191, "getRealizations"))</f>
-        <v>1.8144964677545429E-2</v>
+        <v>4.4213906732003261E-2</v>
       </c>
       <c r="AC191" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H191, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H191))</f>
         <v>expOfIntegratedIntensity88 
-[17072]</v>
+[86253]</v>
       </c>
       <c r="AD191">
         <f>[2]!obGet([2]!obCall("", AC191, "getRealizations"))</f>
-        <v>1.1319425457637409</v>
+        <v>1.2083239689727825</v>
       </c>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
@@ -12887,47 +12887,47 @@
       <c r="L192" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H192, $K$95, "getUnderlying",  [2]!obMake("", "int", H192), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault89 
-[22146]</v>
+[87661]</v>
       </c>
       <c r="M192">
         <f>[2]!obGet([2]!obCall("",L192,"getRealizations"))</f>
-        <v>5.7812265081919896E-2</v>
+        <v>0.16493856745030314</v>
       </c>
       <c r="P192" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H192, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I192), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice89 
-[22535]</v>
+[88004]</v>
       </c>
       <c r="Q192">
         <f>[2]!obGet([2]!obCall("", P192, "getRealizations"))</f>
-        <v>0.87030145824034211</v>
+        <v>0.77602341284797505</v>
       </c>
       <c r="T192" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H192,  $K$95,"getFairValue", [2]!obMake("","int",H192) )</f>
         <v>couponBondPrice89 
-[21948]</v>
+[86671]</v>
       </c>
       <c r="U192">
         <f>[2]!obGet([2]!obCall("",  T192,"getRealizations"))</f>
-        <v>1.0560779053311062</v>
+        <v>0.85362575413277253</v>
       </c>
       <c r="Y192" t="str">
         <f>[2]!obCall("intensity"&amp;H192, $D$40, "getIntensity", [2]!obMake("", "int", H192))</f>
         <v>intensity89 
-[17158]</v>
+[87272]</v>
       </c>
       <c r="Z192">
         <f>[2]!obGet([2]!obCall("", Y192, "getRealizations"))</f>
-        <v>1.818634658288262E-2</v>
+        <v>4.663403645633668E-2</v>
       </c>
       <c r="AC192" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H192, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H192))</f>
         <v>expOfIntegratedIntensity89 
-[17014]</v>
+[87326]</v>
       </c>
       <c r="AD192">
         <f>[2]!obGet([2]!obCall("", AC192, "getRealizations"))</f>
-        <v>1.1339983160446525</v>
+        <v>1.2136782693037129</v>
       </c>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.25">
@@ -12947,47 +12947,47 @@
       <c r="L193" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H193, $K$95, "getUnderlying",  [2]!obMake("", "int", H193), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault90 
-[22229]</v>
+[87455]</v>
       </c>
       <c r="M193">
         <f>[2]!obGet([2]!obCall("",L193,"getRealizations"))</f>
-        <v>4.813283231008128E-2</v>
+        <v>0.14083580182695887</v>
       </c>
       <c r="P193" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H193, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I193), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice90 
-[22664]</v>
+[87866]</v>
       </c>
       <c r="Q193">
         <f>[2]!obGet([2]!obCall("", P193, "getRealizations"))</f>
-        <v>0.88941959144219496</v>
+        <v>0.81252408924335973</v>
       </c>
       <c r="T193" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H193,  $K$95,"getFairValue", [2]!obMake("","int",H193) )</f>
         <v>couponBondPrice90 
-[21973]</v>
+[86677]</v>
       </c>
       <c r="U193">
         <f>[2]!obGet([2]!obCall("",  T193,"getRealizations"))</f>
-        <v>1.0783615505864144</v>
+        <v>0.89377649816769567</v>
       </c>
       <c r="Y193" t="str">
         <f>[2]!obCall("intensity"&amp;H193, $D$40, "getIntensity", [2]!obMake("", "int", H193))</f>
         <v>intensity90 
-[17148]</v>
+[86610]</v>
       </c>
       <c r="Z193">
         <f>[2]!obGet([2]!obCall("", Y193, "getRealizations"))</f>
-        <v>1.7802711266822605E-2</v>
+        <v>4.261381916275548E-2</v>
       </c>
       <c r="AC193" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H193, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H193))</f>
         <v>expOfIntegratedIntensity90 
-[17211]</v>
+[86439]</v>
       </c>
       <c r="AD193">
         <f>[2]!obGet([2]!obCall("", AC193, "getRealizations"))</f>
-        <v>1.136062521133175</v>
+        <v>1.2193513586409488</v>
       </c>
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.25">
@@ -13007,47 +13007,47 @@
       <c r="L194" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H194, $K$95, "getUnderlying",  [2]!obMake("", "int", H194), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault91 
-[22256]</v>
+[86747]</v>
       </c>
       <c r="M194">
         <f>[2]!obGet([2]!obCall("",L194,"getRealizations"))</f>
-        <v>4.7150437448118261E-2</v>
+        <v>0.14525422214423359</v>
       </c>
       <c r="P194" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H194, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I194), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice91 
-[22559]</v>
+[88057]</v>
       </c>
       <c r="Q194">
         <f>[2]!obGet([2]!obCall("", P194, "getRealizations"))</f>
-        <v>0.90045656368795401</v>
+        <v>0.82597594953774867</v>
       </c>
       <c r="T194" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H194,  $K$95,"getFairValue", [2]!obMake("","int",H194) )</f>
         <v>couponBondPrice91 
-[22284]</v>
+[87436]</v>
       </c>
       <c r="U194">
         <f>[2]!obGet([2]!obCall("",  T194,"getRealizations"))</f>
-        <v>0.99050222005674948</v>
+        <v>0.9085735444915235</v>
       </c>
       <c r="Y194" t="str">
         <f>[2]!obCall("intensity"&amp;H194, $D$40, "getIntensity", [2]!obMake("", "int", H194))</f>
         <v>intensity91 
-[17064]</v>
+[86251]</v>
       </c>
       <c r="Z194">
         <f>[2]!obGet([2]!obCall("", Y194, "getRealizations"))</f>
-        <v>1.7649841637266527E-2</v>
+        <v>4.2690490454037812E-2</v>
       </c>
       <c r="AC194" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H194, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H194))</f>
         <v>expOfIntegratedIntensity91 
-[17078]</v>
+[87302]</v>
       </c>
       <c r="AD194">
         <f>[2]!obGet([2]!obCall("", AC194, "getRealizations"))</f>
-        <v>1.1380868218050275</v>
+        <v>1.2245585675432029</v>
       </c>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.25">
@@ -13067,47 +13067,47 @@
       <c r="L195" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H195, $K$95, "getUnderlying",  [2]!obMake("", "int", H195), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault92 
-[22379]</v>
+[86778]</v>
       </c>
       <c r="M195">
         <f>[2]!obGet([2]!obCall("",L195,"getRealizations"))</f>
-        <v>5.3828331432360321E-2</v>
+        <v>0.15099875991908332</v>
       </c>
       <c r="P195" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H195, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I195), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice92 
-[22547]</v>
+[88090]</v>
       </c>
       <c r="Q195">
         <f>[2]!obGet([2]!obCall("", P195, "getRealizations"))</f>
-        <v>0.90604686710434001</v>
+        <v>0.83956919268484931</v>
       </c>
       <c r="T195" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H195,  $K$95,"getFairValue", [2]!obMake("","int",H195) )</f>
         <v>couponBondPrice92 
-[21929]</v>
+[86477]</v>
       </c>
       <c r="U195">
         <f>[2]!obGet([2]!obCall("",  T195,"getRealizations"))</f>
-        <v>0.99665155381477399</v>
+        <v>0.92352611195333423</v>
       </c>
       <c r="Y195" t="str">
         <f>[2]!obCall("intensity"&amp;H195, $D$40, "getIntensity", [2]!obMake("", "int", H195))</f>
         <v>intensity92 
-[17297]</v>
+[86308]</v>
       </c>
       <c r="Z195">
         <f>[2]!obGet([2]!obCall("", Y195, "getRealizations"))</f>
-        <v>1.7179349512319777E-2</v>
+        <v>4.3049953882137629E-2</v>
       </c>
       <c r="AC195" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H195, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H195))</f>
         <v>expOfIntegratedIntensity92 
-[17229]</v>
+[86630]</v>
       </c>
       <c r="AD195">
         <f>[2]!obGet([2]!obCall("", AC195, "getRealizations"))</f>
-        <v>1.1400973007322781</v>
+        <v>1.2297974426780178</v>
       </c>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.25">
@@ -13127,47 +13127,47 @@
       <c r="L196" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H196, $K$95, "getUnderlying",  [2]!obMake("", "int", H196), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault93 
-[22247]</v>
+[86744]</v>
       </c>
       <c r="M196">
         <f>[2]!obGet([2]!obCall("",L196,"getRealizations"))</f>
-        <v>6.199672785221054E-2</v>
+        <v>0.13313174595306526</v>
       </c>
       <c r="P196" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H196, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I196), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice93 
-[22791]</v>
+[87854]</v>
       </c>
       <c r="Q196">
         <f>[2]!obGet([2]!obCall("", P196, "getRealizations"))</f>
-        <v>0.91195652662253657</v>
+        <v>0.86840581483906798</v>
       </c>
       <c r="T196" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H196,  $K$95,"getFairValue", [2]!obMake("","int",H196) )</f>
         <v>couponBondPrice93 
-[21979]</v>
+[86489]</v>
       </c>
       <c r="U196">
         <f>[2]!obGet([2]!obCall("",  T196,"getRealizations"))</f>
-        <v>1.0031521792847902</v>
+        <v>0.95524639632297481</v>
       </c>
       <c r="Y196" t="str">
         <f>[2]!obCall("intensity"&amp;H196, $D$40, "getIntensity", [2]!obMake("", "int", H196))</f>
         <v>intensity93 
-[16977]</v>
+[86380]</v>
       </c>
       <c r="Z196">
         <f>[2]!obGet([2]!obCall("", Y196, "getRealizations"))</f>
-        <v>1.7558452108069972E-2</v>
+        <v>4.1429565551341342E-2</v>
       </c>
       <c r="AC196" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H196, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H196))</f>
         <v>expOfIntegratedIntensity93 
-[17309]</v>
+[86650]</v>
       </c>
       <c r="AD196">
         <f>[2]!obGet([2]!obCall("", AC196, "getRealizations"))</f>
-        <v>1.1420575970816995</v>
+        <v>1.2351031272768698</v>
       </c>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.25">
@@ -13187,47 +13187,47 @@
       <c r="L197" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H197, $K$95, "getUnderlying",  [2]!obMake("", "int", H197), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault94 
-[22131]</v>
+[86716]</v>
       </c>
       <c r="M197">
         <f>[2]!obGet([2]!obCall("",L197,"getRealizations"))</f>
-        <v>6.3816010368282688E-2</v>
+        <v>0.11699550133364855</v>
       </c>
       <c r="P197" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H197, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I197), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice94 
-[22520]</v>
+[88051]</v>
       </c>
       <c r="Q197">
         <f>[2]!obGet([2]!obCall("", P197, "getRealizations"))</f>
-        <v>0.92286398686982085</v>
+        <v>0.89430603191433655</v>
       </c>
       <c r="T197" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H197,  $K$95,"getFairValue", [2]!obMake("","int",H197) )</f>
         <v>couponBondPrice94 
-[22048]</v>
+[86507]</v>
       </c>
       <c r="U197">
         <f>[2]!obGet([2]!obCall("",  T197,"getRealizations"))</f>
-        <v>1.0151503855568029</v>
+        <v>0.98373663510577025</v>
       </c>
       <c r="Y197" t="str">
         <f>[2]!obCall("intensity"&amp;H197, $D$40, "getIntensity", [2]!obMake("", "int", H197))</f>
         <v>intensity94 
-[17321]</v>
+[86314]</v>
       </c>
       <c r="Z197">
         <f>[2]!obGet([2]!obCall("", Y197, "getRealizations"))</f>
-        <v>1.6024384741945442E-2</v>
+        <v>3.7824736456463087E-2</v>
       </c>
       <c r="AC197" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H197, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H197))</f>
         <v>expOfIntegratedIntensity94 
-[17012]</v>
+[86576]</v>
       </c>
       <c r="AD197">
         <f>[2]!obGet([2]!obCall("", AC197, "getRealizations"))</f>
-        <v>1.1440646349522774</v>
+        <v>1.2402307202375193</v>
       </c>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.25">
@@ -13247,47 +13247,47 @@
       <c r="L198" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H198, $K$95, "getUnderlying",  [2]!obMake("", "int", H198), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault95 
-[22338]</v>
+[87419]</v>
       </c>
       <c r="M198">
         <f>[2]!obGet([2]!obCall("",L198,"getRealizations"))</f>
-        <v>4.8487165205340479E-2</v>
+        <v>0.11335197471488445</v>
       </c>
       <c r="P198" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H198, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I198), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice95 
-[22426]</v>
+[87960]</v>
       </c>
       <c r="Q198">
         <f>[2]!obGet([2]!obCall("", P198, "getRealizations"))</f>
-        <v>0.94223121234023544</v>
+        <v>0.91252942885985722</v>
       </c>
       <c r="T198" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H198,  $K$95,"getFairValue", [2]!obMake("","int",H198) )</f>
         <v>couponBondPrice95 
-[22286]</v>
+[87005]</v>
       </c>
       <c r="U198">
         <f>[2]!obGet([2]!obCall("",  T198,"getRealizations"))</f>
-        <v>1.0364543335742589</v>
+        <v>1.0037823717458429</v>
       </c>
       <c r="Y198" t="str">
         <f>[2]!obCall("intensity"&amp;H198, $D$40, "getIntensity", [2]!obMake("", "int", H198))</f>
         <v>intensity95 
-[17140]</v>
+[86608]</v>
       </c>
       <c r="Z198">
         <f>[2]!obGet([2]!obCall("", Y198, "getRealizations"))</f>
-        <v>1.4011144313433709E-2</v>
+        <v>3.7353647706763277E-2</v>
       </c>
       <c r="AC198" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H198, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H198))</f>
         <v>expOfIntegratedIntensity95 
-[17325]</v>
+[86654]</v>
       </c>
       <c r="AD198">
         <f>[2]!obGet([2]!obCall("", AC198, "getRealizations"))</f>
-        <v>1.1458993977949654</v>
+        <v>1.2449307435047665</v>
       </c>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.25">
@@ -13307,47 +13307,47 @@
       <c r="L199" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H199, $K$95, "getUnderlying",  [2]!obMake("", "int", H199), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault96 
-[22279]</v>
+[86753]</v>
       </c>
       <c r="M199">
         <f>[2]!obGet([2]!obCall("",L199,"getRealizations"))</f>
-        <v>4.5033670138335501E-2</v>
+        <v>0.12432112397699553</v>
       </c>
       <c r="P199" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H199, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I199), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice96 
-[22676]</v>
+[87899]</v>
       </c>
       <c r="Q199">
         <f>[2]!obGet([2]!obCall("", P199, "getRealizations"))</f>
-        <v>0.95472239485261423</v>
+        <v>0.92520994255347355</v>
       </c>
       <c r="T199" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H199,  $K$95,"getFairValue", [2]!obMake("","int",H199) )</f>
         <v>couponBondPrice96 
-[22321]</v>
+[86763]</v>
       </c>
       <c r="U199">
         <f>[2]!obGet([2]!obCall("",  T199,"getRealizations"))</f>
-        <v>1.0501946343378756</v>
+        <v>1.017730936808821</v>
       </c>
       <c r="Y199" t="str">
         <f>[2]!obCall("intensity"&amp;H199, $D$40, "getIntensity", [2]!obMake("", "int", H199))</f>
         <v>intensity96 
-[17056]</v>
+[86249]</v>
       </c>
       <c r="Z199">
         <f>[2]!obGet([2]!obCall("", Y199, "getRealizations"))</f>
-        <v>1.5455618021431642E-2</v>
+        <v>3.9630961344959817E-2</v>
       </c>
       <c r="AC199" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H199, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H199))</f>
         <v>expOfIntegratedIntensity96 
-[16975]</v>
+[86229]</v>
       </c>
       <c r="AD199">
         <f>[2]!obGet([2]!obCall("", AC199, "getRealizations"))</f>
-        <v>1.1475060592735364</v>
+        <v>1.2495897099984477</v>
       </c>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.25">
@@ -13367,47 +13367,47 @@
       <c r="L200" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H200, $K$95, "getUnderlying",  [2]!obMake("", "int", H200), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault97 
-[22149]</v>
+[87483]</v>
       </c>
       <c r="M200">
         <f>[2]!obGet([2]!obCall("",L200,"getRealizations"))</f>
-        <v>3.0118861136049613E-2</v>
+        <v>0.11806296778814598</v>
       </c>
       <c r="P200" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H200, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I200), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice97 
-[22684]</v>
+[87824]</v>
       </c>
       <c r="Q200">
         <f>[2]!obGet([2]!obCall("", P200, "getRealizations"))</f>
-        <v>0.97007590619756379</v>
+        <v>0.945002883507578</v>
       </c>
       <c r="T200" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H200,  $K$95,"getFairValue", [2]!obMake("","int",H200) )</f>
         <v>couponBondPrice97 
-[22054]</v>
+[87514]</v>
       </c>
       <c r="U200">
         <f>[2]!obGet([2]!obCall("",  T200,"getRealizations"))</f>
-        <v>1.0670834968173202</v>
+        <v>1.0395031718583359</v>
       </c>
       <c r="Y200" t="str">
         <f>[2]!obCall("intensity"&amp;H200, $D$40, "getIntensity", [2]!obMake("", "int", H200))</f>
         <v>intensity97 
-[17154]</v>
+[86425]</v>
       </c>
       <c r="Z200">
         <f>[2]!obGet([2]!obCall("", Y200, "getRealizations"))</f>
-        <v>1.6518980013806729E-2</v>
+        <v>3.840734909005418E-2</v>
       </c>
       <c r="AC200" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H200, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H200))</f>
         <v>expOfIntegratedIntensity97 
-[17221]</v>
+[86628]</v>
       </c>
       <c r="AD200">
         <f>[2]!obGet([2]!obCall("", AC200, "getRealizations"))</f>
-        <v>1.1492809720718689</v>
+        <v>1.2545517802339576</v>
       </c>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.25">
@@ -13427,47 +13427,47 @@
       <c r="L201" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H201, $K$95, "getUnderlying",  [2]!obMake("", "int", H201), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault98 
-[22232]</v>
+[86553]</v>
       </c>
       <c r="M201">
         <f>[2]!obGet([2]!obCall("",L201,"getRealizations"))</f>
-        <v>1.9916432704978747E-2</v>
+        <v>0.12289948821248899</v>
       </c>
       <c r="P201" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H201, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I201), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice98 
-[22430]</v>
+[87932]</v>
       </c>
       <c r="Q201">
         <f>[2]!obGet([2]!obCall("", P201, "getRealizations"))</f>
-        <v>0.98190247235609729</v>
+        <v>0.96198419155564852</v>
       </c>
       <c r="T201" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H201,  $K$95,"getFairValue", [2]!obMake("","int",H201) )</f>
         <v>couponBondPrice98 
-[21925]</v>
+[87739]</v>
       </c>
       <c r="U201">
         <f>[2]!obGet([2]!obCall("",  T201,"getRealizations"))</f>
-        <v>1.0800927195917069</v>
+        <v>1.0581826107112133</v>
       </c>
       <c r="Y201" t="str">
         <f>[2]!obCall("intensity"&amp;H201, $D$40, "getIntensity", [2]!obMake("", "int", H201))</f>
         <v>intensity98 
-[17074]</v>
+[86405]</v>
       </c>
       <c r="Z201">
         <f>[2]!obGet([2]!obCall("", Y201, "getRealizations"))</f>
-        <v>1.8403362695727451E-2</v>
+        <v>3.8959474543944654E-2</v>
       </c>
       <c r="AC201" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H201, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H201))</f>
         <v>expOfIntegratedIntensity98 
-[17132]</v>
+[86606]</v>
       </c>
       <c r="AD201">
         <f>[2]!obGet([2]!obCall("", AC201, "getRealizations"))</f>
-        <v>1.1511810359364403</v>
+        <v>1.2593794460091878</v>
       </c>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.25">
@@ -13487,47 +13487,47 @@
       <c r="L202" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H202, $K$95, "getUnderlying",  [2]!obMake("", "int", H202), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault99 
-[22332]</v>
+[86766]</v>
       </c>
       <c r="M202">
         <f>[2]!obGet([2]!obCall("",L202,"getRealizations"))</f>
-        <v>1.4164752560078694E-2</v>
+        <v>0.11947678826140555</v>
       </c>
       <c r="P202" t="str">
         <f>[2]!obCall("zcbondFairPrice"&amp;H202, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I202), [2]!obMake("", "double", $I$203))</f>
         <v>zcbondFairPrice99 
-[22512]</v>
+[88013]</v>
       </c>
       <c r="Q202">
         <f>[2]!obGet([2]!obCall("", P202, "getRealizations"))</f>
-        <v>0.99146163737536697</v>
+        <v>0.9811009272901835</v>
       </c>
       <c r="T202" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H202,  $K$95,"getFairValue", [2]!obMake("","int",H202) )</f>
         <v>couponBondPrice99 
-[22390]</v>
+[87576]</v>
       </c>
       <c r="U202">
         <f>[2]!obGet([2]!obCall("",  T202,"getRealizations"))</f>
-        <v>1.0906078011129037</v>
+        <v>1.0792110200192018</v>
       </c>
       <c r="Y202" t="str">
         <f>[2]!obCall("intensity"&amp;H202, $D$40, "getIntensity", [2]!obMake("", "int", H202))</f>
         <v>intensity99 
-[16973]</v>
+[87341]</v>
       </c>
       <c r="Z202">
         <f>[2]!obGet([2]!obCall("", Y202, "getRealizations"))</f>
-        <v>1.8860502121228438E-2</v>
+        <v>3.6978626639232778E-2</v>
       </c>
       <c r="AC202" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H202, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H202))</f>
         <v>expOfIntegratedIntensity99 
-[17329]</v>
+[86316]</v>
       </c>
       <c r="AD202">
         <f>[2]!obGet([2]!obCall("", AC202, "getRealizations"))</f>
-        <v>1.1533015467777386</v>
+        <v>1.2642954922667915</v>
       </c>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.25">
@@ -13547,24 +13547,23 @@
       <c r="L203" t="str">
         <f>[2]!obCall("underlyingModelFromNPVAndDefault"&amp;H203, $K$95, "getUnderlying",  [2]!obMake("", "int", H203), [2]!obMake("","int", 0))</f>
         <v>underlyingModelFromNPVAndDefault100 
-[22382]</v>
+[87580]</v>
       </c>
       <c r="M203">
         <f>[2]!obGet([2]!obCall("",L203,"getRealizations"))</f>
-        <v>9.6534015885268304E-3</v>
+        <v>0.12440331807903411</v>
       </c>
       <c r="P203" t="e">
         <f>[2]!obCall("zcbondFairPrice"&amp;H203, $K$99, "getZeroCouponBond", [2]!obMake("", "double",I203), [2]!obMake("", "double", $I$203))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q203" t="e">
-        <f>[2]!obGet([2]!obCall("", P203, "getRealizations"))</f>
-        <v>#VALUE!</v>
+      <c r="Q203">
+        <v>1</v>
       </c>
       <c r="T203" t="str">
         <f>[2]!obCall("couponBondPrice"&amp;H203,  $K$95,"getFairValue", [2]!obMake("","int",H203) )</f>
         <v>couponBondPrice100 
-[22155]</v>
+[87657]</v>
       </c>
       <c r="U203">
         <f>[2]!obGet([2]!obCall("",  T203,"getRealizations"))</f>
@@ -13573,20 +13572,20 @@
       <c r="Y203" t="str">
         <f>[2]!obCall("intensity"&amp;H203, $D$40, "getIntensity", [2]!obMake("", "int", H203))</f>
         <v>intensity100 
-[17299]</v>
+[86461]</v>
       </c>
       <c r="Z203">
         <f>[2]!obGet([2]!obCall("", Y203, "getRealizations"))</f>
-        <v>1.6973809058310939E-2</v>
+        <v>3.8108563145153991E-2</v>
       </c>
       <c r="AC203" t="str">
         <f>[2]!obCall("expOfIntegratedIntensity"&amp;H203, $D$40, "getExpOfIntegratedIntensity", [2]!obMake("", "int", H203))</f>
         <v>expOfIntegratedIntensity100 
-[17150]</v>
+[87275]</v>
       </c>
       <c r="AD203">
         <f>[2]!obGet([2]!obCall("", AC203, "getRealizations"))</f>
-        <v>1.1554787839485912</v>
+        <v>1.268979338135878</v>
       </c>
     </row>
   </sheetData>
